--- a/BackTest/2019-10-18 BackTest XEM.xlsx
+++ b/BackTest/2019-10-18 BackTest XEM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.899999999999999</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>66.66666666666693</v>
+      </c>
       <c r="L12" t="n">
         <v>49.57000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.099999999999994</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>78.94736842105299</v>
+      </c>
       <c r="L13" t="n">
         <v>49.71</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.499999999999993</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>45.45454545454569</v>
+      </c>
       <c r="L14" t="n">
         <v>49.82000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.499999999999993</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.28571428571458</v>
+      </c>
       <c r="L15" t="n">
         <v>49.92</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.699999999999996</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>49.96000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.100000000000001</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>11.11111111111085</v>
+      </c>
       <c r="L17" t="n">
         <v>49.97000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.400000000000006</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>23.80952380952371</v>
+      </c>
       <c r="L18" t="n">
         <v>50.02</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>4.000000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-16.66666666666652</v>
+      </c>
       <c r="L19" t="n">
         <v>50.01000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4.100000000000009</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-24.99999999999993</v>
+      </c>
       <c r="L20" t="n">
         <v>49.96</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>4.400000000000006</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-43.99999999999994</v>
+      </c>
       <c r="L21" t="n">
         <v>49.87</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>4.400000000000006</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-56.52173913043438</v>
+      </c>
       <c r="L22" t="n">
         <v>49.76000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>4.500000000000007</v>
       </c>
       <c r="K23" t="n">
-        <v>4.545454545454604</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L23" t="n">
         <v>49.64000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K24" t="n">
-        <v>13.04347826086959</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L24" t="n">
         <v>49.59000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>5.200000000000003</v>
       </c>
       <c r="K25" t="n">
-        <v>18.36734693877549</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="L25" t="n">
         <v>49.58000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>-6.666666666666604</v>
+        <v>-11.99999999999989</v>
       </c>
       <c r="L26" t="n">
         <v>49.51000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-4.545454545454604</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L27" t="n">
         <v>49.48000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-2.325581395348868</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>49.42000000000002</v>
@@ -1711,7 +1733,7 @@
         <v>5.800000000000004</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.666666666666751</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L29" t="n">
         <v>49.40000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>-16.27906976744174</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L30" t="n">
         <v>49.38000000000002</v>
@@ -1809,7 +1831,7 @@
         <v>6.100000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>-22.7272727272727</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L31" t="n">
         <v>49.37000000000002</v>
@@ -1860,7 +1882,7 @@
         <v>6.100000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>-28.57142857142862</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L32" t="n">
         <v>49.36000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>6.200000000000003</v>
       </c>
       <c r="K33" t="n">
-        <v>-36.58536585365846</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L33" t="n">
         <v>49.33000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>6.300000000000004</v>
       </c>
       <c r="K34" t="n">
-        <v>-26.31578947368413</v>
+        <v>-81.81818181818159</v>
       </c>
       <c r="L34" t="n">
         <v>49.28000000000002</v>
@@ -2013,7 +2035,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="K35" t="n">
-        <v>-36.3636363636363</v>
+        <v>-84.61538461538444</v>
       </c>
       <c r="L35" t="n">
         <v>49.13000000000002</v>
@@ -2064,7 +2086,7 @@
         <v>7.300000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>-30.43478260869572</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L36" t="n">
         <v>49.06000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>-25.58139534883709</v>
+        <v>-44.44444444444436</v>
       </c>
       <c r="L37" t="n">
         <v>48.98000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>7.5</v>
       </c>
       <c r="K38" t="n">
-        <v>-36.58536585365859</v>
+        <v>-41.17647058823515</v>
       </c>
       <c r="L38" t="n">
         <v>48.89000000000002</v>
@@ -2217,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="K39" t="n">
-        <v>-35.00000000000003</v>
+        <v>-52.38095238095242</v>
       </c>
       <c r="L39" t="n">
         <v>48.77000000000002</v>
@@ -2268,7 +2290,7 @@
         <v>8.199999999999996</v>
       </c>
       <c r="K40" t="n">
-        <v>-26.82926829268305</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L40" t="n">
         <v>48.68000000000002</v>
@@ -2319,7 +2341,7 @@
         <v>8.5</v>
       </c>
       <c r="K41" t="n">
-        <v>-12.19512195121953</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L41" t="n">
         <v>48.64000000000002</v>
@@ -2370,7 +2392,7 @@
         <v>8.600000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>-14.28571428571433</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L42" t="n">
         <v>48.59000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K43" t="n">
-        <v>-14.28571428571433</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L43" t="n">
         <v>48.56000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K44" t="n">
-        <v>-23.07692307692305</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L44" t="n">
         <v>48.52000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K45" t="n">
-        <v>-37.14285714285706</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L45" t="n">
         <v>48.54000000000003</v>
@@ -2574,7 +2596,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K46" t="n">
-        <v>-29.03225806451607</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L46" t="n">
         <v>48.52000000000003</v>
@@ -2625,7 +2647,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K47" t="n">
-        <v>-29.03225806451607</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>48.51000000000003</v>
@@ -2676,7 +2698,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K48" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L48" t="n">
         <v>48.49000000000003</v>
@@ -2727,7 +2749,7 @@
         <v>9.000000000000007</v>
       </c>
       <c r="K49" t="n">
-        <v>-24.99999999999989</v>
+        <v>25</v>
       </c>
       <c r="L49" t="n">
         <v>48.53000000000003</v>
@@ -2778,7 +2800,7 @@
         <v>9.100000000000009</v>
       </c>
       <c r="K50" t="n">
-        <v>-25.00000000000006</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>48.54000000000003</v>
@@ -2829,7 +2851,7 @@
         <v>9.300000000000011</v>
       </c>
       <c r="K51" t="n">
-        <v>-12.49999999999992</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L51" t="n">
         <v>48.54000000000002</v>
@@ -2880,7 +2902,7 @@
         <v>9.300000000000011</v>
       </c>
       <c r="K52" t="n">
-        <v>-12.49999999999992</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>48.55000000000003</v>
@@ -2931,7 +2953,7 @@
         <v>9.400000000000013</v>
       </c>
       <c r="K53" t="n">
-        <v>-6.249999999999847</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L53" t="n">
         <v>48.56000000000002</v>
@@ -2982,7 +3004,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K54" t="n">
-        <v>-6.250000000000083</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L54" t="n">
         <v>48.58000000000002</v>
@@ -3033,7 +3055,7 @@
         <v>9.900000000000006</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L55" t="n">
         <v>48.56000000000002</v>
@@ -3084,7 +3106,7 @@
         <v>10.10000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>-7.14285714285698</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>48.56000000000002</v>
@@ -3135,7 +3157,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L57" t="n">
         <v>48.57000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>10.3</v>
       </c>
       <c r="K58" t="n">
-        <v>7.14285714285698</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L58" t="n">
         <v>48.61000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>35.99999999999984</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L59" t="n">
         <v>48.66000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>33.33333333333333</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L60" t="n">
         <v>48.73000000000002</v>
@@ -3339,7 +3361,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>23.80952380952371</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L61" t="n">
         <v>48.78000000000002</v>
@@ -3390,7 +3412,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>29.99999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>48.83000000000002</v>
@@ -3441,7 +3463,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>36.36363636363619</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L63" t="n">
         <v>48.90000000000002</v>
@@ -3492,7 +3514,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>39.13043478260856</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
         <v>48.97000000000002</v>
@@ -3543,7 +3565,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>39.13043478260856</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
         <v>49.08000000000003</v>
@@ -3594,7 +3616,7 @@
         <v>11.3</v>
       </c>
       <c r="K66" t="n">
-        <v>46.15384615384596</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
         <v>49.20000000000002</v>
@@ -3645,7 +3667,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>48.14814814814799</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
         <v>49.32000000000002</v>
@@ -3696,7 +3718,7 @@
         <v>11.6</v>
       </c>
       <c r="K68" t="n">
-        <v>48.14814814814839</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L68" t="n">
         <v>49.41000000000002</v>
@@ -3747,7 +3769,7 @@
         <v>11.6</v>
       </c>
       <c r="K69" t="n">
-        <v>46.15384615384636</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L69" t="n">
         <v>49.48000000000002</v>
@@ -3798,7 +3820,7 @@
         <v>11.7</v>
       </c>
       <c r="K70" t="n">
-        <v>46.15384615384636</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L70" t="n">
         <v>49.53000000000002</v>
@@ -3849,7 +3871,7 @@
         <v>11.7</v>
       </c>
       <c r="K71" t="n">
-        <v>41.66666666666681</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L71" t="n">
         <v>49.58000000000002</v>
@@ -3900,7 +3922,7 @@
         <v>11.7</v>
       </c>
       <c r="K72" t="n">
-        <v>41.66666666666681</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L72" t="n">
         <v>49.63000000000002</v>
@@ -3951,7 +3973,7 @@
         <v>11.7</v>
       </c>
       <c r="K73" t="n">
-        <v>39.1304347826088</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L73" t="n">
         <v>49.65000000000002</v>
@@ -4002,7 +4024,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>25.00000000000007</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L74" t="n">
         <v>49.64000000000002</v>
@@ -4053,7 +4075,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>42.85714285714276</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L75" t="n">
         <v>49.62000000000002</v>
@@ -4104,7 +4126,7 @@
         <v>12.10000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>39.99999999999986</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L76" t="n">
         <v>49.58000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>29.99999999999972</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L77" t="n">
         <v>49.52000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>26.31578947368413</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L78" t="n">
         <v>49.48000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>17.64705882352921</v>
+        <v>-60</v>
       </c>
       <c r="L79" t="n">
         <v>49.44000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>12.49999999999972</v>
+        <v>-60</v>
       </c>
       <c r="L80" t="n">
         <v>49.41000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>12.3</v>
       </c>
       <c r="K81" t="n">
-        <v>5.882352941176569</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L81" t="n">
         <v>49.37000000000002</v>
@@ -4410,7 +4432,7 @@
         <v>12.3</v>
       </c>
       <c r="K82" t="n">
-        <v>5.882352941176569</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L82" t="n">
         <v>49.33000000000002</v>
@@ -4461,7 +4483,7 @@
         <v>12.3</v>
       </c>
       <c r="K83" t="n">
-        <v>-14.285714285714</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L83" t="n">
         <v>49.29000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>12.4</v>
       </c>
       <c r="K84" t="n">
-        <v>-14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>49.28000000000002</v>
@@ -4563,7 +4585,7 @@
         <v>12.4</v>
       </c>
       <c r="K85" t="n">
-        <v>-14.28571428571458</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L85" t="n">
         <v>49.28000000000002</v>
@@ -4614,7 +4636,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>49.26000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>-63.63636363636399</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>49.25000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>-55.55555555555608</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>49.24000000000002</v>
@@ -4767,7 +4789,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>-55.55555555555608</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>49.23000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>-20.00000000000057</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L90" t="n">
         <v>49.24000000000002</v>
@@ -4869,7 +4891,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>-20.00000000000057</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L91" t="n">
         <v>49.26000000000002</v>
@@ -4920,7 +4942,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>-42.85714285714344</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L92" t="n">
         <v>49.24000000000002</v>
@@ -4971,7 +4993,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>-42.85714285714344</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L93" t="n">
         <v>49.22000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>-42.85714285714344</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L94" t="n">
         <v>49.17000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>13.39999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>-28.57142857142879</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L95" t="n">
         <v>49.13000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>-28.57142857142879</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L96" t="n">
         <v>49.11000000000002</v>
@@ -5175,7 +5197,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>-23.07692307692316</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L97" t="n">
         <v>49.09000000000002</v>
@@ -5226,7 +5248,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>-14.28571428571414</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L98" t="n">
         <v>49.08000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>13.8</v>
       </c>
       <c r="K99" t="n">
-        <v>-25.00000000000011</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L99" t="n">
         <v>49.05000000000002</v>
@@ -5328,7 +5350,7 @@
         <v>13.8</v>
       </c>
       <c r="K100" t="n">
-        <v>-25.00000000000011</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L100" t="n">
         <v>49.00000000000002</v>
@@ -5379,7 +5401,7 @@
         <v>13.9</v>
       </c>
       <c r="K101" t="n">
-        <v>-25.00000000000044</v>
+        <v>-25</v>
       </c>
       <c r="L101" t="n">
         <v>48.94000000000002</v>
@@ -5430,7 +5452,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>-29.41176470588255</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L102" t="n">
         <v>48.91000000000003</v>
@@ -5481,7 +5503,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>-29.41176470588255</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L103" t="n">
         <v>48.88000000000003</v>
@@ -5532,7 +5554,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K104" t="n">
-        <v>-29.41176470588255</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L104" t="n">
         <v>48.88000000000002</v>
@@ -5583,7 +5605,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K105" t="n">
-        <v>-36.84210526315798</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L105" t="n">
         <v>48.85000000000002</v>
@@ -5634,7 +5656,7 @@
         <v>14.39999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>-26.31578947368433</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>48.82000000000003</v>
@@ -5685,7 +5707,7 @@
         <v>14.49999999999999</v>
       </c>
       <c r="K107" t="n">
-        <v>-30.00000000000018</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L107" t="n">
         <v>48.78000000000003</v>
@@ -5736,7 +5758,7 @@
         <v>14.59999999999999</v>
       </c>
       <c r="K108" t="n">
-        <v>-33.33333333333356</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L108" t="n">
         <v>48.72000000000003</v>
@@ -5787,7 +5809,7 @@
         <v>14.59999999999999</v>
       </c>
       <c r="K109" t="n">
-        <v>-33.33333333333356</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L109" t="n">
         <v>48.68000000000003</v>
@@ -5838,7 +5860,7 @@
         <v>14.69999999999999</v>
       </c>
       <c r="K110" t="n">
-        <v>-50</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L110" t="n">
         <v>48.63000000000003</v>
@@ -5889,7 +5911,7 @@
         <v>14.69999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>-50</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L111" t="n">
         <v>48.59000000000002</v>
@@ -5940,7 +5962,7 @@
         <v>14.79999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>-29.41176470588231</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L112" t="n">
         <v>48.57000000000004</v>
@@ -5991,7 +6013,7 @@
         <v>14.79999999999999</v>
       </c>
       <c r="K113" t="n">
-        <v>-29.41176470588231</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L113" t="n">
         <v>48.55000000000003</v>
@@ -6042,7 +6064,7 @@
         <v>15.19999999999999</v>
       </c>
       <c r="K114" t="n">
-        <v>5.263157894736921</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L114" t="n">
         <v>48.56000000000003</v>
@@ -6093,7 +6115,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K115" t="n">
-        <v>-9.999999999999822</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>48.57000000000003</v>
@@ -6144,7 +6166,7 @@
         <v>15.69999999999999</v>
       </c>
       <c r="K116" t="n">
-        <v>-27.27272727272739</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L116" t="n">
         <v>48.54000000000003</v>
@@ -6195,7 +6217,7 @@
         <v>15.89999999999999</v>
       </c>
       <c r="K117" t="n">
-        <v>-16.66666666666662</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L117" t="n">
         <v>48.54000000000002</v>
@@ -6246,7 +6268,7 @@
         <v>16.19999999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>-7.692307692307819</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L118" t="n">
         <v>48.58000000000002</v>
@@ -6297,7 +6319,7 @@
         <v>16.19999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>48.62000000000002</v>
@@ -6348,7 +6370,7 @@
         <v>16.29999999999999</v>
       </c>
       <c r="K120" t="n">
-        <v>4.000000000000068</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L120" t="n">
         <v>48.68000000000002</v>
@@ -6399,7 +6421,7 @@
         <v>16.29999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>8.333333333333481</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>48.74000000000002</v>
@@ -6450,7 +6472,7 @@
         <v>16.39999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>8.333333333333162</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L122" t="n">
         <v>48.78000000000002</v>
@@ -6501,7 +6523,7 @@
         <v>16.39999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>8.333333333333162</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>48.82000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>16.49999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>8.333333333333432</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L124" t="n">
         <v>48.83000000000002</v>
@@ -6603,7 +6625,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>13.04347826086938</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L125" t="n">
         <v>48.85000000000002</v>
@@ -6654,7 +6676,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>9.090909090908857</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L126" t="n">
         <v>48.90000000000002</v>
@@ -6705,7 +6727,7 @@
         <v>16.79999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>4.347826086956576</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L127" t="n">
         <v>48.91000000000003</v>
@@ -6756,7 +6778,7 @@
         <v>16.89999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>4.347826086956576</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L128" t="n">
         <v>48.88000000000003</v>
@@ -6807,7 +6829,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>-4.000000000000045</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L129" t="n">
         <v>48.83000000000003</v>
@@ -6858,7 +6880,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>-11.11111111111099</v>
+        <v>-81.81818181818159</v>
       </c>
       <c r="L130" t="n">
         <v>48.74000000000003</v>
@@ -6909,7 +6931,7 @@
         <v>17.79999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>3.225806451612947</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L131" t="n">
         <v>48.69000000000003</v>
@@ -6960,7 +6982,7 @@
         <v>18.09999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>-9.090909090909012</v>
+        <v>-41.17647058823515</v>
       </c>
       <c r="L132" t="n">
         <v>48.62000000000004</v>
@@ -7011,7 +7033,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K133" t="n">
-        <v>-2.857142857142903</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L133" t="n">
         <v>48.57000000000004</v>
@@ -7062,7 +7084,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>-16.12903225806455</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L134" t="n">
         <v>48.51000000000003</v>
@@ -7113,7 +7135,7 @@
         <v>18.49999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>-16.12903225806455</v>
+        <v>-36.84210526315798</v>
       </c>
       <c r="L135" t="n">
         <v>48.44000000000004</v>
@@ -7164,7 +7186,7 @@
         <v>18.59999999999997</v>
       </c>
       <c r="K136" t="n">
-        <v>-3.448275862069033</v>
+        <v>-22.22222222222275</v>
       </c>
       <c r="L136" t="n">
         <v>48.38000000000004</v>
@@ -7215,7 +7237,7 @@
         <v>18.59999999999997</v>
       </c>
       <c r="K137" t="n">
-        <v>-11.11111111111135</v>
+        <v>-17.64705882352985</v>
       </c>
       <c r="L137" t="n">
         <v>48.34000000000004</v>
@@ -7266,7 +7288,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K138" t="n">
-        <v>-28.00000000000007</v>
+        <v>-12.49999999999994</v>
       </c>
       <c r="L138" t="n">
         <v>48.30000000000003</v>
@@ -7317,7 +7339,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K139" t="n">
-        <v>-28.00000000000007</v>
+        <v>7.692307692307944</v>
       </c>
       <c r="L139" t="n">
         <v>48.28000000000004</v>
@@ -7368,7 +7390,7 @@
         <v>18.79999999999996</v>
       </c>
       <c r="K140" t="n">
-        <v>-28.00000000000043</v>
+        <v>-20.00000000000085</v>
       </c>
       <c r="L140" t="n">
         <v>48.30000000000003</v>
@@ -7419,7 +7441,7 @@
         <v>18.99999999999996</v>
       </c>
       <c r="K141" t="n">
-        <v>-33.33333333333368</v>
+        <v>-11.11111111111164</v>
       </c>
       <c r="L141" t="n">
         <v>48.26000000000003</v>
@@ -7470,7 +7492,7 @@
         <v>19.29999999999996</v>
       </c>
       <c r="K142" t="n">
-        <v>-37.93103448275906</v>
+        <v>-60.00000000000142</v>
       </c>
       <c r="L142" t="n">
         <v>48.22000000000003</v>
@@ -7521,7 +7543,7 @@
         <v>19.39999999999996</v>
       </c>
       <c r="K143" t="n">
-        <v>-33.33333333333365</v>
+        <v>-45.45454545454628</v>
       </c>
       <c r="L143" t="n">
         <v>48.17000000000004</v>
@@ -7572,7 +7594,7 @@
         <v>19.69999999999997</v>
       </c>
       <c r="K144" t="n">
-        <v>-25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>48.15000000000005</v>
@@ -7623,7 +7645,7 @@
         <v>19.79999999999997</v>
       </c>
       <c r="K145" t="n">
-        <v>-25.00000000000011</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L145" t="n">
         <v>48.14000000000005</v>
@@ -7674,7 +7696,7 @@
         <v>20.09999999999997</v>
       </c>
       <c r="K146" t="n">
-        <v>-31.42857142857166</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>48.09000000000005</v>
@@ -7725,7 +7747,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K147" t="n">
-        <v>-23.52941176470611</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L147" t="n">
         <v>48.05000000000005</v>
@@ -7776,7 +7798,7 @@
         <v>20.29999999999998</v>
       </c>
       <c r="K148" t="n">
-        <v>-17.64705882352953</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L148" t="n">
         <v>48.03000000000004</v>
@@ -7827,7 +7849,7 @@
         <v>20.39999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>-9.090909090909053</v>
+        <v>-12.49999999999961</v>
       </c>
       <c r="L149" t="n">
         <v>48.02000000000005</v>
@@ -7878,7 +7900,7 @@
         <v>20.49999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>-3.225806451612962</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L150" t="n">
         <v>47.99000000000005</v>
@@ -7929,7 +7951,7 @@
         <v>20.49999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>-18.51851851851859</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L151" t="n">
         <v>47.98000000000005</v>
@@ -7980,7 +8002,7 @@
         <v>20.49999999999998</v>
       </c>
       <c r="K152" t="n">
-        <v>-8.333333333333481</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L152" t="n">
         <v>48.00000000000005</v>
@@ -8031,7 +8053,7 @@
         <v>20.79999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>-27.99999999999991</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L153" t="n">
         <v>47.98000000000005</v>
@@ -8082,7 +8104,7 @@
         <v>20.89999999999997</v>
       </c>
       <c r="K154" t="n">
-        <v>-23.07692307692324</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L154" t="n">
         <v>47.94000000000005</v>
@@ -8133,7 +8155,7 @@
         <v>20.99999999999997</v>
       </c>
       <c r="K155" t="n">
-        <v>-12.0000000000002</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L155" t="n">
         <v>47.92000000000005</v>
@@ -8184,7 +8206,7 @@
         <v>21.19999999999997</v>
       </c>
       <c r="K156" t="n">
-        <v>-23.07692307692291</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L156" t="n">
         <v>47.91000000000005</v>
@@ -8235,7 +8257,7 @@
         <v>21.39999999999996</v>
       </c>
       <c r="K157" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L157" t="n">
         <v>47.91000000000006</v>
@@ -8286,7 +8308,7 @@
         <v>21.49999999999996</v>
       </c>
       <c r="K158" t="n">
-        <v>-14.2857142857145</v>
+        <v>-27.27272727272798</v>
       </c>
       <c r="L158" t="n">
         <v>47.89000000000006</v>
@@ -8337,7 +8359,7 @@
         <v>21.49999999999996</v>
       </c>
       <c r="K159" t="n">
-        <v>-14.2857142857145</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L159" t="n">
         <v>47.86000000000005</v>
@@ -8388,7 +8410,7 @@
         <v>21.59999999999997</v>
       </c>
       <c r="K160" t="n">
-        <v>-14.28571428571421</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L160" t="n">
         <v>47.85000000000004</v>
@@ -8439,7 +8461,7 @@
         <v>21.69999999999997</v>
       </c>
       <c r="K161" t="n">
-        <v>-3.703703703703742</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>47.85000000000004</v>
@@ -8490,7 +8512,7 @@
         <v>21.69999999999997</v>
       </c>
       <c r="K162" t="n">
-        <v>8.333333333333432</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L162" t="n">
         <v>47.85000000000004</v>
@@ -8541,7 +8563,7 @@
         <v>21.69999999999997</v>
       </c>
       <c r="K163" t="n">
-        <v>4.347826086956576</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L163" t="n">
         <v>47.88000000000005</v>
@@ -8592,7 +8614,7 @@
         <v>21.89999999999997</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L164" t="n">
         <v>47.92000000000004</v>
@@ -8643,7 +8665,7 @@
         <v>21.89999999999997</v>
       </c>
       <c r="K165" t="n">
-        <v>4.761904761904826</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L165" t="n">
         <v>47.95000000000005</v>
@@ -8694,7 +8716,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K166" t="n">
-        <v>10.00000000000014</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L166" t="n">
         <v>47.98000000000005</v>
@@ -8745,7 +8767,7 @@
         <v>22.19999999999997</v>
       </c>
       <c r="K167" t="n">
-        <v>10.00000000000014</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L167" t="n">
         <v>48.00000000000004</v>
@@ -8796,7 +8818,7 @@
         <v>22.29999999999998</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L168" t="n">
         <v>48.02000000000005</v>
@@ -8847,7 +8869,7 @@
         <v>22.39999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>-10.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>48.03000000000004</v>
@@ -8898,7 +8920,7 @@
         <v>22.39999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>-5.263157894736921</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L170" t="n">
         <v>48.03000000000005</v>
@@ -9051,7 +9073,7 @@
         <v>22.49999999999998</v>
       </c>
       <c r="K173" t="n">
-        <v>17.64705882352921</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>48.03000000000005</v>
@@ -9102,7 +9124,7 @@
         <v>22.59999999999998</v>
       </c>
       <c r="K174" t="n">
-        <v>5.88235294117652</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L174" t="n">
         <v>48.00000000000005</v>
@@ -9153,7 +9175,7 @@
         <v>22.69999999999998</v>
       </c>
       <c r="K175" t="n">
-        <v>5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>47.98000000000005</v>
@@ -9204,7 +9226,7 @@
         <v>22.69999999999998</v>
       </c>
       <c r="K176" t="n">
-        <v>19.99999999999962</v>
+        <v>-20</v>
       </c>
       <c r="L176" t="n">
         <v>47.98000000000004</v>
@@ -9255,7 +9277,7 @@
         <v>22.69999999999998</v>
       </c>
       <c r="K177" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>47.97000000000004</v>
@@ -9306,7 +9328,7 @@
         <v>22.79999999999998</v>
       </c>
       <c r="K178" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>47.96000000000004</v>
@@ -9357,7 +9379,7 @@
         <v>22.79999999999998</v>
       </c>
       <c r="K179" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>47.96000000000004</v>
@@ -9408,7 +9430,7 @@
         <v>22.89999999999998</v>
       </c>
       <c r="K180" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>47.97000000000004</v>
@@ -9510,7 +9532,7 @@
         <v>22.99999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
         <v>47.98000000000004</v>
@@ -9561,7 +9583,7 @@
         <v>23.09999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L183" t="n">
         <v>48.00000000000004</v>
@@ -9612,7 +9634,7 @@
         <v>23.09999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L184" t="n">
         <v>48.03000000000005</v>
@@ -9663,7 +9685,7 @@
         <v>23.09999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L185" t="n">
         <v>48.05000000000005</v>
@@ -9714,7 +9736,7 @@
         <v>23.09999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L186" t="n">
         <v>48.07000000000006</v>
@@ -9765,7 +9787,7 @@
         <v>23.09999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L187" t="n">
         <v>48.09000000000007</v>
@@ -9816,7 +9838,7 @@
         <v>23.19999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>33.33333333333281</v>
+        <v>100</v>
       </c>
       <c r="L188" t="n">
         <v>48.13000000000007</v>
@@ -9867,7 +9889,7 @@
         <v>23.19999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L189" t="n">
         <v>48.17000000000006</v>
@@ -9918,7 +9940,7 @@
         <v>23.29999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>55.5555555555552</v>
+        <v>100</v>
       </c>
       <c r="L190" t="n">
         <v>48.21000000000006</v>
@@ -9969,7 +9991,7 @@
         <v>23.29999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L191" t="n">
         <v>48.25000000000006</v>
@@ -10020,7 +10042,7 @@
         <v>23.49999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>59.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L192" t="n">
         <v>48.30000000000005</v>
@@ -10071,7 +10093,7 @@
         <v>23.59999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>45.45454545454511</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L193" t="n">
         <v>48.33000000000006</v>
@@ -10122,7 +10144,7 @@
         <v>23.69999999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>45.45454545454511</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L194" t="n">
         <v>48.35000000000007</v>
@@ -10173,7 +10195,7 @@
         <v>23.89999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>16.66666666666686</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>48.35000000000007</v>
@@ -10224,7 +10246,7 @@
         <v>24.09999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>28.5714285714285</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L196" t="n">
         <v>48.37000000000007</v>
@@ -10275,7 +10297,7 @@
         <v>24.19999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>19.99999999999981</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>48.38000000000007</v>
@@ -10326,7 +10348,7 @@
         <v>24.49999999999998</v>
       </c>
       <c r="K198" t="n">
-        <v>5.882352941176569</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L198" t="n">
         <v>48.35000000000007</v>
@@ -10377,7 +10399,7 @@
         <v>24.79999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>20</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L199" t="n">
         <v>48.35000000000007</v>
@@ -10428,7 +10450,7 @@
         <v>24.99999999999997</v>
       </c>
       <c r="K200" t="n">
-        <v>4.761904761904859</v>
+        <v>-17.64705882352936</v>
       </c>
       <c r="L200" t="n">
         <v>48.32000000000006</v>
@@ -10479,7 +10501,7 @@
         <v>24.99999999999997</v>
       </c>
       <c r="K201" t="n">
-        <v>4.761904761904859</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L201" t="n">
         <v>48.29000000000006</v>
@@ -10530,7 +10552,7 @@
         <v>24.99999999999997</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-28.57142857142879</v>
       </c>
       <c r="L202" t="n">
         <v>48.24000000000007</v>
@@ -10581,7 +10603,7 @@
         <v>24.99999999999997</v>
       </c>
       <c r="K203" t="n">
-        <v>-5.263157894736961</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L203" t="n">
         <v>48.20000000000007</v>
@@ -10683,7 +10705,7 @@
         <v>25.29999999999998</v>
       </c>
       <c r="K205" t="n">
-        <v>-9.090909090909268</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>48.16000000000007</v>
@@ -10734,7 +10756,7 @@
         <v>25.29999999999998</v>
       </c>
       <c r="K206" t="n">
-        <v>-9.090909090909268</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L206" t="n">
         <v>48.12000000000008</v>
@@ -10785,7 +10807,7 @@
         <v>25.29999999999998</v>
       </c>
       <c r="K207" t="n">
-        <v>-9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>48.09000000000008</v>
@@ -10836,7 +10858,7 @@
         <v>25.59999999999997</v>
       </c>
       <c r="K208" t="n">
-        <v>-24.99999999999985</v>
+        <v>-74.99999999999956</v>
       </c>
       <c r="L208" t="n">
         <v>48.06000000000008</v>
@@ -10887,7 +10909,7 @@
         <v>25.59999999999997</v>
       </c>
       <c r="K209" t="n">
-        <v>-24.99999999999985</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L209" t="n">
         <v>48.00000000000009</v>
@@ -10938,7 +10960,7 @@
         <v>25.79999999999997</v>
       </c>
       <c r="K210" t="n">
-        <v>-20.00000000000011</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L210" t="n">
         <v>47.98000000000009</v>
@@ -10989,7 +11011,7 @@
         <v>25.99999999999996</v>
       </c>
       <c r="K211" t="n">
-        <v>-25.92592592592595</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L211" t="n">
         <v>47.94000000000009</v>
@@ -11040,7 +11062,7 @@
         <v>26.19999999999996</v>
       </c>
       <c r="K212" t="n">
-        <v>-25.92592592592628</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L212" t="n">
         <v>47.92000000000009</v>
@@ -11091,7 +11113,7 @@
         <v>26.19999999999996</v>
       </c>
       <c r="K213" t="n">
-        <v>-23.07692307692337</v>
+        <v>-27.27272727272798</v>
       </c>
       <c r="L213" t="n">
         <v>47.90000000000008</v>
@@ -11142,7 +11164,7 @@
         <v>26.19999999999996</v>
       </c>
       <c r="K214" t="n">
-        <v>-20.00000000000023</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L214" t="n">
         <v>47.87000000000008</v>
@@ -11193,7 +11215,7 @@
         <v>26.19999999999996</v>
       </c>
       <c r="K215" t="n">
-        <v>-13.04347826086989</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L215" t="n">
         <v>47.86000000000008</v>
@@ -11244,7 +11266,7 @@
         <v>26.19999999999996</v>
       </c>
       <c r="K216" t="n">
-        <v>-23.80952380952404</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L216" t="n">
         <v>47.85000000000008</v>
@@ -11295,7 +11317,7 @@
         <v>26.29999999999996</v>
       </c>
       <c r="K217" t="n">
-        <v>-14.28571428571428</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L217" t="n">
         <v>47.85000000000008</v>
@@ -11346,7 +11368,7 @@
         <v>26.39999999999996</v>
       </c>
       <c r="K218" t="n">
-        <v>-5.263157894736961</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L218" t="n">
         <v>47.87000000000008</v>
@@ -11397,7 +11419,7 @@
         <v>26.49999999999996</v>
       </c>
       <c r="K219" t="n">
-        <v>-17.64705882352936</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L219" t="n">
         <v>47.90000000000008</v>
@@ -11448,7 +11470,7 @@
         <v>26.49999999999996</v>
       </c>
       <c r="K220" t="n">
-        <v>-6.666666666666793</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L220" t="n">
         <v>47.91000000000007</v>
@@ -11499,7 +11521,7 @@
         <v>26.59999999999997</v>
       </c>
       <c r="K221" t="n">
-        <v>-12.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>47.93000000000007</v>
@@ -11550,7 +11572,7 @@
         <v>26.59999999999997</v>
       </c>
       <c r="K222" t="n">
-        <v>-12.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>47.93000000000008</v>
@@ -11601,7 +11623,7 @@
         <v>26.69999999999997</v>
       </c>
       <c r="K223" t="n">
-        <v>-5.882352941176569</v>
+        <v>20</v>
       </c>
       <c r="L223" t="n">
         <v>47.94000000000008</v>
@@ -11652,7 +11674,7 @@
         <v>26.69999999999997</v>
       </c>
       <c r="K224" t="n">
-        <v>-12.50000000000022</v>
+        <v>20</v>
       </c>
       <c r="L224" t="n">
         <v>47.95000000000008</v>
@@ -11703,7 +11725,7 @@
         <v>26.69999999999997</v>
       </c>
       <c r="K225" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L225" t="n">
         <v>47.96000000000008</v>
@@ -11805,7 +11827,7 @@
         <v>26.69999999999997</v>
       </c>
       <c r="K227" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L227" t="n">
         <v>47.97000000000008</v>
@@ -11856,7 +11878,7 @@
         <v>26.99999999999996</v>
       </c>
       <c r="K228" t="n">
-        <v>0</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L228" t="n">
         <v>47.95000000000009</v>
@@ -11907,7 +11929,7 @@
         <v>27.29999999999996</v>
       </c>
       <c r="K229" t="n">
-        <v>17.64705882352936</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>47.95000000000009</v>
@@ -11958,7 +11980,7 @@
         <v>27.29999999999996</v>
       </c>
       <c r="K230" t="n">
-        <v>6.666666666666793</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L230" t="n">
         <v>47.95000000000009</v>
@@ -12009,7 +12031,7 @@
         <v>27.29999999999996</v>
       </c>
       <c r="K231" t="n">
-        <v>23.07692307692291</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L231" t="n">
         <v>47.96000000000009</v>
@@ -12060,7 +12082,7 @@
         <v>27.29999999999996</v>
       </c>
       <c r="K232" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>47.9700000000001</v>
@@ -12111,7 +12133,7 @@
         <v>27.29999999999996</v>
       </c>
       <c r="K233" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>47.9700000000001</v>
@@ -12162,7 +12184,7 @@
         <v>27.29999999999996</v>
       </c>
       <c r="K234" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>47.9700000000001</v>
@@ -12213,7 +12235,7 @@
         <v>27.29999999999996</v>
       </c>
       <c r="K235" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>47.9700000000001</v>
@@ -12264,7 +12286,7 @@
         <v>27.29999999999996</v>
       </c>
       <c r="K236" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>47.9700000000001</v>
@@ -12315,7 +12337,7 @@
         <v>27.39999999999996</v>
       </c>
       <c r="K237" t="n">
-        <v>-9.090909090909207</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L237" t="n">
         <v>47.96000000000009</v>
@@ -12366,7 +12388,7 @@
         <v>27.49999999999996</v>
       </c>
       <c r="K238" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>47.99000000000009</v>
@@ -12417,7 +12439,7 @@
         <v>27.59999999999997</v>
       </c>
       <c r="K239" t="n">
-        <v>-9.090909090909207</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L239" t="n">
         <v>47.9800000000001</v>
@@ -12519,7 +12541,7 @@
         <v>27.69999999999997</v>
       </c>
       <c r="K241" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>47.9800000000001</v>
@@ -12570,7 +12592,7 @@
         <v>28.09999999999997</v>
       </c>
       <c r="K242" t="n">
-        <v>-19.99999999999981</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L242" t="n">
         <v>47.9400000000001</v>
@@ -12621,7 +12643,7 @@
         <v>28.19999999999997</v>
       </c>
       <c r="K243" t="n">
-        <v>-19.99999999999981</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L243" t="n">
         <v>47.9100000000001</v>
@@ -12672,7 +12694,7 @@
         <v>28.39999999999996</v>
       </c>
       <c r="K244" t="n">
-        <v>-5.882352941176569</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L244" t="n">
         <v>47.90000000000011</v>
@@ -12723,7 +12745,7 @@
         <v>28.39999999999996</v>
       </c>
       <c r="K245" t="n">
-        <v>-5.882352941176569</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L245" t="n">
         <v>47.8900000000001</v>
@@ -12774,7 +12796,7 @@
         <v>28.39999999999996</v>
       </c>
       <c r="K246" t="n">
-        <v>-5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>47.88000000000009</v>
@@ -12876,7 +12898,7 @@
         <v>28.59999999999997</v>
       </c>
       <c r="K248" t="n">
-        <v>12.49999999999972</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>47.88000000000009</v>
@@ -12927,7 +12949,7 @@
         <v>28.59999999999997</v>
       </c>
       <c r="K249" t="n">
-        <v>-7.692307692307776</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L249" t="n">
         <v>47.88000000000009</v>
@@ -13029,7 +13051,7 @@
         <v>28.89999999999997</v>
       </c>
       <c r="K251" t="n">
-        <v>-12.50000000000011</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L251" t="n">
         <v>47.86000000000009</v>
@@ -13080,7 +13102,7 @@
         <v>28.99999999999996</v>
       </c>
       <c r="K252" t="n">
-        <v>-17.64705882352921</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>47.8700000000001</v>
@@ -13131,7 +13153,7 @@
         <v>28.99999999999996</v>
       </c>
       <c r="K253" t="n">
-        <v>-17.64705882352921</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L253" t="n">
         <v>47.8700000000001</v>
@@ -13182,7 +13204,7 @@
         <v>29.09999999999996</v>
       </c>
       <c r="K254" t="n">
-        <v>-11.11111111111129</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L254" t="n">
         <v>47.86000000000011</v>
@@ -13233,7 +13255,7 @@
         <v>29.09999999999996</v>
       </c>
       <c r="K255" t="n">
-        <v>-11.11111111111129</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L255" t="n">
         <v>47.8500000000001</v>
@@ -13284,7 +13306,7 @@
         <v>29.09999999999996</v>
       </c>
       <c r="K256" t="n">
-        <v>-11.11111111111129</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L256" t="n">
         <v>47.8400000000001</v>
@@ -13335,7 +13357,7 @@
         <v>29.09999999999996</v>
       </c>
       <c r="K257" t="n">
-        <v>-5.882352941176569</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L257" t="n">
         <v>47.82000000000009</v>
@@ -13386,7 +13408,7 @@
         <v>29.29999999999996</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L258" t="n">
         <v>47.8300000000001</v>
@@ -13437,7 +13459,7 @@
         <v>29.49999999999996</v>
       </c>
       <c r="K259" t="n">
-        <v>-5.263157894736921</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L259" t="n">
         <v>47.82000000000009</v>
@@ -13488,7 +13510,7 @@
         <v>29.49999999999996</v>
       </c>
       <c r="K260" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>47.80000000000009</v>
@@ -13539,7 +13561,7 @@
         <v>29.59999999999997</v>
       </c>
       <c r="K261" t="n">
-        <v>-5.263157894736921</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L261" t="n">
         <v>47.81000000000009</v>
@@ -13590,7 +13612,7 @@
         <v>29.69999999999997</v>
       </c>
       <c r="K262" t="n">
-        <v>24.99999999999989</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L262" t="n">
         <v>47.84000000000008</v>
@@ -13641,7 +13663,7 @@
         <v>29.69999999999997</v>
       </c>
       <c r="K263" t="n">
-        <v>19.99999999999981</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>47.87000000000008</v>
@@ -13692,7 +13714,7 @@
         <v>29.69999999999997</v>
       </c>
       <c r="K264" t="n">
-        <v>7.692307692307776</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>47.89000000000007</v>
@@ -13743,7 +13765,7 @@
         <v>29.69999999999997</v>
       </c>
       <c r="K265" t="n">
-        <v>7.692307692307776</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L265" t="n">
         <v>47.91000000000007</v>
@@ -13794,7 +13816,7 @@
         <v>29.79999999999997</v>
       </c>
       <c r="K266" t="n">
-        <v>14.28571428571443</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L266" t="n">
         <v>47.94000000000007</v>
@@ -13896,7 +13918,7 @@
         <v>29.89999999999997</v>
       </c>
       <c r="K268" t="n">
-        <v>7.692307692307776</v>
+        <v>50</v>
       </c>
       <c r="L268" t="n">
         <v>47.96000000000008</v>
@@ -13947,7 +13969,7 @@
         <v>29.99999999999997</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L269" t="n">
         <v>47.97000000000008</v>
@@ -14002,7 +14024,7 @@
         <v>29.99999999999997</v>
       </c>
       <c r="K270" t="n">
-        <v>-7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>47.98000000000008</v>
@@ -14059,7 +14081,7 @@
         <v>30.19999999999997</v>
       </c>
       <c r="K271" t="n">
-        <v>23.07692307692333</v>
+        <v>20</v>
       </c>
       <c r="L271" t="n">
         <v>48.00000000000008</v>
@@ -14116,7 +14138,7 @@
         <v>30.19999999999997</v>
       </c>
       <c r="K272" t="n">
-        <v>33.33333333333294</v>
+        <v>20</v>
       </c>
       <c r="L272" t="n">
         <v>48.01000000000008</v>
@@ -14173,7 +14195,7 @@
         <v>30.29999999999998</v>
       </c>
       <c r="K273" t="n">
-        <v>38.46153846153813</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>48.03000000000009</v>
@@ -14287,7 +14309,7 @@
         <v>30.39999999999998</v>
       </c>
       <c r="K275" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>48.06000000000009</v>
@@ -14344,7 +14366,7 @@
         <v>30.49999999999998</v>
       </c>
       <c r="K276" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>48.07000000000009</v>
@@ -14401,7 +14423,7 @@
         <v>30.49999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L277" t="n">
         <v>48.0900000000001</v>
@@ -14458,7 +14480,7 @@
         <v>30.59999999999998</v>
       </c>
       <c r="K278" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L278" t="n">
         <v>48.1000000000001</v>
@@ -14515,7 +14537,7 @@
         <v>30.69999999999998</v>
       </c>
       <c r="K279" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L279" t="n">
         <v>48.13000000000011</v>
@@ -14566,7 +14588,7 @@
         <v>30.69999999999998</v>
       </c>
       <c r="K280" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L280" t="n">
         <v>48.16000000000012</v>
@@ -14617,7 +14639,7 @@
         <v>30.79999999999998</v>
       </c>
       <c r="K281" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>48.16000000000012</v>
@@ -14668,7 +14690,7 @@
         <v>30.79999999999998</v>
       </c>
       <c r="K282" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L282" t="n">
         <v>48.16000000000012</v>
@@ -14719,7 +14741,7 @@
         <v>30.89999999999998</v>
       </c>
       <c r="K283" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>48.16000000000012</v>
@@ -14770,7 +14792,7 @@
         <v>30.99999999999999</v>
       </c>
       <c r="K284" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>48.15000000000012</v>
@@ -14821,7 +14843,7 @@
         <v>31.09999999999999</v>
       </c>
       <c r="K285" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
         <v>48.16000000000012</v>
@@ -14872,7 +14894,7 @@
         <v>31.29999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L286" t="n">
         <v>48.14000000000011</v>
@@ -14923,7 +14945,7 @@
         <v>31.39999999999999</v>
       </c>
       <c r="K287" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>48.13000000000012</v>
@@ -14974,7 +14996,7 @@
         <v>31.39999999999999</v>
       </c>
       <c r="K288" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L288" t="n">
         <v>48.13000000000011</v>
@@ -15025,7 +15047,7 @@
         <v>31.39999999999999</v>
       </c>
       <c r="K289" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L289" t="n">
         <v>48.12000000000011</v>
@@ -15076,7 +15098,7 @@
         <v>31.39999999999999</v>
       </c>
       <c r="K290" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>48.11000000000011</v>
@@ -15127,7 +15149,7 @@
         <v>31.49999999999999</v>
       </c>
       <c r="K291" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L291" t="n">
         <v>48.1000000000001</v>
@@ -15178,7 +15200,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L292" t="n">
         <v>48.1000000000001</v>
@@ -15229,7 +15251,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>48.0900000000001</v>
@@ -15280,7 +15302,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L294" t="n">
         <v>48.0900000000001</v>
@@ -15331,7 +15353,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L295" t="n">
         <v>48.0800000000001</v>
@@ -15382,7 +15404,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>48.0900000000001</v>
@@ -15433,7 +15455,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>48.0900000000001</v>
@@ -15535,7 +15557,7 @@
         <v>31.59999999999999</v>
       </c>
       <c r="K299" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>48.0900000000001</v>
@@ -15586,7 +15608,7 @@
         <v>31.79999999999999</v>
       </c>
       <c r="K300" t="n">
-        <v>9.090909090908504</v>
+        <v>100</v>
       </c>
       <c r="L300" t="n">
         <v>48.11000000000009</v>
@@ -15637,7 +15659,7 @@
         <v>32.2</v>
       </c>
       <c r="K301" t="n">
-        <v>42.85714285714256</v>
+        <v>100</v>
       </c>
       <c r="L301" t="n">
         <v>48.1800000000001</v>
@@ -15688,7 +15710,7 @@
         <v>32.39999999999999</v>
       </c>
       <c r="K302" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L302" t="n">
         <v>48.26000000000009</v>
@@ -15739,7 +15761,7 @@
         <v>32.49999999999999</v>
       </c>
       <c r="K303" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L303" t="n">
         <v>48.35000000000009</v>
@@ -15790,7 +15812,7 @@
         <v>32.49999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>59.99999999999962</v>
+        <v>100</v>
       </c>
       <c r="L304" t="n">
         <v>48.44000000000009</v>
@@ -15841,7 +15863,7 @@
         <v>32.49999999999999</v>
       </c>
       <c r="K305" t="n">
-        <v>57.14285714285671</v>
+        <v>100</v>
       </c>
       <c r="L305" t="n">
         <v>48.53000000000009</v>
@@ -15892,7 +15914,7 @@
         <v>32.49999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>83.33333333333314</v>
+        <v>100</v>
       </c>
       <c r="L306" t="n">
         <v>48.62000000000008</v>
@@ -15943,7 +15965,7 @@
         <v>32.49999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>81.81818181818159</v>
+        <v>100</v>
       </c>
       <c r="L307" t="n">
         <v>48.71000000000008</v>
@@ -15994,7 +16016,7 @@
         <v>32.49999999999999</v>
       </c>
       <c r="K308" t="n">
-        <v>81.81818181818159</v>
+        <v>100</v>
       </c>
       <c r="L308" t="n">
         <v>48.80000000000008</v>
@@ -16045,7 +16067,7 @@
         <v>32.49999999999999</v>
       </c>
       <c r="K309" t="n">
-        <v>81.81818181818159</v>
+        <v>100</v>
       </c>
       <c r="L309" t="n">
         <v>48.89000000000008</v>
@@ -16096,7 +16118,7 @@
         <v>32.99999999999999</v>
       </c>
       <c r="K310" t="n">
-        <v>87.49999999999983</v>
+        <v>100</v>
       </c>
       <c r="L310" t="n">
         <v>49.01000000000008</v>
@@ -16300,7 +16322,7 @@
         <v>34</v>
       </c>
       <c r="K314" t="n">
-        <v>33.33333333333314</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L314" t="n">
         <v>49.23000000000009</v>
@@ -16351,7 +16373,7 @@
         <v>34.1</v>
       </c>
       <c r="K315" t="n">
-        <v>35.99999999999984</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>49.23000000000009</v>
@@ -16402,7 +16424,7 @@
         <v>34.2</v>
       </c>
       <c r="K316" t="n">
-        <v>30.76923076923056</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L316" t="n">
         <v>49.22000000000008</v>
@@ -16453,7 +16475,7 @@
         <v>34.2</v>
       </c>
       <c r="K317" t="n">
-        <v>30.76923076923056</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L317" t="n">
         <v>49.21000000000008</v>
@@ -16504,7 +16526,7 @@
         <v>34.2</v>
       </c>
       <c r="K318" t="n">
-        <v>30.76923076923056</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L318" t="n">
         <v>49.20000000000008</v>
@@ -16555,7 +16577,7 @@
         <v>34.3</v>
       </c>
       <c r="K319" t="n">
-        <v>33.33333333333316</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L319" t="n">
         <v>49.20000000000008</v>
@@ -16606,7 +16628,7 @@
         <v>34.50000000000001</v>
       </c>
       <c r="K320" t="n">
-        <v>18.5185185185184</v>
+        <v>-46.66666666666642</v>
       </c>
       <c r="L320" t="n">
         <v>49.13000000000007</v>
@@ -16657,7 +16679,7 @@
         <v>34.60000000000001</v>
       </c>
       <c r="K321" t="n">
-        <v>8.33333333333311</v>
+        <v>-57.14285714285693</v>
       </c>
       <c r="L321" t="n">
         <v>49.07000000000007</v>
@@ -16708,7 +16730,7 @@
         <v>34.70000000000001</v>
       </c>
       <c r="K322" t="n">
-        <v>4.347826086956549</v>
+        <v>-46.66666666666642</v>
       </c>
       <c r="L322" t="n">
         <v>49.00000000000007</v>
@@ -16759,7 +16781,7 @@
         <v>34.80000000000001</v>
       </c>
       <c r="K323" t="n">
-        <v>-4.347826086956549</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>48.92000000000008</v>
@@ -16810,7 +16832,7 @@
         <v>34.90000000000001</v>
       </c>
       <c r="K324" t="n">
-        <v>-8.333333333333384</v>
+        <v>-25</v>
       </c>
       <c r="L324" t="n">
         <v>48.91000000000008</v>
@@ -16861,7 +16883,7 @@
         <v>34.90000000000001</v>
       </c>
       <c r="K325" t="n">
-        <v>-8.333333333333384</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L325" t="n">
         <v>48.89000000000008</v>
@@ -16912,7 +16934,7 @@
         <v>34.90000000000001</v>
       </c>
       <c r="K326" t="n">
-        <v>-8.333333333333384</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L326" t="n">
         <v>48.88000000000007</v>
@@ -16963,7 +16985,7 @@
         <v>34.90000000000001</v>
       </c>
       <c r="K327" t="n">
-        <v>-8.333333333333384</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L327" t="n">
         <v>48.87000000000008</v>
@@ -17014,7 +17036,7 @@
         <v>34.90000000000001</v>
       </c>
       <c r="K328" t="n">
-        <v>-8.333333333333384</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>48.86000000000007</v>
@@ -17065,7 +17087,7 @@
         <v>34.90000000000001</v>
       </c>
       <c r="K329" t="n">
-        <v>-8.333333333333384</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>48.84000000000007</v>
@@ -17116,7 +17138,7 @@
         <v>34.90000000000001</v>
       </c>
       <c r="K330" t="n">
-        <v>-36.84210526315766</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L330" t="n">
         <v>48.84000000000006</v>
@@ -17167,7 +17189,7 @@
         <v>35.00000000000001</v>
       </c>
       <c r="K331" t="n">
-        <v>-29.99999999999975</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L331" t="n">
         <v>48.84000000000007</v>
@@ -17218,7 +17240,7 @@
         <v>35.20000000000002</v>
       </c>
       <c r="K332" t="n">
-        <v>-29.99999999999975</v>
+        <v>50</v>
       </c>
       <c r="L332" t="n">
         <v>48.85000000000007</v>
@@ -17269,7 +17291,7 @@
         <v>35.40000000000002</v>
       </c>
       <c r="K333" t="n">
-        <v>-36.36363636363616</v>
+        <v>20</v>
       </c>
       <c r="L333" t="n">
         <v>48.85000000000007</v>
@@ -17320,7 +17342,7 @@
         <v>35.60000000000002</v>
       </c>
       <c r="K334" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L334" t="n">
         <v>48.88000000000007</v>
@@ -17371,7 +17393,7 @@
         <v>35.80000000000003</v>
       </c>
       <c r="K335" t="n">
-        <v>-5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L335" t="n">
         <v>48.89000000000007</v>
@@ -17422,7 +17444,7 @@
         <v>35.80000000000003</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L336" t="n">
         <v>48.90000000000008</v>
@@ -17473,7 +17495,7 @@
         <v>35.80000000000003</v>
       </c>
       <c r="K337" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L337" t="n">
         <v>48.91000000000007</v>
@@ -17524,7 +17546,7 @@
         <v>36.00000000000003</v>
       </c>
       <c r="K338" t="n">
-        <v>11.11111111111111</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L338" t="n">
         <v>48.94000000000007</v>
@@ -17575,7 +17597,7 @@
         <v>36.10000000000003</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L339" t="n">
         <v>48.96000000000008</v>
@@ -17626,7 +17648,7 @@
         <v>36.10000000000003</v>
       </c>
       <c r="K340" t="n">
-        <v>12.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L340" t="n">
         <v>48.98000000000008</v>
@@ -17677,7 +17699,7 @@
         <v>36.10000000000003</v>
       </c>
       <c r="K341" t="n">
-        <v>6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L341" t="n">
         <v>48.99000000000009</v>
@@ -17728,7 +17750,7 @@
         <v>36.10000000000003</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L342" t="n">
         <v>48.98000000000009</v>
@@ -17779,7 +17801,7 @@
         <v>36.20000000000003</v>
       </c>
       <c r="K343" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L343" t="n">
         <v>48.98000000000009</v>
@@ -17830,7 +17852,7 @@
         <v>36.20000000000003</v>
       </c>
       <c r="K344" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>48.96000000000008</v>
@@ -17881,7 +17903,7 @@
         <v>36.30000000000003</v>
       </c>
       <c r="K345" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L345" t="n">
         <v>48.95000000000008</v>
@@ -17932,7 +17954,7 @@
         <v>36.30000000000003</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L346" t="n">
         <v>48.94000000000008</v>
@@ -17983,7 +18005,7 @@
         <v>36.50000000000004</v>
       </c>
       <c r="K347" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L347" t="n">
         <v>48.95000000000008</v>
@@ -18034,7 +18056,7 @@
         <v>36.90000000000003</v>
       </c>
       <c r="K348" t="n">
-        <v>29.99999999999975</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L348" t="n">
         <v>48.98000000000008</v>
@@ -18085,7 +18107,7 @@
         <v>37.00000000000004</v>
       </c>
       <c r="K349" t="n">
-        <v>33.33333333333311</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L349" t="n">
         <v>49.03000000000007</v>
@@ -18136,7 +18158,7 @@
         <v>37.30000000000003</v>
       </c>
       <c r="K350" t="n">
-        <v>16.66666666666677</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L350" t="n">
         <v>49.05000000000008</v>
@@ -18187,7 +18209,7 @@
         <v>37.30000000000003</v>
       </c>
       <c r="K351" t="n">
-        <v>13.04347826086964</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L351" t="n">
         <v>49.07000000000009</v>
@@ -18238,7 +18260,7 @@
         <v>37.30000000000003</v>
       </c>
       <c r="K352" t="n">
-        <v>4.761904761904794</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L352" t="n">
         <v>49.09000000000009</v>
@@ -18289,7 +18311,7 @@
         <v>37.50000000000004</v>
       </c>
       <c r="K353" t="n">
-        <v>4.761904761904794</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L353" t="n">
         <v>49.10000000000009</v>
@@ -18340,7 +18362,7 @@
         <v>37.50000000000004</v>
       </c>
       <c r="K354" t="n">
-        <v>-5.263157894736882</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L354" t="n">
         <v>49.11000000000009</v>
@@ -18391,7 +18413,7 @@
         <v>37.50000000000004</v>
       </c>
       <c r="K355" t="n">
-        <v>5.88235294117652</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L355" t="n">
         <v>49.13000000000009</v>
@@ -18442,7 +18464,7 @@
         <v>37.70000000000004</v>
       </c>
       <c r="K356" t="n">
-        <v>-5.263157894736882</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L356" t="n">
         <v>49.13000000000009</v>
@@ -18493,7 +18515,7 @@
         <v>38.00000000000004</v>
       </c>
       <c r="K357" t="n">
-        <v>9.09090909090915</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L357" t="n">
         <v>49.14000000000009</v>
@@ -18544,7 +18566,7 @@
         <v>38.10000000000004</v>
       </c>
       <c r="K358" t="n">
-        <v>-4.761904761904794</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L358" t="n">
         <v>49.10000000000009</v>
@@ -18595,7 +18617,7 @@
         <v>38.20000000000005</v>
       </c>
       <c r="K359" t="n">
-        <v>-4.761904761904794</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>49.04000000000009</v>
@@ -18646,7 +18668,7 @@
         <v>38.50000000000005</v>
       </c>
       <c r="K360" t="n">
-        <v>8.333333333333384</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>49.04000000000009</v>
@@ -18697,7 +18719,7 @@
         <v>38.80000000000005</v>
       </c>
       <c r="K361" t="n">
-        <v>-3.703703703703723</v>
+        <v>-20</v>
       </c>
       <c r="L361" t="n">
         <v>49.0100000000001</v>
@@ -18748,7 +18770,7 @@
         <v>39.00000000000006</v>
       </c>
       <c r="K362" t="n">
-        <v>3.448275862068982</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L362" t="n">
         <v>49.0000000000001</v>
@@ -18799,7 +18821,7 @@
         <v>39.20000000000006</v>
       </c>
       <c r="K363" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L363" t="n">
         <v>48.9900000000001</v>
@@ -18850,7 +18872,7 @@
         <v>39.70000000000006</v>
       </c>
       <c r="K364" t="n">
-        <v>14.28571428571417</v>
+        <v>18.18181818181792</v>
       </c>
       <c r="L364" t="n">
         <v>49.0300000000001</v>
@@ -18901,7 +18923,7 @@
         <v>39.80000000000006</v>
       </c>
       <c r="K365" t="n">
-        <v>19.99999999999992</v>
+        <v>33.33333333333311</v>
       </c>
       <c r="L365" t="n">
         <v>49.0800000000001</v>
@@ -18952,7 +18974,7 @@
         <v>39.90000000000006</v>
       </c>
       <c r="K366" t="n">
-        <v>22.22222222222216</v>
+        <v>26.31578947368394</v>
       </c>
       <c r="L366" t="n">
         <v>49.1600000000001</v>
@@ -19003,7 +19025,7 @@
         <v>40.00000000000006</v>
       </c>
       <c r="K367" t="n">
-        <v>14.28571428571417</v>
+        <v>26.31578947368394</v>
       </c>
       <c r="L367" t="n">
         <v>49.2000000000001</v>
@@ -19054,7 +19076,7 @@
         <v>40.00000000000006</v>
       </c>
       <c r="K368" t="n">
-        <v>3.225806451612918</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L368" t="n">
         <v>49.2500000000001</v>
@@ -19105,7 +19127,7 @@
         <v>40.20000000000007</v>
       </c>
       <c r="K369" t="n">
-        <v>-6.250000000000028</v>
+        <v>5.882352941176077</v>
       </c>
       <c r="L369" t="n">
         <v>49.2900000000001</v>
@@ -19156,7 +19178,7 @@
         <v>40.30000000000006</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>20.00000000000019</v>
       </c>
       <c r="L370" t="n">
         <v>49.29000000000011</v>
@@ -19207,7 +19229,7 @@
         <v>40.30000000000006</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L371" t="n">
         <v>49.32000000000011</v>
@@ -19258,7 +19280,7 @@
         <v>40.70000000000007</v>
       </c>
       <c r="K372" t="n">
-        <v>-11.76470588235299</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L372" t="n">
         <v>49.2900000000001</v>
@@ -19309,7 +19331,7 @@
         <v>40.90000000000007</v>
       </c>
       <c r="K373" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L373" t="n">
         <v>49.3000000000001</v>
@@ -19360,7 +19382,7 @@
         <v>41.20000000000007</v>
       </c>
       <c r="K374" t="n">
-        <v>8.108108108107963</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L374" t="n">
         <v>49.2900000000001</v>
@@ -19411,7 +19433,7 @@
         <v>41.20000000000007</v>
       </c>
       <c r="K375" t="n">
-        <v>8.108108108107963</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L375" t="n">
         <v>49.2700000000001</v>
@@ -19462,7 +19484,7 @@
         <v>41.40000000000006</v>
       </c>
       <c r="K376" t="n">
-        <v>8.108108108108171</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L376" t="n">
         <v>49.2200000000001</v>
@@ -19513,7 +19535,7 @@
         <v>41.50000000000006</v>
       </c>
       <c r="K377" t="n">
-        <v>-2.85714285714288</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L377" t="n">
         <v>49.17000000000009</v>
@@ -19564,7 +19586,7 @@
         <v>41.80000000000006</v>
       </c>
       <c r="K378" t="n">
-        <v>8.108108108107993</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>49.15000000000009</v>
@@ -19615,7 +19637,7 @@
         <v>41.90000000000006</v>
       </c>
       <c r="K379" t="n">
-        <v>13.51351351351345</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L379" t="n">
         <v>49.16000000000009</v>
@@ -19666,7 +19688,7 @@
         <v>42.10000000000007</v>
       </c>
       <c r="K380" t="n">
-        <v>11.11111111111102</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L380" t="n">
         <v>49.20000000000009</v>
@@ -19717,7 +19739,7 @@
         <v>42.10000000000007</v>
       </c>
       <c r="K381" t="n">
-        <v>21.21212121212123</v>
+        <v>57.14285714285751</v>
       </c>
       <c r="L381" t="n">
         <v>49.24000000000008</v>
@@ -19768,7 +19790,7 @@
         <v>42.30000000000007</v>
       </c>
       <c r="K382" t="n">
-        <v>9.090909090908973</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L382" t="n">
         <v>49.30000000000008</v>
@@ -19819,7 +19841,7 @@
         <v>42.30000000000007</v>
       </c>
       <c r="K383" t="n">
-        <v>16.12903225806447</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L383" t="n">
         <v>49.34000000000009</v>
@@ -19870,7 +19892,7 @@
         <v>42.60000000000007</v>
       </c>
       <c r="K384" t="n">
-        <v>10.344827586207</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L384" t="n">
         <v>49.38000000000009</v>
@@ -19921,7 +19943,7 @@
         <v>42.90000000000007</v>
       </c>
       <c r="K385" t="n">
-        <v>16.12903225806447</v>
+        <v>59.99999999999962</v>
       </c>
       <c r="L385" t="n">
         <v>49.45000000000009</v>
@@ -19972,7 +19994,7 @@
         <v>43.50000000000007</v>
       </c>
       <c r="K386" t="n">
-        <v>27.77777777777771</v>
+        <v>79.99999999999979</v>
       </c>
       <c r="L386" t="n">
         <v>49.60000000000008</v>
@@ -20023,7 +20045,7 @@
         <v>43.70000000000007</v>
       </c>
       <c r="K387" t="n">
-        <v>35.13513513513503</v>
+        <v>78.9473684210524</v>
       </c>
       <c r="L387" t="n">
         <v>49.78000000000007</v>
@@ -20074,7 +20096,7 @@
         <v>44.00000000000007</v>
       </c>
       <c r="K388" t="n">
-        <v>39.99999999999996</v>
+        <v>80.95238095238075</v>
       </c>
       <c r="L388" t="n">
         <v>49.96000000000008</v>
@@ -20125,7 +20147,7 @@
         <v>44.10000000000007</v>
       </c>
       <c r="K389" t="n">
-        <v>43.5897435897436</v>
+        <v>69.99999999999969</v>
       </c>
       <c r="L389" t="n">
         <v>50.12000000000008</v>
@@ -20176,7 +20198,7 @@
         <v>44.20000000000007</v>
       </c>
       <c r="K390" t="n">
-        <v>48.71794871794852</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L390" t="n">
         <v>50.27000000000008</v>
@@ -20227,7 +20249,7 @@
         <v>44.20000000000007</v>
       </c>
       <c r="K391" t="n">
-        <v>48.71794871794852</v>
+        <v>89.47368421052619</v>
       </c>
       <c r="L391" t="n">
         <v>50.42000000000009</v>
@@ -20278,7 +20300,7 @@
         <v>44.30000000000008</v>
       </c>
       <c r="K392" t="n">
-        <v>66.66666666666666</v>
+        <v>89.99999999999989</v>
       </c>
       <c r="L392" t="n">
         <v>50.60000000000009</v>
@@ -20329,7 +20351,7 @@
         <v>44.50000000000008</v>
       </c>
       <c r="K393" t="n">
-        <v>55.55555555555542</v>
+        <v>68.42105263157859</v>
       </c>
       <c r="L393" t="n">
         <v>50.76000000000009</v>
@@ -20380,7 +20402,7 @@
         <v>44.50000000000008</v>
       </c>
       <c r="K394" t="n">
-        <v>51.51515151515142</v>
+        <v>62.49999999999967</v>
       </c>
       <c r="L394" t="n">
         <v>50.89000000000009</v>
@@ -20431,7 +20453,7 @@
         <v>44.60000000000008</v>
       </c>
       <c r="K395" t="n">
-        <v>52.94117647058816</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L395" t="n">
         <v>51.00000000000009</v>
@@ -20482,7 +20504,7 @@
         <v>44.70000000000008</v>
       </c>
       <c r="K396" t="n">
-        <v>57.57575757575722</v>
+        <v>20</v>
       </c>
       <c r="L396" t="n">
         <v>51.04000000000009</v>
@@ -20533,7 +20555,7 @@
         <v>44.70000000000008</v>
       </c>
       <c r="K397" t="n">
-        <v>62.49999999999967</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L397" t="n">
         <v>51.06000000000009</v>
@@ -20584,7 +20606,7 @@
         <v>44.70000000000008</v>
       </c>
       <c r="K398" t="n">
-        <v>58.62068965517211</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>51.05000000000008</v>
@@ -20635,7 +20657,7 @@
         <v>44.70000000000008</v>
       </c>
       <c r="K399" t="n">
-        <v>57.14285714285682</v>
+        <v>-20</v>
       </c>
       <c r="L399" t="n">
         <v>51.05000000000008</v>
@@ -20686,7 +20708,7 @@
         <v>45.10000000000008</v>
       </c>
       <c r="K400" t="n">
-        <v>33.33333333333318</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L400" t="n">
         <v>51.00000000000008</v>
@@ -20737,7 +20759,7 @@
         <v>45.10000000000008</v>
       </c>
       <c r="K401" t="n">
-        <v>33.33333333333318</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L401" t="n">
         <v>50.95000000000008</v>
@@ -20788,7 +20810,7 @@
         <v>45.40000000000008</v>
       </c>
       <c r="K402" t="n">
-        <v>48.38709677419342</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L402" t="n">
         <v>50.92000000000008</v>
@@ -20839,7 +20861,7 @@
         <v>45.80000000000008</v>
       </c>
       <c r="K403" t="n">
-        <v>31.42857142857141</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L403" t="n">
         <v>50.87000000000008</v>
@@ -20890,7 +20912,7 @@
         <v>46.20000000000007</v>
       </c>
       <c r="K404" t="n">
-        <v>33.3333333333332</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L404" t="n">
         <v>50.86000000000007</v>
@@ -20941,7 +20963,7 @@
         <v>46.30000000000008</v>
       </c>
       <c r="K405" t="n">
-        <v>23.52941176470576</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L405" t="n">
         <v>50.83000000000006</v>
@@ -20992,7 +21014,7 @@
         <v>46.50000000000007</v>
       </c>
       <c r="K406" t="n">
-        <v>0</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L406" t="n">
         <v>50.79000000000006</v>
@@ -21043,7 +21065,7 @@
         <v>46.50000000000007</v>
       </c>
       <c r="K407" t="n">
-        <v>-7.14285714285698</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L407" t="n">
         <v>50.75000000000007</v>
@@ -21094,7 +21116,7 @@
         <v>46.50000000000007</v>
       </c>
       <c r="K408" t="n">
-        <v>-20</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L408" t="n">
         <v>50.71000000000007</v>
@@ -21145,7 +21167,7 @@
         <v>46.50000000000007</v>
       </c>
       <c r="K409" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>50.67000000000007</v>
@@ -21196,7 +21218,7 @@
         <v>46.50000000000007</v>
       </c>
       <c r="K410" t="n">
-        <v>-21.73913043478263</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>50.67000000000007</v>
@@ -21247,7 +21269,7 @@
         <v>46.80000000000007</v>
       </c>
       <c r="K411" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>50.70000000000007</v>
@@ -21298,7 +21320,7 @@
         <v>47.20000000000007</v>
       </c>
       <c r="K412" t="n">
-        <v>-24.13793103448293</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>50.66000000000007</v>
@@ -21349,7 +21371,7 @@
         <v>47.60000000000007</v>
       </c>
       <c r="K413" t="n">
-        <v>-3.225806451612962</v>
+        <v>0</v>
       </c>
       <c r="L413" t="n">
         <v>50.70000000000007</v>
@@ -21400,7 +21422,7 @@
         <v>47.60000000000007</v>
       </c>
       <c r="K414" t="n">
-        <v>-3.225806451612962</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L414" t="n">
         <v>50.70000000000007</v>
@@ -21451,7 +21473,7 @@
         <v>47.60000000000007</v>
       </c>
       <c r="K415" t="n">
-        <v>-6.666666666666793</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L415" t="n">
         <v>50.71000000000006</v>
@@ -21502,7 +21524,7 @@
         <v>47.90000000000006</v>
       </c>
       <c r="K416" t="n">
-        <v>-12.50000000000003</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>50.71000000000006</v>
@@ -21553,7 +21575,7 @@
         <v>48.10000000000006</v>
       </c>
       <c r="K417" t="n">
-        <v>-5.882352941176594</v>
+        <v>12.49999999999983</v>
       </c>
       <c r="L417" t="n">
         <v>50.73000000000005</v>
@@ -21604,7 +21626,7 @@
         <v>48.20000000000006</v>
       </c>
       <c r="K418" t="n">
-        <v>-2.857142857142915</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L418" t="n">
         <v>50.76000000000005</v>
@@ -21655,7 +21677,7 @@
         <v>48.80000000000006</v>
       </c>
       <c r="K419" t="n">
-        <v>-17.07317073170747</v>
+        <v>-13.04347826086981</v>
       </c>
       <c r="L419" t="n">
         <v>50.73000000000004</v>
@@ -21706,7 +21728,7 @@
         <v>49.00000000000006</v>
       </c>
       <c r="K420" t="n">
-        <v>-2.564102564102611</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L420" t="n">
         <v>50.72000000000004</v>
@@ -21757,7 +21779,7 @@
         <v>49.10000000000007</v>
       </c>
       <c r="K421" t="n">
-        <v>-5.000000000000089</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L421" t="n">
         <v>50.67000000000004</v>
@@ -21808,7 +21830,7 @@
         <v>49.50000000000006</v>
       </c>
       <c r="K422" t="n">
-        <v>-2.439024390243945</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L422" t="n">
         <v>50.70000000000003</v>
@@ -21859,7 +21881,7 @@
         <v>49.60000000000006</v>
       </c>
       <c r="K423" t="n">
-        <v>5.26315789473694</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L423" t="n">
         <v>50.68000000000004</v>
@@ -21910,7 +21932,7 @@
         <v>49.90000000000006</v>
       </c>
       <c r="K424" t="n">
-        <v>2.702702702702755</v>
+        <v>4.347826086956602</v>
       </c>
       <c r="L424" t="n">
         <v>50.69000000000004</v>
@@ -21961,7 +21983,7 @@
         <v>50.20000000000005</v>
       </c>
       <c r="K425" t="n">
-        <v>-2.564102564102433</v>
+        <v>4.347826086956602</v>
       </c>
       <c r="L425" t="n">
         <v>50.67000000000005</v>
@@ -22012,7 +22034,7 @@
         <v>50.40000000000006</v>
       </c>
       <c r="K426" t="n">
-        <v>-2.564102564102611</v>
+        <v>-13.04347826086946</v>
       </c>
       <c r="L426" t="n">
         <v>50.66000000000005</v>
@@ -22063,7 +22085,7 @@
         <v>50.70000000000005</v>
       </c>
       <c r="K427" t="n">
-        <v>4.761904761904681</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L427" t="n">
         <v>50.66000000000004</v>
@@ -22114,7 +22136,7 @@
         <v>51.00000000000005</v>
       </c>
       <c r="K428" t="n">
-        <v>-2.222222222222264</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L428" t="n">
         <v>50.62000000000004</v>
@@ -22165,7 +22187,7 @@
         <v>51.40000000000005</v>
       </c>
       <c r="K429" t="n">
-        <v>6.122448979591807</v>
+        <v>16.66666666666671</v>
       </c>
       <c r="L429" t="n">
         <v>50.68000000000004</v>
@@ -22216,7 +22238,7 @@
         <v>51.70000000000005</v>
       </c>
       <c r="K430" t="n">
-        <v>11.53846153846161</v>
+        <v>30.76923076923108</v>
       </c>
       <c r="L430" t="n">
         <v>50.75000000000004</v>
@@ -22267,7 +22289,7 @@
         <v>51.90000000000006</v>
       </c>
       <c r="K431" t="n">
-        <v>1.960784313725523</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L431" t="n">
         <v>50.81000000000004</v>
@@ -22318,7 +22340,7 @@
         <v>52.40000000000006</v>
       </c>
       <c r="K432" t="n">
-        <v>19.23076923076927</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L432" t="n">
         <v>50.88000000000004</v>
@@ -22369,7 +22391,7 @@
         <v>52.80000000000005</v>
       </c>
       <c r="K433" t="n">
-        <v>3.846153846153909</v>
+        <v>3.448275862069016</v>
       </c>
       <c r="L433" t="n">
         <v>50.92000000000003</v>
@@ -22420,7 +22442,7 @@
         <v>53.70000000000005</v>
       </c>
       <c r="K434" t="n">
-        <v>18.03278688524596</v>
+        <v>37.14285714285706</v>
       </c>
       <c r="L434" t="n">
         <v>51.02000000000002</v>
@@ -22471,7 +22493,7 @@
         <v>54.00000000000005</v>
       </c>
       <c r="K435" t="n">
-        <v>21.87500000000003</v>
+        <v>50</v>
       </c>
       <c r="L435" t="n">
         <v>51.18000000000002</v>
@@ -22522,7 +22544,7 @@
         <v>54.00000000000005</v>
       </c>
       <c r="K436" t="n">
-        <v>27.86885245901638</v>
+        <v>45.45454545454549</v>
       </c>
       <c r="L436" t="n">
         <v>51.36000000000003</v>
@@ -22573,7 +22595,7 @@
         <v>54.30000000000005</v>
       </c>
       <c r="K437" t="n">
-        <v>19.3548387096775</v>
+        <v>45.45454545454549</v>
       </c>
       <c r="L437" t="n">
         <v>51.48000000000003</v>
@@ -22624,7 +22646,7 @@
         <v>54.90000000000005</v>
       </c>
       <c r="K438" t="n">
-        <v>25.37313432835829</v>
+        <v>48.57142857142865</v>
       </c>
       <c r="L438" t="n">
         <v>51.69000000000003</v>
@@ -22675,7 +22697,7 @@
         <v>55.00000000000005</v>
       </c>
       <c r="K439" t="n">
-        <v>35.48387096774205</v>
+        <v>39.39393939393934</v>
       </c>
       <c r="L439" t="n">
         <v>51.85000000000004</v>
@@ -22726,7 +22748,7 @@
         <v>55.00000000000005</v>
       </c>
       <c r="K440" t="n">
-        <v>33.33333333333341</v>
+        <v>48.38709677419364</v>
       </c>
       <c r="L440" t="n">
         <v>51.98000000000003</v>
@@ -22777,7 +22799,7 @@
         <v>55.20000000000005</v>
       </c>
       <c r="K441" t="n">
-        <v>37.70491803278703</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L441" t="n">
         <v>52.15000000000003</v>
@@ -22828,7 +22850,7 @@
         <v>55.80000000000005</v>
       </c>
       <c r="K442" t="n">
-        <v>20.63492063492074</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L442" t="n">
         <v>52.21000000000004</v>
@@ -22879,7 +22901,7 @@
         <v>55.90000000000006</v>
       </c>
       <c r="K443" t="n">
-        <v>23.80952380952382</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L443" t="n">
         <v>52.32000000000004</v>
@@ -22930,7 +22952,7 @@
         <v>56.40000000000006</v>
       </c>
       <c r="K444" t="n">
-        <v>26.1538461538462</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L444" t="n">
         <v>52.39000000000004</v>
@@ -22981,7 +23003,7 @@
         <v>56.50000000000005</v>
       </c>
       <c r="K445" t="n">
-        <v>33.33333333333326</v>
+        <v>20</v>
       </c>
       <c r="L445" t="n">
         <v>52.44000000000004</v>
@@ -23032,7 +23054,7 @@
         <v>56.50000000000005</v>
       </c>
       <c r="K446" t="n">
-        <v>37.70491803278687</v>
+        <v>36.36363636363619</v>
       </c>
       <c r="L446" t="n">
         <v>52.49000000000004</v>
@@ -23083,7 +23105,7 @@
         <v>56.50000000000005</v>
       </c>
       <c r="K447" t="n">
-        <v>34.48275862068967</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L447" t="n">
         <v>52.57000000000004</v>
@@ -23134,7 +23156,7 @@
         <v>56.60000000000004</v>
       </c>
       <c r="K448" t="n">
-        <v>39.28571428571438</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L448" t="n">
         <v>52.58000000000004</v>
@@ -23185,7 +23207,7 @@
         <v>56.80000000000005</v>
       </c>
       <c r="K449" t="n">
-        <v>29.62962962962966</v>
+        <v>0</v>
       </c>
       <c r="L449" t="n">
         <v>52.58000000000004</v>
@@ -23236,7 +23258,7 @@
         <v>57.00000000000005</v>
       </c>
       <c r="K450" t="n">
-        <v>28.30188679245285</v>
+        <v>0</v>
       </c>
       <c r="L450" t="n">
         <v>52.60000000000004</v>
@@ -23287,7 +23309,7 @@
         <v>57.00000000000005</v>
       </c>
       <c r="K451" t="n">
-        <v>33.33333333333343</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L451" t="n">
         <v>52.60000000000004</v>
@@ -23338,7 +23360,7 @@
         <v>57.00000000000005</v>
       </c>
       <c r="K452" t="n">
-        <v>26.08695652173922</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L452" t="n">
         <v>52.66000000000005</v>
@@ -23389,7 +23411,7 @@
         <v>57.30000000000005</v>
       </c>
       <c r="K453" t="n">
-        <v>28.88888888888883</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L453" t="n">
         <v>52.68000000000004</v>
@@ -23440,7 +23462,7 @@
         <v>57.60000000000006</v>
       </c>
       <c r="K454" t="n">
-        <v>17.948717948718</v>
+        <v>-9.090909090908504</v>
       </c>
       <c r="L454" t="n">
         <v>52.68000000000004</v>
@@ -23491,7 +23513,7 @@
         <v>57.90000000000006</v>
       </c>
       <c r="K455" t="n">
-        <v>2.564102564102592</v>
+        <v>-28.57142857142821</v>
       </c>
       <c r="L455" t="n">
         <v>52.64000000000004</v>
@@ -23542,7 +23564,7 @@
         <v>58.20000000000007</v>
       </c>
       <c r="K456" t="n">
-        <v>9.52380952380962</v>
+        <v>-5.882352941176077</v>
       </c>
       <c r="L456" t="n">
         <v>52.63000000000005</v>
@@ -23593,7 +23615,7 @@
         <v>58.20000000000007</v>
       </c>
       <c r="K457" t="n">
-        <v>17.94871794871793</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>52.62000000000006</v>
@@ -23644,7 +23666,7 @@
         <v>58.90000000000007</v>
       </c>
       <c r="K458" t="n">
-        <v>-14.99999999999996</v>
+        <v>-23.80952380952355</v>
       </c>
       <c r="L458" t="n">
         <v>52.55000000000005</v>
@@ -23695,7 +23717,7 @@
         <v>59.00000000000007</v>
       </c>
       <c r="K459" t="n">
-        <v>-9.999999999999911</v>
+        <v>-29.99999999999975</v>
       </c>
       <c r="L459" t="n">
         <v>52.51000000000006</v>
@@ -23746,7 +23768,7 @@
         <v>59.20000000000007</v>
       </c>
       <c r="K460" t="n">
-        <v>-4.76190476190481</v>
+        <v>-18.1818181818183</v>
       </c>
       <c r="L460" t="n">
         <v>52.47000000000005</v>
@@ -23797,7 +23819,7 @@
         <v>59.30000000000007</v>
       </c>
       <c r="K461" t="n">
-        <v>-7.317073170731783</v>
+        <v>-13.04347826086964</v>
       </c>
       <c r="L461" t="n">
         <v>52.44000000000004</v>
@@ -23848,7 +23870,7 @@
         <v>59.30000000000007</v>
       </c>
       <c r="K462" t="n">
-        <v>8.571428571428456</v>
+        <v>0</v>
       </c>
       <c r="L462" t="n">
         <v>52.41000000000004</v>
@@ -23899,7 +23921,7 @@
         <v>59.70000000000007</v>
       </c>
       <c r="K463" t="n">
-        <v>-5.263157894736901</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L463" t="n">
         <v>52.37000000000004</v>
@@ -23950,7 +23972,7 @@
         <v>60.00000000000006</v>
       </c>
       <c r="K464" t="n">
-        <v>-11.11111111111124</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="L464" t="n">
         <v>52.33000000000003</v>
@@ -24001,7 +24023,7 @@
         <v>60.30000000000006</v>
       </c>
       <c r="K465" t="n">
-        <v>-21.05263157894723</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L465" t="n">
         <v>52.29000000000003</v>
@@ -24052,7 +24074,7 @@
         <v>60.40000000000006</v>
       </c>
       <c r="K466" t="n">
-        <v>-23.07692307692296</v>
+        <v>-36.36363636363662</v>
       </c>
       <c r="L466" t="n">
         <v>52.21000000000002</v>
@@ -24103,7 +24125,7 @@
         <v>60.80000000000006</v>
       </c>
       <c r="K467" t="n">
-        <v>-11.62790697674416</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L467" t="n">
         <v>52.17000000000002</v>
@@ -24154,7 +24176,7 @@
         <v>61.50000000000006</v>
       </c>
       <c r="K468" t="n">
-        <v>-22.4489795918367</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L468" t="n">
         <v>52.13000000000002</v>
@@ -24205,7 +24227,7 @@
         <v>61.90000000000006</v>
       </c>
       <c r="K469" t="n">
-        <v>-9.803921568627434</v>
+        <v>-11.11111111111105</v>
       </c>
       <c r="L469" t="n">
         <v>52.12000000000002</v>
@@ -24256,7 +24278,7 @@
         <v>62.00000000000006</v>
       </c>
       <c r="K470" t="n">
-        <v>-12.00000000000001</v>
+        <v>-11.11111111111105</v>
       </c>
       <c r="L470" t="n">
         <v>52.10000000000002</v>
@@ -24307,7 +24329,7 @@
         <v>62.00000000000006</v>
       </c>
       <c r="K471" t="n">
-        <v>-12.00000000000001</v>
+        <v>-11.11111111111105</v>
       </c>
       <c r="L471" t="n">
         <v>52.07000000000003</v>
@@ -24358,7 +24380,7 @@
         <v>62.10000000000006</v>
       </c>
       <c r="K472" t="n">
-        <v>-13.72549019607846</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>52.03000000000003</v>
@@ -24409,7 +24431,7 @@
         <v>62.10000000000006</v>
       </c>
       <c r="K473" t="n">
-        <v>-8.333333333333297</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L473" t="n">
         <v>52.03000000000003</v>
@@ -24460,7 +24482,7 @@
         <v>62.10000000000006</v>
       </c>
       <c r="K474" t="n">
-        <v>-15.55555555555562</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>52.00000000000004</v>
@@ -24511,7 +24533,7 @@
         <v>62.40000000000006</v>
       </c>
       <c r="K475" t="n">
-        <v>-15.55555555555549</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L475" t="n">
         <v>51.97000000000004</v>
@@ -24562,7 +24584,7 @@
         <v>62.70000000000005</v>
       </c>
       <c r="K476" t="n">
-        <v>-15.55555555555567</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L476" t="n">
         <v>51.98000000000004</v>
@@ -24613,7 +24635,7 @@
         <v>62.80000000000005</v>
       </c>
       <c r="K477" t="n">
-        <v>-17.39130434782623</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L477" t="n">
         <v>51.94000000000004</v>
@@ -24715,7 +24737,7 @@
         <v>63.20000000000005</v>
       </c>
       <c r="K479" t="n">
-        <v>-9.523809523809531</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L479" t="n">
         <v>51.95000000000005</v>
@@ -24766,7 +24788,7 @@
         <v>63.40000000000005</v>
       </c>
       <c r="K480" t="n">
-        <v>-9.523809523809531</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L480" t="n">
         <v>51.93000000000004</v>
@@ -24817,7 +24839,7 @@
         <v>63.50000000000005</v>
       </c>
       <c r="K481" t="n">
-        <v>-14.28571428571438</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L481" t="n">
         <v>51.90000000000003</v>
@@ -24868,7 +24890,7 @@
         <v>63.60000000000005</v>
       </c>
       <c r="K482" t="n">
-        <v>-11.62790697674423</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L482" t="n">
         <v>51.89000000000003</v>
@@ -24919,7 +24941,7 @@
         <v>63.60000000000005</v>
       </c>
       <c r="K483" t="n">
-        <v>-2.564102564102611</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L483" t="n">
         <v>51.88000000000003</v>
@@ -24970,7 +24992,7 @@
         <v>63.70000000000005</v>
       </c>
       <c r="K484" t="n">
-        <v>-13.51351351351356</v>
+        <v>7.692307692307272</v>
       </c>
       <c r="L484" t="n">
         <v>51.86000000000003</v>
@@ -25021,7 +25043,7 @@
         <v>63.90000000000005</v>
       </c>
       <c r="K485" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L485" t="n">
         <v>51.85000000000002</v>
@@ -25072,7 +25094,7 @@
         <v>63.90000000000005</v>
       </c>
       <c r="K486" t="n">
-        <v>-8.571428571428525</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L486" t="n">
         <v>51.81000000000002</v>
@@ -25123,7 +25145,7 @@
         <v>64.10000000000005</v>
       </c>
       <c r="K487" t="n">
-        <v>-27.27272727272731</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L487" t="n">
         <v>51.76000000000003</v>
@@ -25174,7 +25196,7 @@
         <v>64.20000000000005</v>
       </c>
       <c r="K488" t="n">
-        <v>-11.11111111111132</v>
+        <v>-40.00000000000085</v>
       </c>
       <c r="L488" t="n">
         <v>51.69000000000002</v>
@@ -25225,7 +25247,7 @@
         <v>64.30000000000004</v>
       </c>
       <c r="K489" t="n">
-        <v>-33.33333333333343</v>
+        <v>-77.77777777777804</v>
       </c>
       <c r="L489" t="n">
         <v>51.64000000000002</v>
@@ -25276,7 +25298,7 @@
         <v>64.50000000000003</v>
       </c>
       <c r="K490" t="n">
-        <v>-28.00000000000043</v>
+        <v>-40.00000000000071</v>
       </c>
       <c r="L490" t="n">
         <v>51.59000000000002</v>
@@ -25327,7 +25349,7 @@
         <v>64.80000000000003</v>
       </c>
       <c r="K491" t="n">
-        <v>-35.71428571428611</v>
+        <v>-66.66666666666785</v>
       </c>
       <c r="L491" t="n">
         <v>51.52000000000002</v>
@@ -25378,7 +25400,7 @@
         <v>65.10000000000002</v>
       </c>
       <c r="K492" t="n">
-        <v>-20.00000000000028</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L492" t="n">
         <v>51.47000000000003</v>
@@ -25429,7 +25451,7 @@
         <v>65.20000000000002</v>
       </c>
       <c r="K493" t="n">
-        <v>-16.12903225806473</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L493" t="n">
         <v>51.43000000000003</v>
@@ -25480,7 +25502,7 @@
         <v>65.60000000000002</v>
       </c>
       <c r="K494" t="n">
-        <v>-25.71428571428594</v>
+        <v>-29.4117647058828</v>
       </c>
       <c r="L494" t="n">
         <v>51.36000000000003</v>
@@ -25531,7 +25553,7 @@
         <v>65.80000000000001</v>
       </c>
       <c r="K495" t="n">
-        <v>-11.76470588235326</v>
+        <v>-15.78947368421106</v>
       </c>
       <c r="L495" t="n">
         <v>51.33000000000003</v>
@@ -25582,7 +25604,7 @@
         <v>65.80000000000001</v>
       </c>
       <c r="K496" t="n">
-        <v>-22.58064516129071</v>
+        <v>-5.882352941176692</v>
       </c>
       <c r="L496" t="n">
         <v>51.30000000000003</v>
@@ -25633,7 +25655,7 @@
         <v>66.10000000000001</v>
       </c>
       <c r="K497" t="n">
-        <v>-27.2727272727276</v>
+        <v>-15.78947368421068</v>
       </c>
       <c r="L497" t="n">
         <v>51.26000000000003</v>
@@ -25684,7 +25706,7 @@
         <v>66.10000000000001</v>
       </c>
       <c r="K498" t="n">
-        <v>-31.25000000000046</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L498" t="n">
         <v>51.23000000000003</v>
@@ -25735,7 +25757,7 @@
         <v>66.20000000000002</v>
       </c>
       <c r="K499" t="n">
-        <v>-26.66666666666713</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L499" t="n">
         <v>51.20000000000002</v>
@@ -25786,7 +25808,7 @@
         <v>66.20000000000002</v>
       </c>
       <c r="K500" t="n">
-        <v>-35.71428571428611</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L500" t="n">
         <v>51.15000000000002</v>
@@ -25837,7 +25859,7 @@
         <v>66.30000000000001</v>
       </c>
       <c r="K501" t="n">
-        <v>-35.71428571428621</v>
+        <v>-50.00000000000059</v>
       </c>
       <c r="L501" t="n">
         <v>51.12000000000002</v>
@@ -25888,7 +25910,7 @@
         <v>66.40000000000001</v>
       </c>
       <c r="K502" t="n">
-        <v>-35.71428571428629</v>
+        <v>-50.00000000000059</v>
       </c>
       <c r="L502" t="n">
         <v>51.07000000000001</v>
@@ -25939,7 +25961,7 @@
         <v>66.5</v>
       </c>
       <c r="K503" t="n">
-        <v>-31.03448275862119</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L503" t="n">
         <v>51.02000000000002</v>
@@ -25990,7 +26012,7 @@
         <v>66.5</v>
       </c>
       <c r="K504" t="n">
-        <v>-28.57142857142901</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L504" t="n">
         <v>51.01000000000001</v>
@@ -26041,7 +26063,7 @@
         <v>66.59999999999999</v>
       </c>
       <c r="K505" t="n">
-        <v>-18.51851851851889</v>
+        <v>-25</v>
       </c>
       <c r="L505" t="n">
         <v>50.99000000000002</v>
@@ -26092,7 +26114,7 @@
         <v>66.79999999999998</v>
       </c>
       <c r="K506" t="n">
-        <v>-10.34482758620728</v>
+        <v>42.85714285714401</v>
       </c>
       <c r="L506" t="n">
         <v>50.99000000000002</v>
@@ -26143,7 +26165,7 @@
         <v>66.79999999999998</v>
       </c>
       <c r="K507" t="n">
-        <v>-3.70370370370385</v>
+        <v>42.85714285714401</v>
       </c>
       <c r="L507" t="n">
         <v>51.02000000000002</v>
@@ -26194,7 +26216,7 @@
         <v>66.89999999999998</v>
       </c>
       <c r="K508" t="n">
-        <v>3.70370370370385</v>
+        <v>71.42857142857549</v>
       </c>
       <c r="L508" t="n">
         <v>51.06000000000002</v>
@@ -26245,7 +26267,7 @@
         <v>66.99999999999997</v>
       </c>
       <c r="K509" t="n">
-        <v>3.703703703703587</v>
+        <v>50.00000000000266</v>
       </c>
       <c r="L509" t="n">
         <v>51.10000000000001</v>
@@ -26296,7 +26318,7 @@
         <v>67.09999999999997</v>
       </c>
       <c r="K510" t="n">
-        <v>-7.692307692307714</v>
+        <v>50.00000000000355</v>
       </c>
       <c r="L510" t="n">
         <v>51.13000000000002</v>
@@ -26347,7 +26369,7 @@
         <v>67.49999999999997</v>
       </c>
       <c r="K511" t="n">
-        <v>-11.11111111111149</v>
+        <v>-9.090909090909502</v>
       </c>
       <c r="L511" t="n">
         <v>51.13000000000001</v>
@@ -26398,7 +26420,7 @@
         <v>67.89999999999998</v>
       </c>
       <c r="K512" t="n">
-        <v>-7.142857142857107</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L512" t="n">
         <v>51.16000000000001</v>
@@ -26449,7 +26471,7 @@
         <v>67.89999999999998</v>
       </c>
       <c r="K513" t="n">
-        <v>-11.11111111111117</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L513" t="n">
         <v>51.18000000000002</v>
@@ -26500,7 +26522,7 @@
         <v>67.89999999999998</v>
       </c>
       <c r="K514" t="n">
-        <v>4.34782608695667</v>
+        <v>7.692307692307902</v>
       </c>
       <c r="L514" t="n">
         <v>51.20000000000002</v>
@@ -26551,7 +26573,7 @@
         <v>68.19999999999997</v>
       </c>
       <c r="K515" t="n">
-        <v>8.333333333333579</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L515" t="n">
         <v>51.24000000000002</v>
@@ -26602,7 +26624,7 @@
         <v>68.29999999999998</v>
       </c>
       <c r="K516" t="n">
-        <v>12.00000000000031</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L516" t="n">
         <v>51.27000000000002</v>
@@ -26653,7 +26675,7 @@
         <v>68.39999999999998</v>
       </c>
       <c r="K517" t="n">
-        <v>30.43478260869619</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L517" t="n">
         <v>51.31000000000004</v>
@@ -26704,7 +26726,7 @@
         <v>68.49999999999997</v>
       </c>
       <c r="K518" t="n">
-        <v>25.00000000000044</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L518" t="n">
         <v>51.33000000000004</v>
@@ -26755,7 +26777,7 @@
         <v>68.69999999999997</v>
       </c>
       <c r="K519" t="n">
-        <v>20.00000000000034</v>
+        <v>12.49999999999967</v>
       </c>
       <c r="L519" t="n">
         <v>51.34000000000005</v>
@@ -26806,7 +26828,7 @@
         <v>68.79999999999998</v>
       </c>
       <c r="K520" t="n">
-        <v>15.38461538461553</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L520" t="n">
         <v>51.35000000000004</v>
@@ -26857,7 +26879,7 @@
         <v>68.79999999999998</v>
       </c>
       <c r="K521" t="n">
-        <v>20.00000000000023</v>
+        <v>11.11111111111041</v>
       </c>
       <c r="L521" t="n">
         <v>51.40000000000003</v>
@@ -26908,7 +26930,7 @@
         <v>68.99999999999999</v>
       </c>
       <c r="K522" t="n">
-        <v>23.07692307692331</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L522" t="n">
         <v>51.43000000000003</v>
@@ -26959,7 +26981,7 @@
         <v>69.09999999999999</v>
       </c>
       <c r="K523" t="n">
-        <v>15.38461538461536</v>
+        <v>16.66666666666607</v>
       </c>
       <c r="L523" t="n">
         <v>51.45000000000002</v>
@@ -27010,7 +27032,7 @@
         <v>69.09999999999999</v>
       </c>
       <c r="K524" t="n">
-        <v>15.38461538461536</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L524" t="n">
         <v>51.47000000000001</v>
@@ -27061,7 +27083,7 @@
         <v>69.3</v>
       </c>
       <c r="K525" t="n">
-        <v>18.5185185185185</v>
+        <v>0</v>
       </c>
       <c r="L525" t="n">
         <v>51.48000000000002</v>
@@ -27112,7 +27134,7 @@
         <v>69.3</v>
       </c>
       <c r="K526" t="n">
-        <v>12.0000000000001</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L526" t="n">
         <v>51.48000000000002</v>
@@ -27163,7 +27185,7 @@
         <v>69.3</v>
       </c>
       <c r="K527" t="n">
-        <v>12.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L527" t="n">
         <v>51.47000000000001</v>
@@ -27214,7 +27236,7 @@
         <v>69.3</v>
       </c>
       <c r="K528" t="n">
-        <v>8.333333333333384</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L528" t="n">
         <v>51.47000000000001</v>
@@ -27265,7 +27287,7 @@
         <v>69.40000000000001</v>
       </c>
       <c r="K529" t="n">
-        <v>16.66666666666666</v>
+        <v>66.66666666666508</v>
       </c>
       <c r="L529" t="n">
         <v>51.50000000000002</v>
@@ -27316,7 +27338,7 @@
         <v>69.70000000000002</v>
       </c>
       <c r="K530" t="n">
-        <v>7.692307692307376</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L530" t="n">
         <v>51.51000000000003</v>
@@ -27367,7 +27389,7 @@
         <v>69.80000000000001</v>
       </c>
       <c r="K531" t="n">
-        <v>30.43478260869525</v>
+        <v>0</v>
       </c>
       <c r="L531" t="n">
         <v>51.53000000000003</v>
@@ -27418,7 +27440,7 @@
         <v>69.90000000000001</v>
       </c>
       <c r="K532" t="n">
-        <v>19.99999999999964</v>
+        <v>25</v>
       </c>
       <c r="L532" t="n">
         <v>51.54000000000003</v>
@@ -27469,7 +27491,7 @@
         <v>70.09999999999999</v>
       </c>
       <c r="K533" t="n">
-        <v>27.2727272727268</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L533" t="n">
         <v>51.58000000000003</v>
@@ -27520,7 +27542,7 @@
         <v>70.19999999999999</v>
       </c>
       <c r="K534" t="n">
-        <v>21.7391304347825</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L534" t="n">
         <v>51.61000000000003</v>
@@ -27571,7 +27593,7 @@
         <v>70.39999999999999</v>
       </c>
       <c r="K535" t="n">
-        <v>0</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L535" t="n">
         <v>51.60000000000004</v>
@@ -27622,7 +27644,7 @@
         <v>70.69999999999999</v>
       </c>
       <c r="K536" t="n">
-        <v>8.333333333333135</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L536" t="n">
         <v>51.62000000000003</v>
@@ -27673,7 +27695,7 @@
         <v>70.79999999999998</v>
       </c>
       <c r="K537" t="n">
-        <v>8.333333333333135</v>
+        <v>20</v>
       </c>
       <c r="L537" t="n">
         <v>51.65000000000002</v>
@@ -27724,7 +27746,7 @@
         <v>71.19999999999999</v>
       </c>
       <c r="K538" t="n">
-        <v>-3.703703703703733</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L538" t="n">
         <v>51.64000000000002</v>
@@ -27775,7 +27797,7 @@
         <v>71.59999999999999</v>
       </c>
       <c r="K539" t="n">
-        <v>17.24137931034471</v>
+        <v>26.31578947368453</v>
       </c>
       <c r="L539" t="n">
         <v>51.66000000000001</v>
@@ -27826,7 +27848,7 @@
         <v>71.69999999999999</v>
       </c>
       <c r="K540" t="n">
-        <v>17.24137931034479</v>
+        <v>15.78947368421056</v>
       </c>
       <c r="L540" t="n">
         <v>51.70000000000001</v>
@@ -27877,7 +27899,7 @@
         <v>71.69999999999999</v>
       </c>
       <c r="K541" t="n">
-        <v>17.24137931034479</v>
+        <v>11.11111111111098</v>
       </c>
       <c r="L541" t="n">
         <v>51.73</v>
@@ -27928,7 +27950,7 @@
         <v>71.79999999999998</v>
       </c>
       <c r="K542" t="n">
-        <v>7.142857142857252</v>
+        <v>-5.882352941176175</v>
       </c>
       <c r="L542" t="n">
         <v>51.74000000000001</v>
@@ -27979,7 +28001,7 @@
         <v>71.89999999999998</v>
       </c>
       <c r="K543" t="n">
-        <v>7.142857142857288</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L543" t="n">
         <v>51.72000000000001</v>
@@ -28030,7 +28052,7 @@
         <v>72.09999999999997</v>
       </c>
       <c r="K544" t="n">
-        <v>13.33333333333341</v>
+        <v>17.64705882352951</v>
       </c>
       <c r="L544" t="n">
         <v>51.73</v>
@@ -28081,7 +28103,7 @@
         <v>72.19999999999996</v>
       </c>
       <c r="K545" t="n">
-        <v>3.448275862069059</v>
+        <v>-6.666666666666414</v>
       </c>
       <c r="L545" t="n">
         <v>51.75000000000001</v>
@@ -28132,7 +28154,7 @@
         <v>72.39999999999996</v>
       </c>
       <c r="K546" t="n">
-        <v>-3.225806451612984</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L546" t="n">
         <v>51.72000000000001</v>
@@ -28183,7 +28205,7 @@
         <v>72.39999999999996</v>
       </c>
       <c r="K547" t="n">
-        <v>-3.225806451612984</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>51.68000000000002</v>
@@ -28234,7 +28256,7 @@
         <v>72.49999999999997</v>
       </c>
       <c r="K548" t="n">
-        <v>0</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L548" t="n">
         <v>51.69000000000002</v>
@@ -28285,7 +28307,7 @@
         <v>72.69999999999996</v>
       </c>
       <c r="K549" t="n">
-        <v>3.0303030303029</v>
+        <v>0</v>
       </c>
       <c r="L549" t="n">
         <v>51.68000000000002</v>
@@ -28336,7 +28358,7 @@
         <v>72.89999999999995</v>
       </c>
       <c r="K550" t="n">
-        <v>6.250000000000222</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L550" t="n">
         <v>51.66000000000003</v>
@@ -28387,7 +28409,7 @@
         <v>72.89999999999995</v>
       </c>
       <c r="K551" t="n">
-        <v>3.225806451613014</v>
+        <v>-9.090909090909502</v>
       </c>
       <c r="L551" t="n">
         <v>51.64000000000003</v>
@@ -28438,7 +28460,7 @@
         <v>72.99999999999994</v>
       </c>
       <c r="K552" t="n">
-        <v>3.225806451613014</v>
+        <v>9.090909090909502</v>
       </c>
       <c r="L552" t="n">
         <v>51.64000000000003</v>
@@ -28489,7 +28511,7 @@
         <v>73.39999999999995</v>
       </c>
       <c r="K553" t="n">
-        <v>-15.15151515151536</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L553" t="n">
         <v>51.61000000000003</v>
@@ -28540,7 +28562,7 @@
         <v>73.59999999999994</v>
       </c>
       <c r="K554" t="n">
-        <v>-17.64705882352972</v>
+        <v>-42.85714285714366</v>
       </c>
       <c r="L554" t="n">
         <v>51.54000000000003</v>
@@ -28591,7 +28613,7 @@
         <v>73.69999999999993</v>
       </c>
       <c r="K555" t="n">
-        <v>-9.090909090909168</v>
+        <v>-23.07692307692341</v>
       </c>
       <c r="L555" t="n">
         <v>51.49000000000003</v>
@@ -28642,7 +28664,7 @@
         <v>73.99999999999994</v>
       </c>
       <c r="K556" t="n">
-        <v>-27.2727272727276</v>
+        <v>-37.50000000000055</v>
       </c>
       <c r="L556" t="n">
         <v>51.43000000000003</v>
@@ -28693,7 +28715,7 @@
         <v>73.99999999999994</v>
       </c>
       <c r="K557" t="n">
-        <v>-31.25000000000039</v>
+        <v>-46.66666666666774</v>
       </c>
       <c r="L557" t="n">
         <v>51.37000000000003</v>
@@ -28744,7 +28766,7 @@
         <v>74.09999999999994</v>
       </c>
       <c r="K558" t="n">
-        <v>-24.13793103448328</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L558" t="n">
         <v>51.29000000000002</v>
@@ -28795,7 +28817,7 @@
         <v>74.19999999999993</v>
       </c>
       <c r="K559" t="n">
-        <v>-38.46153846153938</v>
+        <v>-53.84615384615478</v>
       </c>
       <c r="L559" t="n">
         <v>51.20000000000002</v>
@@ -28846,7 +28868,7 @@
         <v>74.59999999999994</v>
       </c>
       <c r="K560" t="n">
-        <v>-44.82758620689724</v>
+        <v>-64.70588235294169</v>
       </c>
       <c r="L560" t="n">
         <v>51.09000000000002</v>
@@ -28897,7 +28919,7 @@
         <v>74.59999999999994</v>
       </c>
       <c r="K561" t="n">
-        <v>-44.82758620689724</v>
+        <v>-75.00000000000044</v>
       </c>
       <c r="L561" t="n">
         <v>50.98000000000002</v>
@@ -28948,7 +28970,7 @@
         <v>74.59999999999994</v>
       </c>
       <c r="K562" t="n">
-        <v>-42.85714285714366</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L562" t="n">
         <v>50.86000000000002</v>
@@ -28999,7 +29021,7 @@
         <v>74.69999999999993</v>
       </c>
       <c r="K563" t="n">
-        <v>-35.71428571428629</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L563" t="n">
         <v>50.79000000000001</v>
@@ -29050,7 +29072,7 @@
         <v>74.89999999999993</v>
       </c>
       <c r="K564" t="n">
-        <v>-50.00000000000051</v>
+        <v>-66.66666666666686</v>
       </c>
       <c r="L564" t="n">
         <v>50.72000000000001</v>
@@ -29101,7 +29123,7 @@
         <v>75.09999999999994</v>
       </c>
       <c r="K565" t="n">
-        <v>-37.93103448275897</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L565" t="n">
         <v>50.66000000000002</v>
@@ -29152,7 +29174,7 @@
         <v>75.19999999999993</v>
       </c>
       <c r="K566" t="n">
-        <v>-35.71428571428611</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L566" t="n">
         <v>50.62000000000002</v>
@@ -29203,7 +29225,7 @@
         <v>75.19999999999993</v>
       </c>
       <c r="K567" t="n">
-        <v>-35.71428571428611</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L567" t="n">
         <v>50.58000000000002</v>
@@ -29254,7 +29276,7 @@
         <v>75.19999999999993</v>
       </c>
       <c r="K568" t="n">
-        <v>-40.74074074074139</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L568" t="n">
         <v>50.55000000000002</v>
@@ -29305,7 +29327,7 @@
         <v>75.29999999999993</v>
       </c>
       <c r="K569" t="n">
-        <v>-53.8461538461545</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L569" t="n">
         <v>50.50000000000002</v>
@@ -29356,7 +29378,7 @@
         <v>75.29999999999993</v>
       </c>
       <c r="K570" t="n">
-        <v>-50.00000000000059</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L570" t="n">
         <v>50.49000000000002</v>
@@ -29407,7 +29429,7 @@
         <v>75.29999999999993</v>
       </c>
       <c r="K571" t="n">
-        <v>-50.00000000000059</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L571" t="n">
         <v>50.48000000000002</v>
@@ -29458,7 +29480,7 @@
         <v>75.29999999999993</v>
       </c>
       <c r="K572" t="n">
-        <v>-56.52173913043539</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L572" t="n">
         <v>50.47000000000001</v>
@@ -29509,7 +29531,7 @@
         <v>75.29999999999993</v>
       </c>
       <c r="K573" t="n">
-        <v>-47.36842105263207</v>
+        <v>0</v>
       </c>
       <c r="L573" t="n">
         <v>50.45000000000001</v>
@@ -29560,7 +29582,7 @@
         <v>75.49999999999993</v>
       </c>
       <c r="K574" t="n">
-        <v>-26.31578947368433</v>
+        <v>0</v>
       </c>
       <c r="L574" t="n">
         <v>50.47000000000001</v>
@@ -29611,7 +29633,7 @@
         <v>75.49999999999993</v>
       </c>
       <c r="K575" t="n">
-        <v>-33.33333333333346</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L575" t="n">
         <v>50.47000000000001</v>
@@ -29662,7 +29684,7 @@
         <v>75.69999999999993</v>
       </c>
       <c r="K576" t="n">
-        <v>-29.41176470588255</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L576" t="n">
         <v>50.46000000000002</v>
@@ -29713,7 +29735,7 @@
         <v>75.99999999999994</v>
       </c>
       <c r="K577" t="n">
-        <v>-9.999999999999787</v>
+        <v>25</v>
       </c>
       <c r="L577" t="n">
         <v>50.48000000000002</v>
@@ -29764,7 +29786,7 @@
         <v>76.19999999999993</v>
       </c>
       <c r="K578" t="n">
-        <v>4.761904761904842</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L578" t="n">
         <v>50.52000000000002</v>
@@ -29815,7 +29837,7 @@
         <v>76.19999999999993</v>
       </c>
       <c r="K579" t="n">
-        <v>0</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L579" t="n">
         <v>50.57000000000001</v>
@@ -29866,7 +29888,7 @@
         <v>76.19999999999993</v>
       </c>
       <c r="K580" t="n">
-        <v>25</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L580" t="n">
         <v>50.62000000000002</v>
@@ -29917,7 +29939,7 @@
         <v>76.19999999999993</v>
       </c>
       <c r="K581" t="n">
-        <v>25</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L581" t="n">
         <v>50.67000000000002</v>
@@ -29968,7 +29990,7 @@
         <v>76.29999999999993</v>
       </c>
       <c r="K582" t="n">
-        <v>17.64705882352936</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L582" t="n">
         <v>50.71000000000002</v>
@@ -30019,7 +30041,7 @@
         <v>76.39999999999992</v>
       </c>
       <c r="K583" t="n">
-        <v>5.882352941176594</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L583" t="n">
         <v>50.74000000000002</v>
@@ -30070,7 +30092,7 @@
         <v>76.59999999999992</v>
       </c>
       <c r="K584" t="n">
-        <v>5.882352941176594</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L584" t="n">
         <v>50.73000000000002</v>
@@ -30121,7 +30143,7 @@
         <v>76.59999999999992</v>
       </c>
       <c r="K585" t="n">
-        <v>-6.666666666666825</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L585" t="n">
         <v>50.72000000000001</v>
@@ -30172,7 +30194,7 @@
         <v>76.69999999999993</v>
       </c>
       <c r="K586" t="n">
-        <v>6.666666666666761</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L586" t="n">
         <v>50.74000000000002</v>
@@ -30223,7 +30245,7 @@
         <v>76.79999999999993</v>
       </c>
       <c r="K587" t="n">
-        <v>12.50000000000022</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L587" t="n">
         <v>50.74000000000002</v>
@@ -30274,7 +30296,7 @@
         <v>76.79999999999993</v>
       </c>
       <c r="K588" t="n">
-        <v>12.50000000000022</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L588" t="n">
         <v>50.72000000000003</v>
@@ -30325,7 +30347,7 @@
         <v>76.89999999999992</v>
       </c>
       <c r="K589" t="n">
-        <v>25</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L589" t="n">
         <v>50.71000000000002</v>
@@ -30376,7 +30398,7 @@
         <v>76.99999999999991</v>
       </c>
       <c r="K590" t="n">
-        <v>17.64705882352978</v>
+        <v>-25</v>
       </c>
       <c r="L590" t="n">
         <v>50.69000000000003</v>
@@ -30427,7 +30449,7 @@
         <v>77.09999999999991</v>
       </c>
       <c r="K591" t="n">
-        <v>11.11111111111137</v>
+        <v>-25</v>
       </c>
       <c r="L591" t="n">
         <v>50.66000000000004</v>
@@ -30478,7 +30500,7 @@
         <v>77.09999999999991</v>
       </c>
       <c r="K592" t="n">
-        <v>11.11111111111137</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L592" t="n">
         <v>50.64000000000004</v>
@@ -30529,7 +30551,7 @@
         <v>77.29999999999991</v>
       </c>
       <c r="K593" t="n">
-        <v>0</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L593" t="n">
         <v>50.61000000000004</v>
@@ -30580,7 +30602,7 @@
         <v>77.39999999999992</v>
       </c>
       <c r="K594" t="n">
-        <v>-5.26315789473694</v>
+        <v>0</v>
       </c>
       <c r="L594" t="n">
         <v>50.61000000000003</v>
@@ -30631,7 +30653,7 @@
         <v>77.59999999999992</v>
       </c>
       <c r="K595" t="n">
-        <v>-14.28571428571453</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L595" t="n">
         <v>50.59000000000003</v>
@@ -30682,7 +30704,7 @@
         <v>77.79999999999993</v>
       </c>
       <c r="K596" t="n">
-        <v>4.761904761904842</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L596" t="n">
         <v>50.58000000000003</v>
@@ -30733,7 +30755,7 @@
         <v>77.99999999999993</v>
       </c>
       <c r="K597" t="n">
-        <v>-20.00000000000043</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L597" t="n">
         <v>50.54000000000003</v>
@@ -30784,7 +30806,7 @@
         <v>78.09999999999992</v>
       </c>
       <c r="K598" t="n">
-        <v>-36.84210526315784</v>
+        <v>-49.9999999999994</v>
       </c>
       <c r="L598" t="n">
         <v>50.49000000000002</v>
@@ -30835,7 +30857,7 @@
         <v>78.19999999999993</v>
       </c>
       <c r="K599" t="n">
-        <v>-39.99999999999986</v>
+        <v>-49.9999999999994</v>
       </c>
       <c r="L599" t="n">
         <v>50.42000000000002</v>
@@ -30886,7 +30908,7 @@
         <v>78.29999999999993</v>
       </c>
       <c r="K600" t="n">
-        <v>-42.8571428571429</v>
+        <v>-49.9999999999994</v>
       </c>
       <c r="L600" t="n">
         <v>50.35000000000003</v>
@@ -30937,7 +30959,7 @@
         <v>78.29999999999993</v>
       </c>
       <c r="K601" t="n">
-        <v>-42.8571428571429</v>
+        <v>-49.9999999999994</v>
       </c>
       <c r="L601" t="n">
         <v>50.29000000000002</v>
@@ -30988,7 +31010,7 @@
         <v>78.29999999999993</v>
       </c>
       <c r="K602" t="n">
-        <v>-39.99999999999986</v>
+        <v>-39.99999999999929</v>
       </c>
       <c r="L602" t="n">
         <v>50.23000000000002</v>
@@ -31039,7 +31061,7 @@
         <v>78.29999999999993</v>
       </c>
       <c r="K603" t="n">
-        <v>-36.84210526315793</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L603" t="n">
         <v>50.19000000000002</v>
@@ -31090,7 +31112,7 @@
         <v>78.29999999999993</v>
       </c>
       <c r="K604" t="n">
-        <v>-29.41176470588231</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L604" t="n">
         <v>50.14000000000002</v>
@@ -31141,7 +31163,7 @@
         <v>78.39999999999992</v>
       </c>
       <c r="K605" t="n">
-        <v>-33.33333333333346</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L605" t="n">
         <v>50.10000000000002</v>
@@ -31192,7 +31214,7 @@
         <v>78.49999999999991</v>
       </c>
       <c r="K606" t="n">
-        <v>-44.4444444444451</v>
+        <v>-100.0000000000028</v>
       </c>
       <c r="L606" t="n">
         <v>50.03000000000002</v>
@@ -31243,7 +31265,7 @@
         <v>78.49999999999991</v>
       </c>
       <c r="K607" t="n">
-        <v>-52.94117647058892</v>
+        <v>-100.0000000000036</v>
       </c>
       <c r="L607" t="n">
         <v>49.98000000000001</v>
@@ -31294,7 +31316,7 @@
         <v>78.49999999999991</v>
       </c>
       <c r="K608" t="n">
-        <v>-52.94117647058892</v>
+        <v>-100.0000000000071</v>
       </c>
       <c r="L608" t="n">
         <v>49.94000000000001</v>
@@ -31345,7 +31367,7 @@
         <v>78.89999999999992</v>
       </c>
       <c r="K609" t="n">
-        <v>-69.99999999999993</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L609" t="n">
         <v>49.87000000000002</v>
@@ -31396,7 +31418,7 @@
         <v>79.09999999999992</v>
       </c>
       <c r="K610" t="n">
-        <v>-52.38095238095224</v>
+        <v>-50</v>
       </c>
       <c r="L610" t="n">
         <v>49.83000000000002</v>
@@ -31447,7 +31469,7 @@
         <v>79.29999999999993</v>
       </c>
       <c r="K611" t="n">
-        <v>-36.36363636363627</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L611" t="n">
         <v>49.81000000000002</v>
@@ -31498,7 +31520,7 @@
         <v>79.29999999999993</v>
       </c>
       <c r="K612" t="n">
-        <v>-36.36363636363627</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L612" t="n">
         <v>49.79000000000001</v>
@@ -31549,7 +31571,7 @@
         <v>79.29999999999993</v>
       </c>
       <c r="K613" t="n">
-        <v>-29.99999999999986</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L613" t="n">
         <v>49.77</v>
@@ -31600,7 +31622,7 @@
         <v>79.29999999999993</v>
       </c>
       <c r="K614" t="n">
-        <v>-36.84210526315793</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L614" t="n">
         <v>49.75</v>
@@ -31651,7 +31673,7 @@
         <v>79.49999999999991</v>
       </c>
       <c r="K615" t="n">
-        <v>-36.84210526315784</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L615" t="n">
         <v>49.72000000000001</v>
@@ -31702,7 +31724,7 @@
         <v>79.59999999999991</v>
       </c>
       <c r="K616" t="n">
-        <v>-55.55555555555608</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L616" t="n">
         <v>49.69</v>
@@ -31753,7 +31775,7 @@
         <v>79.6999999999999</v>
       </c>
       <c r="K617" t="n">
-        <v>-41.17647058823567</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L617" t="n">
         <v>49.67</v>
@@ -31804,7 +31826,7 @@
         <v>79.89999999999989</v>
       </c>
       <c r="K618" t="n">
-        <v>-22.22222222222292</v>
+        <v>40.00000000000099</v>
       </c>
       <c r="L618" t="n">
         <v>49.67</v>
@@ -31855,7 +31877,7 @@
         <v>79.99999999999989</v>
       </c>
       <c r="K619" t="n">
-        <v>-11.11111111111155</v>
+        <v>33.33333333333439</v>
       </c>
       <c r="L619" t="n">
         <v>49.72000000000001</v>
@@ -31906,7 +31928,7 @@
         <v>80.19999999999987</v>
       </c>
       <c r="K620" t="n">
-        <v>-15.7894736842108</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L620" t="n">
         <v>49.73</v>
@@ -31957,7 +31979,7 @@
         <v>80.39999999999986</v>
       </c>
       <c r="K621" t="n">
-        <v>-4.761904761904971</v>
+        <v>9.090909090909737</v>
       </c>
       <c r="L621" t="n">
         <v>49.74</v>
@@ -32008,7 +32030,7 @@
         <v>80.59999999999985</v>
       </c>
       <c r="K622" t="n">
-        <v>-13.04347826086986</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L622" t="n">
         <v>49.73</v>
@@ -32059,7 +32081,7 @@
         <v>80.69999999999985</v>
       </c>
       <c r="K623" t="n">
-        <v>-8.333333333333728</v>
+        <v>0</v>
       </c>
       <c r="L623" t="n">
         <v>49.73</v>
@@ -32110,7 +32132,7 @@
         <v>80.79999999999984</v>
       </c>
       <c r="K624" t="n">
-        <v>-12.00000000000029</v>
+        <v>7.69230769230824</v>
       </c>
       <c r="L624" t="n">
         <v>49.72</v>
@@ -32161,7 +32183,7 @@
         <v>80.79999999999984</v>
       </c>
       <c r="K625" t="n">
-        <v>-8.333333333333432</v>
+        <v>16.66666666666785</v>
       </c>
       <c r="L625" t="n">
         <v>49.73</v>
@@ -32212,7 +32234,7 @@
         <v>80.89999999999984</v>
       </c>
       <c r="K626" t="n">
-        <v>0</v>
+        <v>16.66666666666726</v>
       </c>
       <c r="L626" t="n">
         <v>49.75999999999999</v>
@@ -32314,7 +32336,7 @@
         <v>80.99999999999983</v>
       </c>
       <c r="K628" t="n">
-        <v>4.000000000000193</v>
+        <v>0</v>
       </c>
       <c r="L628" t="n">
         <v>49.78999999999998</v>
@@ -32365,7 +32387,7 @@
         <v>80.99999999999983</v>
       </c>
       <c r="K629" t="n">
-        <v>23.80952380952484</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L629" t="n">
         <v>49.78999999999998</v>
@@ -32416,7 +32438,7 @@
         <v>81.19999999999982</v>
       </c>
       <c r="K630" t="n">
-        <v>4.761904761905068</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L630" t="n">
         <v>49.78999999999999</v>
@@ -32467,7 +32489,7 @@
         <v>81.39999999999981</v>
       </c>
       <c r="K631" t="n">
-        <v>4.7619047619051</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L631" t="n">
         <v>49.79</v>
@@ -32518,7 +32540,7 @@
         <v>81.59999999999981</v>
       </c>
       <c r="K632" t="n">
-        <v>13.04347826087041</v>
+        <v>33.33333333333518</v>
       </c>
       <c r="L632" t="n">
         <v>49.83</v>
@@ -32569,7 +32591,7 @@
         <v>81.69999999999982</v>
       </c>
       <c r="K633" t="n">
-        <v>16.66666666666766</v>
+        <v>55.55555555555696</v>
       </c>
       <c r="L633" t="n">
         <v>49.87</v>
@@ -32620,7 +32642,7 @@
         <v>81.99999999999983</v>
       </c>
       <c r="K634" t="n">
-        <v>3.703703703703889</v>
+        <v>16.66666666666647</v>
       </c>
       <c r="L634" t="n">
         <v>49.89</v>
@@ -32671,7 +32693,7 @@
         <v>82.09999999999982</v>
       </c>
       <c r="K635" t="n">
-        <v>15.38461538461587</v>
+        <v>16.66666666666706</v>
       </c>
       <c r="L635" t="n">
         <v>49.92000000000001</v>
@@ -32722,7 +32744,7 @@
         <v>82.39999999999982</v>
       </c>
       <c r="K636" t="n">
-        <v>28.57142857142937</v>
+        <v>33.33333333333365</v>
       </c>
       <c r="L636" t="n">
         <v>49.97000000000001</v>
@@ -32773,7 +32795,7 @@
         <v>82.39999999999982</v>
       </c>
       <c r="K637" t="n">
-        <v>25.92592592592656</v>
+        <v>28.57142857142864</v>
       </c>
       <c r="L637" t="n">
         <v>50.02000000000001</v>
@@ -32824,7 +32846,7 @@
         <v>82.39999999999982</v>
       </c>
       <c r="K638" t="n">
-        <v>20.00000000000057</v>
+        <v>28.57142857142864</v>
       </c>
       <c r="L638" t="n">
         <v>50.06000000000002</v>
@@ -32875,7 +32897,7 @@
         <v>82.39999999999982</v>
       </c>
       <c r="K639" t="n">
-        <v>16.66666666666706</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="L639" t="n">
         <v>50.10000000000001</v>
@@ -32926,7 +32948,7 @@
         <v>82.39999999999982</v>
       </c>
       <c r="K640" t="n">
-        <v>27.27272727272768</v>
+        <v>39.99999999999929</v>
       </c>
       <c r="L640" t="n">
         <v>50.16000000000001</v>
@@ -32977,7 +32999,7 @@
         <v>82.39999999999982</v>
       </c>
       <c r="K641" t="n">
-        <v>20.00000000000036</v>
+        <v>24.99999999999911</v>
       </c>
       <c r="L641" t="n">
         <v>50.20000000000001</v>
@@ -33028,7 +33050,7 @@
         <v>82.39999999999982</v>
       </c>
       <c r="K642" t="n">
-        <v>33.3333333333336</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L642" t="n">
         <v>50.22000000000001</v>
@@ -33079,7 +33101,7 @@
         <v>82.39999999999982</v>
       </c>
       <c r="K643" t="n">
-        <v>29.4117647058828</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L643" t="n">
         <v>50.23</v>
@@ -33130,7 +33152,7 @@
         <v>82.49999999999983</v>
       </c>
       <c r="K644" t="n">
-        <v>41.17647058823532</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L644" t="n">
         <v>50.28000000000001</v>
@@ -33181,7 +33203,7 @@
         <v>82.59999999999982</v>
       </c>
       <c r="K645" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L645" t="n">
         <v>50.31</v>
@@ -33232,7 +33254,7 @@
         <v>82.59999999999982</v>
       </c>
       <c r="K646" t="n">
-        <v>29.41176470588255</v>
+        <v>0</v>
       </c>
       <c r="L646" t="n">
         <v>50.31</v>
@@ -33283,7 +33305,7 @@
         <v>82.59999999999982</v>
       </c>
       <c r="K647" t="n">
-        <v>29.41176470588255</v>
+        <v>0</v>
       </c>
       <c r="L647" t="n">
         <v>50.31</v>
@@ -33334,7 +33356,7 @@
         <v>82.79999999999981</v>
       </c>
       <c r="K648" t="n">
-        <v>11.11111111111137</v>
+        <v>-50</v>
       </c>
       <c r="L648" t="n">
         <v>50.28999999999999</v>
@@ -33385,7 +33407,7 @@
         <v>83.09999999999981</v>
       </c>
       <c r="K649" t="n">
-        <v>23.80952380952404</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L649" t="n">
         <v>50.3</v>
@@ -33436,7 +33458,7 @@
         <v>83.39999999999981</v>
       </c>
       <c r="K650" t="n">
-        <v>18.18181818181821</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L650" t="n">
         <v>50.27999999999999</v>
@@ -33487,7 +33509,7 @@
         <v>83.4999999999998</v>
       </c>
       <c r="K651" t="n">
-        <v>14.28571428571453</v>
+        <v>-9.090909090908738</v>
       </c>
       <c r="L651" t="n">
         <v>50.26999999999999</v>
@@ -33538,7 +33560,7 @@
         <v>83.5999999999998</v>
       </c>
       <c r="K652" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L652" t="n">
         <v>50.24999999999999</v>
@@ -33589,7 +33611,7 @@
         <v>83.69999999999979</v>
       </c>
       <c r="K653" t="n">
-        <v>-10.00000000000028</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L653" t="n">
         <v>50.21999999999998</v>
@@ -33640,7 +33662,7 @@
         <v>83.89999999999979</v>
       </c>
       <c r="K654" t="n">
-        <v>15.78947368421106</v>
+        <v>-7.69230769230744</v>
       </c>
       <c r="L654" t="n">
         <v>50.19999999999997</v>
@@ -33691,7 +33713,7 @@
         <v>84.19999999999979</v>
       </c>
       <c r="K655" t="n">
-        <v>-4.761904761904907</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L655" t="n">
         <v>50.15999999999998</v>
@@ -33742,7 +33764,7 @@
         <v>84.29999999999978</v>
       </c>
       <c r="K656" t="n">
-        <v>-26.31578947368472</v>
+        <v>-29.41176470588304</v>
       </c>
       <c r="L656" t="n">
         <v>50.10999999999997</v>
@@ -33793,7 +33815,7 @@
         <v>84.29999999999978</v>
       </c>
       <c r="K657" t="n">
-        <v>-26.31578947368472</v>
+        <v>-20.00000000000066</v>
       </c>
       <c r="L657" t="n">
         <v>50.05999999999997</v>
@@ -33844,7 +33866,7 @@
         <v>84.29999999999978</v>
       </c>
       <c r="K658" t="n">
-        <v>-26.31578947368472</v>
+        <v>-50.00000000000119</v>
       </c>
       <c r="L658" t="n">
         <v>50.02999999999997</v>
@@ -33895,7 +33917,7 @@
         <v>84.29999999999978</v>
       </c>
       <c r="K659" t="n">
-        <v>-26.31578947368472</v>
+        <v>-33.33333333333465</v>
       </c>
       <c r="L659" t="n">
         <v>49.96999999999997</v>
@@ -33946,7 +33968,7 @@
         <v>84.39999999999978</v>
       </c>
       <c r="K660" t="n">
-        <v>-30.00000000000036</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L660" t="n">
         <v>49.92999999999997</v>
@@ -33997,7 +34019,7 @@
         <v>84.39999999999978</v>
       </c>
       <c r="K661" t="n">
-        <v>-30.00000000000036</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L661" t="n">
         <v>49.87999999999998</v>
@@ -34048,7 +34070,7 @@
         <v>84.59999999999977</v>
       </c>
       <c r="K662" t="n">
-        <v>-18.18181818181856</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L662" t="n">
         <v>49.85999999999998</v>
@@ -34099,7 +34121,7 @@
         <v>84.59999999999977</v>
       </c>
       <c r="K663" t="n">
-        <v>-18.18181818181856</v>
+        <v>-42.85714285714503</v>
       </c>
       <c r="L663" t="n">
         <v>49.84999999999998</v>
@@ -34150,7 +34172,7 @@
         <v>84.79999999999976</v>
       </c>
       <c r="K664" t="n">
-        <v>-30.43478260869644</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L664" t="n">
         <v>49.79999999999998</v>
@@ -34201,7 +34223,7 @@
         <v>84.99999999999974</v>
       </c>
       <c r="K665" t="n">
-        <v>-16.66666666666716</v>
+        <v>14.2857142857153</v>
       </c>
       <c r="L665" t="n">
         <v>49.79999999999999</v>
@@ -34252,7 +34274,7 @@
         <v>85.09999999999974</v>
       </c>
       <c r="K666" t="n">
-        <v>-20.00000000000068</v>
+        <v>0</v>
       </c>
       <c r="L666" t="n">
         <v>49.79999999999998</v>
@@ -34303,7 +34325,7 @@
         <v>85.19999999999973</v>
       </c>
       <c r="K667" t="n">
-        <v>-15.38461538461587</v>
+        <v>11.1111111111119</v>
       </c>
       <c r="L667" t="n">
         <v>49.80999999999999</v>
@@ -34354,7 +34376,7 @@
         <v>85.19999999999973</v>
       </c>
       <c r="K668" t="n">
-        <v>-8.333333333333728</v>
+        <v>11.1111111111119</v>
       </c>
       <c r="L668" t="n">
         <v>49.81999999999999</v>
@@ -34405,7 +34427,7 @@
         <v>85.29999999999973</v>
       </c>
       <c r="K669" t="n">
-        <v>-18.1818181818188</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L669" t="n">
         <v>49.83999999999998</v>
@@ -34456,7 +34478,7 @@
         <v>85.49999999999973</v>
       </c>
       <c r="K670" t="n">
-        <v>-14.28571428571501</v>
+        <v>9.090909090908973</v>
       </c>
       <c r="L670" t="n">
         <v>49.84999999999998</v>
@@ -34507,7 +34529,7 @@
         <v>85.69999999999973</v>
       </c>
       <c r="K671" t="n">
-        <v>-9.090909090909502</v>
+        <v>9.090909090909502</v>
       </c>
       <c r="L671" t="n">
         <v>49.87999999999998</v>
@@ -34558,7 +34580,7 @@
         <v>85.69999999999973</v>
       </c>
       <c r="K672" t="n">
-        <v>-4.761904761904971</v>
+        <v>9.090909090909502</v>
       </c>
       <c r="L672" t="n">
         <v>49.88999999999997</v>
@@ -34609,7 +34631,7 @@
         <v>85.69999999999973</v>
       </c>
       <c r="K673" t="n">
-        <v>0</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L673" t="n">
         <v>49.89999999999998</v>
@@ -34660,7 +34682,7 @@
         <v>85.79999999999973</v>
       </c>
       <c r="K674" t="n">
-        <v>-15.78947368421129</v>
+        <v>0</v>
       </c>
       <c r="L674" t="n">
         <v>49.91999999999997</v>
@@ -34711,7 +34733,7 @@
         <v>85.79999999999973</v>
       </c>
       <c r="K675" t="n">
-        <v>0</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L675" t="n">
         <v>49.91999999999998</v>

--- a/BackTest/2019-10-18 BackTest XEM.xlsx
+++ b/BackTest/2019-10-18 BackTest XEM.xlsx
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -2131,13 +2131,17 @@
         <v>49.03166666666668</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48.5</v>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
@@ -2166,14 +2170,22 @@
         <v>49.04166666666668</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2201,14 +2213,22 @@
         <v>49.05333333333335</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="K52" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2236,14 +2256,22 @@
         <v>49.06500000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="K53" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +2299,22 @@
         <v>49.07833333333335</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="K54" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2306,14 +2342,22 @@
         <v>49.07666666666668</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="K55" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2341,14 +2385,22 @@
         <v>49.08000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2376,14 +2428,22 @@
         <v>49.08333333333334</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="K57" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2477,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2518,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2559,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2516,14 +2594,22 @@
         <v>49.10666666666668</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,8 +2643,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,8 +2684,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2627,8 +2725,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2662,8 +2766,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +2807,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +2848,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +2889,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +2930,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +2971,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2872,8 +3012,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2907,8 +3053,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2942,8 +3094,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2977,8 +3135,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3012,8 +3176,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3047,8 +3217,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3082,8 +3258,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3117,8 +3299,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3152,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3187,8 +3381,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3222,8 +3422,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3257,8 +3463,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3504,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3327,8 +3545,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3362,8 +3586,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3397,8 +3627,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3432,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3467,8 +3709,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3502,8 +3750,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3537,8 +3791,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +3832,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3607,8 +3873,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3642,8 +3914,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3677,8 +3955,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3712,8 +3996,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3747,8 +4037,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3782,8 +4078,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3817,8 +4119,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3852,8 +4160,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4201,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3922,8 +4242,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3957,8 +4283,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3992,8 +4324,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4027,8 +4365,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4406,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4097,8 +4447,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4132,8 +4488,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4167,8 +4529,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4202,8 +4570,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4611,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4272,8 +4652,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4307,8 +4693,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4342,8 +4734,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4371,14 +4769,22 @@
         <v>49.08333333333336</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K114" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4406,14 +4812,22 @@
         <v>49.08833333333335</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="K115" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4441,14 +4855,22 @@
         <v>49.08500000000002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="K116" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4476,14 +4898,22 @@
         <v>49.08333333333336</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K117" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4511,14 +4941,22 @@
         <v>49.08500000000002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="K118" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4546,14 +4984,22 @@
         <v>49.08333333333336</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="K119" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4581,14 +5027,22 @@
         <v>49.08166666666669</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="K120" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4616,14 +5070,22 @@
         <v>49.08000000000003</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>49</v>
+      </c>
+      <c r="K121" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +5119,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4692,8 +5160,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +5201,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +5242,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4797,8 +5283,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +5324,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4867,8 +5365,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4902,8 +5406,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4937,8 +5447,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4972,8 +5488,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5529,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5570,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5611,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5112,8 +5652,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +5693,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5734,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +5775,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5252,8 +5816,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5287,8 +5857,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5322,8 +5898,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5357,8 +5939,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +5980,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5427,8 +6021,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5462,8 +6062,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +6103,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5532,8 +6144,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5567,8 +6185,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6226,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +6267,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5672,8 +6308,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5707,8 +6349,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5742,8 +6390,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5771,18 +6425,20 @@
         <v>48.47833333333336</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="L154" t="inlineStr"/>
+        <v>48.5</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5810,20 +6466,18 @@
         <v>48.46166666666669</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M155" t="n">
@@ -5853,20 +6507,18 @@
         <v>48.44000000000003</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M156" t="n">
@@ -5896,16 +6548,14 @@
         <v>48.4216666666667</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -5939,16 +6589,14 @@
         <v>48.40000000000003</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -5982,16 +6630,14 @@
         <v>48.3816666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6025,16 +6671,14 @@
         <v>48.36500000000003</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6068,16 +6712,14 @@
         <v>48.35166666666669</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>48</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6111,16 +6753,14 @@
         <v>48.34000000000003</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>48</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6154,16 +6794,14 @@
         <v>48.32833333333337</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>48</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6197,16 +6835,14 @@
         <v>48.31833333333336</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6240,16 +6876,14 @@
         <v>48.3116666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6283,16 +6917,14 @@
         <v>48.30000000000003</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6326,16 +6958,14 @@
         <v>48.2916666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6369,16 +6999,14 @@
         <v>48.28333333333337</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>48</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6412,16 +7040,14 @@
         <v>48.27333333333336</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6455,16 +7081,14 @@
         <v>48.26500000000003</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6498,16 +7122,14 @@
         <v>48.25833333333336</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>48</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6541,16 +7163,14 @@
         <v>48.25000000000003</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>48</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6584,16 +7204,14 @@
         <v>48.2416666666667</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>48</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6627,16 +7245,14 @@
         <v>48.22500000000003</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6670,16 +7286,14 @@
         <v>48.21333333333337</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>48</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6713,16 +7327,14 @@
         <v>48.2066666666667</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>48</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6756,16 +7368,14 @@
         <v>48.1966666666667</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>48</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6799,16 +7409,14 @@
         <v>48.18000000000004</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -6842,16 +7450,14 @@
         <v>48.16333333333337</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -6885,16 +7491,14 @@
         <v>48.1466666666667</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>48</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -6928,16 +7532,14 @@
         <v>48.13000000000003</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>48</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -6971,16 +7573,14 @@
         <v>48.1166666666667</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>48</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7014,16 +7614,14 @@
         <v>48.10500000000003</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7057,16 +7655,14 @@
         <v>48.09166666666669</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7100,16 +7696,14 @@
         <v>48.08000000000002</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7143,16 +7737,14 @@
         <v>48.06833333333335</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7186,16 +7778,14 @@
         <v>48.06000000000002</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7229,16 +7819,14 @@
         <v>48.05500000000002</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7272,16 +7860,14 @@
         <v>48.05333333333336</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>48.3</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7315,16 +7901,14 @@
         <v>48.05833333333336</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>48.4</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7358,16 +7942,14 @@
         <v>48.05666666666669</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>48.4</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7401,16 +7983,14 @@
         <v>48.06333333333336</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>48.5</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7451,7 +8031,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7492,7 +8072,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7533,7 +8113,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7574,7 +8154,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7615,7 +8195,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7656,7 +8236,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7697,7 +8277,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7738,7 +8318,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7779,7 +8359,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7813,16 +8393,14 @@
         <v>48.06666666666669</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7856,16 +8434,14 @@
         <v>48.07000000000002</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -7899,16 +8475,14 @@
         <v>48.07000000000002</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -7942,16 +8516,14 @@
         <v>48.06833333333336</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>48</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -7985,16 +8557,14 @@
         <v>48.07166666666669</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>48</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8028,16 +8598,14 @@
         <v>48.07333333333335</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>48</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8071,16 +8639,14 @@
         <v>48.06833333333335</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>48</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8114,16 +8680,14 @@
         <v>48.06166666666668</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>47.7</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8157,16 +8721,14 @@
         <v>48.06000000000002</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>47.7</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8200,16 +8762,14 @@
         <v>48.05500000000001</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>47.7</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8243,16 +8803,14 @@
         <v>48.05333333333335</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8286,16 +8844,14 @@
         <v>48.05666666666669</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8329,16 +8885,14 @@
         <v>48.05833333333335</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8372,16 +8926,14 @@
         <v>48.05833333333335</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8415,16 +8967,14 @@
         <v>48.06166666666669</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8458,16 +9008,14 @@
         <v>48.06333333333335</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>48</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8501,16 +9049,14 @@
         <v>48.06500000000002</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8544,16 +9090,14 @@
         <v>48.06833333333335</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>48</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8587,16 +9131,14 @@
         <v>48.07000000000001</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>48</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8630,16 +9172,14 @@
         <v>48.06833333333335</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8673,16 +9213,14 @@
         <v>48.06666666666668</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>48</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8716,16 +9254,14 @@
         <v>48.06666666666668</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>48</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8759,16 +9295,14 @@
         <v>48.06333333333335</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>48</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8802,16 +9336,14 @@
         <v>48.06000000000002</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>48</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8845,16 +9377,14 @@
         <v>48.06000000000002</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>48</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8888,16 +9418,14 @@
         <v>48.05833333333336</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>48</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8931,16 +9459,14 @@
         <v>48.05333333333336</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8974,16 +9500,14 @@
         <v>48.05500000000002</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -9017,16 +9541,14 @@
         <v>48.05666666666669</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -9060,16 +9582,14 @@
         <v>48.05666666666669</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9103,16 +9623,14 @@
         <v>48.05666666666669</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9146,16 +9664,14 @@
         <v>48.05666666666669</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>48</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9189,16 +9705,14 @@
         <v>48.05833333333335</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>48</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9232,16 +9746,14 @@
         <v>48.05833333333335</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>48</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9275,16 +9787,14 @@
         <v>48.05833333333335</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>48</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9318,16 +9828,14 @@
         <v>48.05666666666669</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9361,16 +9869,14 @@
         <v>48.05833333333335</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9404,16 +9910,14 @@
         <v>48.05833333333335</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9447,16 +9951,14 @@
         <v>48.05833333333335</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>48</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9490,16 +9992,14 @@
         <v>48.05833333333335</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>48</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9533,16 +10033,14 @@
         <v>48.05000000000002</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9576,16 +10074,14 @@
         <v>48.04166666666668</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>47.7</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9619,16 +10115,14 @@
         <v>48.03666666666668</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9662,16 +10156,14 @@
         <v>48.03166666666669</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>47.7</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9705,16 +10197,14 @@
         <v>48.02666666666669</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9748,16 +10238,14 @@
         <v>48.02333333333336</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>48</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9791,16 +10279,14 @@
         <v>48.01666666666669</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9834,16 +10320,14 @@
         <v>48.01000000000003</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9877,16 +10361,14 @@
         <v>48.00333333333336</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>48</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9920,16 +10402,14 @@
         <v>47.99333333333336</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9963,16 +10443,14 @@
         <v>47.97833333333336</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -10006,16 +10484,14 @@
         <v>47.96500000000002</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>47.7</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -10049,16 +10525,14 @@
         <v>47.95500000000003</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -10092,16 +10566,14 @@
         <v>47.94833333333337</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -10135,16 +10607,14 @@
         <v>47.93833333333337</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -10178,16 +10648,14 @@
         <v>47.93000000000004</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -10221,16 +10689,14 @@
         <v>47.93000000000004</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>48</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -10264,16 +10730,14 @@
         <v>47.9216666666667</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -10307,16 +10771,14 @@
         <v>47.91666666666671</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10350,16 +10812,14 @@
         <v>47.91333333333338</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -10393,16 +10853,14 @@
         <v>47.91166666666671</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>48</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -10436,16 +10894,14 @@
         <v>47.91000000000005</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>48</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -10479,16 +10935,14 @@
         <v>47.90666666666672</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10522,16 +10976,14 @@
         <v>47.90666666666672</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>48</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10565,16 +11017,14 @@
         <v>47.90833333333338</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10608,16 +11058,14 @@
         <v>47.90833333333338</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>48</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10651,16 +11099,14 @@
         <v>47.91333333333338</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>48</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10694,16 +11140,14 @@
         <v>47.91666666666672</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10737,16 +11181,14 @@
         <v>47.91666666666672</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10780,16 +11222,14 @@
         <v>47.92333333333339</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10823,16 +11263,14 @@
         <v>47.92666666666672</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10866,16 +11304,14 @@
         <v>47.93166666666671</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10909,16 +11345,14 @@
         <v>47.93666666666671</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10952,16 +11386,14 @@
         <v>47.94000000000004</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10995,16 +11427,14 @@
         <v>47.94500000000004</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -11038,16 +11468,14 @@
         <v>47.94833333333337</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -11081,16 +11509,14 @@
         <v>47.9516666666667</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -11124,16 +11550,14 @@
         <v>47.95500000000003</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -11167,16 +11591,14 @@
         <v>47.95833333333336</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -11210,16 +11632,14 @@
         <v>47.96166666666669</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -11253,16 +11673,14 @@
         <v>47.96500000000002</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -11296,16 +11714,14 @@
         <v>47.96833333333335</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -11339,16 +11755,14 @@
         <v>47.97000000000001</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -11382,16 +11796,14 @@
         <v>47.97333333333334</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -11425,16 +11837,14 @@
         <v>47.97333333333334</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>48</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -11468,16 +11878,14 @@
         <v>47.97500000000001</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -11511,16 +11919,14 @@
         <v>47.98166666666668</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -11554,16 +11960,14 @@
         <v>47.98333333333334</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11597,16 +12001,14 @@
         <v>47.98500000000001</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11640,16 +12042,14 @@
         <v>47.98500000000001</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>48</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -11683,16 +12083,14 @@
         <v>47.98666666666667</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -11726,16 +12124,14 @@
         <v>47.98833333333334</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -11769,16 +12165,14 @@
         <v>47.99</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -11812,16 +12206,14 @@
         <v>47.99166666666667</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -11855,16 +12247,14 @@
         <v>47.99333333333333</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -11898,16 +12288,14 @@
         <v>47.99666666666666</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11941,16 +12329,14 @@
         <v>47.99833333333333</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11984,16 +12370,14 @@
         <v>48.00166666666666</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -12027,16 +12411,14 @@
         <v>48.00666666666666</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>48.3</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -12070,16 +12452,14 @@
         <v>48.01833333333332</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>48.3</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -12113,16 +12493,14 @@
         <v>48.03999999999999</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>48.8</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -12156,16 +12534,14 @@
         <v>48.06166666666666</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -12206,7 +12582,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -12247,7 +12623,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -12288,7 +12664,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -12329,7 +12705,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -12370,7 +12746,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -12411,7 +12787,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -12452,7 +12828,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -12493,7 +12869,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -12534,7 +12910,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -12575,7 +12951,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -12616,7 +12992,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -12657,7 +13033,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -12698,7 +13074,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -12739,7 +13115,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -12780,7 +13156,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -12821,7 +13197,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -12862,7 +13238,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -12903,7 +13279,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -12944,7 +13320,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -12985,7 +13361,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -13026,7 +13402,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -13067,7 +13443,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -13108,7 +13484,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -13149,7 +13525,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -13190,7 +13566,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -13231,7 +13607,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -13272,7 +13648,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -13313,7 +13689,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -13354,7 +13730,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -13395,7 +13771,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -13436,7 +13812,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -13477,7 +13853,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -13518,7 +13894,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -13559,7 +13935,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -13600,7 +13976,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -13641,7 +14017,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -13682,7 +14058,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -13723,7 +14099,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -13764,7 +14140,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -13805,7 +14181,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -13846,7 +14222,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -13887,7 +14263,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -13928,7 +14304,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -13969,7 +14345,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -14010,7 +14386,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -14051,7 +14427,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -14092,7 +14468,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -14133,7 +14509,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -14174,7 +14550,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -14215,7 +14591,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -14256,7 +14632,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -14297,7 +14673,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -14338,7 +14714,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -14379,7 +14755,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -14420,7 +14796,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -14461,7 +14837,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -14502,7 +14878,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -14543,7 +14919,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -14584,7 +14960,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -14625,7 +15001,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -14666,7 +15042,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -14707,7 +15083,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -14748,7 +15124,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -14789,7 +15165,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -14830,7 +15206,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -14871,7 +15247,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -14912,7 +15288,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -14953,7 +15329,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -14994,7 +15370,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -15035,7 +15411,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -15076,7 +15452,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -15117,7 +15493,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -15158,7 +15534,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -15199,7 +15575,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -15240,7 +15616,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -15281,7 +15657,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -15322,7 +15698,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -15363,7 +15739,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -15404,7 +15780,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -15445,7 +15821,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -15486,7 +15862,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -15527,7 +15903,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -15568,7 +15944,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -15609,7 +15985,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -15650,7 +16026,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -15691,7 +16067,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -15732,7 +16108,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -15773,7 +16149,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -15814,7 +16190,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -15851,19 +16227,19 @@
         <v>0</v>
       </c>
       <c r="I393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>1.061945606694561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -15895,10 +16271,16 @@
         <v>1</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M394" t="n">
-        <v>1</v>
+        <v>1.046546391752577</v>
       </c>
     </row>
     <row r="395">
@@ -15927,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
@@ -15997,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
@@ -16032,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
@@ -17397,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
@@ -17432,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
@@ -17502,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
@@ -17537,7 +17919,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
@@ -17607,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>

--- a/BackTest/2019-10-18 BackTest XEM.xlsx
+++ b/BackTest/2019-10-18 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>808665.0659604999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>756623.8331604999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50.8</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>774488.4512604999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50.5</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>774488.4512604999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50.8</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>50.8</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50.9</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50.9</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>825394.6852604998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50.9</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +761,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +798,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +835,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +872,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +909,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +946,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +983,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1020,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1057,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1094,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1131,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1168,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1205,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1238,17 @@
         <v>645502.1308605</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>48.8</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1277,17 @@
         <v>656077.6349605001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>48.8</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1316,17 @@
         <v>625070.8045605001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>49.1</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1355,17 @@
         <v>625070.8045605001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>49</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1398,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1435,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1472,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1509,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1546,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1583,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1620,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1657,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1694,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1731,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1768,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1805,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1842,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1879,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1912,17 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>48.3</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1951,17 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1990,17 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2029,17 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2068,17 @@
         <v>498673.3526605</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2107,17 @@
         <v>498673.3526605</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2146,17 @@
         <v>490158.9895605</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2185,17 @@
         <v>530176.7407605001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>48</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2224,17 @@
         <v>613133.6208605</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2263,17 @@
         <v>605774.3650605</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2302,17 @@
         <v>528459.7738605</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>48</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2341,17 @@
         <v>541572.8356605</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2380,17 @@
         <v>541572.8356605</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>48</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2419,17 @@
         <v>549372.8356605</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>48</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2458,17 @@
         <v>549361.8356605</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2497,17 @@
         <v>568961.8356605</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2536,17 @@
         <v>569003.7041605</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2575,17 @@
         <v>568992.7041605</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2614,17 @@
         <v>611299.6917605</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2653,17 @@
         <v>657493.35568907</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2696,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2733,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2770,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2807,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2844,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2881,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2918,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2955,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2992,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +3029,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3066,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3103,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3140,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3177,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3214,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3251,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3288,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3325,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3362,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3399,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3436,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3473,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3510,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3547,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3584,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3621,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3658,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3695,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3732,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3765,17 @@
         <v>978157.6488680904</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>49.2</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3804,17 @@
         <v>978157.6488680904</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>49</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3843,17 @@
         <v>832970.8355680903</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>49</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3882,17 @@
         <v>833689.6518680903</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3921,17 @@
         <v>806341.3901680902</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>49</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3960,17 @@
         <v>806989.2179680902</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3999,17 @@
         <v>802415.1933383202</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>48.8</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +4038,17 @@
         <v>794426.0689383203</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>48.7</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +4077,17 @@
         <v>783553.8873383203</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +4116,17 @@
         <v>784704.0048383203</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4155,17 @@
         <v>785732.0048383203</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>48.3</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4194,17 @@
         <v>783532.0048383203</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4233,17 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4272,17 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4311,17 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4350,17 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4389,17 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4428,17 @@
         <v>769482.4643383203</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4467,17 @@
         <v>785946.2950383204</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4506,17 @@
         <v>784648.9177383203</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4545,17 @@
         <v>825326.9176383204</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4584,17 @@
         <v>825326.9176383204</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4623,17 @@
         <v>836726.9176383204</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4666,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4703,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4740,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4777,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4814,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4851,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4888,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4925,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4962,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4999,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +5036,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +5073,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5110,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5147,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5184,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5221,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5258,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5295,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5332,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5369,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5406,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5443,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5480,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5517,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5554,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5591,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5628,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5665,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5702,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5739,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5776,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5813,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5850,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5887,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5924,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5961,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5998,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +6035,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +6072,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +6109,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6146,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +6179,17 @@
         <v>1271704.19856267</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>48.8</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +6218,17 @@
         <v>1274861.922062671</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6261,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6298,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6335,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +6368,17 @@
         <v>1280703.454562671</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6407,17 @@
         <v>1275212.205762671</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6446,17 @@
         <v>1231600.674462671</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>48.8</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6485,17 @@
         <v>1231600.674462671</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>48.7</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6524,17 @@
         <v>1231749.875282541</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>48.7</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6563,17 @@
         <v>1214029.642082541</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>48.8</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6602,17 @@
         <v>1216729.968382541</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6645,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6678,17 @@
         <v>1212557.901082541</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6717,17 @@
         <v>1212557.901082541</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6756,17 @@
         <v>1199510.068582541</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6795,17 @@
         <v>1199510.068582541</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6834,17 @@
         <v>1208592.333582541</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6873,17 @@
         <v>1208592.333582541</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6916,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6953,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6990,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +7027,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +7064,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +7101,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +7138,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +7175,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +7212,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +7249,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +7286,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +7323,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +7360,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +7397,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +7434,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +7471,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7508,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7545,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7582,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7619,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7656,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7693,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7730,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7767,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7804,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7841,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7878,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7915,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7952,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7989,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +8026,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +8063,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +8100,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +8133,17 @@
         <v>1080486.459082541</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +8176,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +8209,17 @@
         <v>1082211.907182541</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>48</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +8248,17 @@
         <v>1073785.432282541</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +8287,17 @@
         <v>1073785.432282541</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>48</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +8326,17 @@
         <v>1073785.432282541</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>48</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +8365,17 @@
         <v>1068444.312782541</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>48</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +8404,17 @@
         <v>1069847.177182541</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>47.7</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +8443,17 @@
         <v>1079644.434282541</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,7 +8482,7 @@
         <v>1078887.680982541</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>47.9</v>
@@ -7488,7 +8490,7 @@
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -7519,7 +8521,7 @@
         <v>1081609.134582541</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>47.7</v>
@@ -7558,7 +8560,7 @@
         <v>1079845.789582541</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>47.9</v>
@@ -7597,7 +8599,7 @@
         <v>1079845.789582541</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>47.8</v>
@@ -7636,7 +8638,7 @@
         <v>1183633.958082541</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>47.8</v>
@@ -7675,7 +8677,7 @@
         <v>1200697.885082541</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>47.9</v>
@@ -7714,7 +8716,7 @@
         <v>1200697.885082541</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>48</v>
@@ -7753,7 +8755,7 @@
         <v>1200697.885082541</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>48</v>
@@ -7792,7 +8794,7 @@
         <v>1201308.014382541</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>48</v>
@@ -7831,11 +8833,9 @@
         <v>1201308.014382541</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>48.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -7870,11 +8870,9 @@
         <v>1194274.263382541</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>48.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -7909,11 +8907,9 @@
         <v>1212854.218782541</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -7948,9 +8944,11 @@
         <v>1209613.337682541</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -7985,9 +8983,11 @@
         <v>1206193.903182541</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>48</v>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8022,9 +9022,11 @@
         <v>1206193.903182541</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8059,9 +9061,11 @@
         <v>1206234.715682541</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8096,9 +9100,11 @@
         <v>1206234.715682541</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>48</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8133,9 +9139,11 @@
         <v>1206234.715682541</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>48</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8170,9 +9178,11 @@
         <v>1206100.809082541</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>48</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8207,9 +9217,11 @@
         <v>1206429.376682541</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8244,9 +9256,11 @@
         <v>1206429.376682541</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>48</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8392,7 +9406,7 @@
         <v>1206897.488182541</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>47.9</v>
@@ -8431,9 +9445,11 @@
         <v>1206897.488182541</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>48</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8468,9 +9484,11 @@
         <v>1209827.764582541</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>48</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8505,9 +9523,11 @@
         <v>1209938.884782541</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8542,9 +9562,11 @@
         <v>1209938.884782541</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>48.2</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8986,9 +10008,11 @@
         <v>1220602.509382541</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>48.2</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9023,9 +10047,11 @@
         <v>1194075.552882541</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9060,9 +10086,11 @@
         <v>1192640.78358254</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>48.3</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9097,9 +10125,11 @@
         <v>1201555.15915997</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>48</v>
+      </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9134,7 +10164,7 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>48.3</v>
@@ -9173,9 +10203,11 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9210,9 +10242,11 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9247,9 +10281,11 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9284,7 +10320,7 @@
         <v>1216943.459959971</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>48.1</v>
@@ -9323,7 +10359,7 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>48.2</v>
@@ -9362,7 +10398,7 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>48</v>
@@ -9401,7 +10437,7 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>48</v>
@@ -9440,7 +10476,7 @@
         <v>1140232.159459971</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>48</v>
@@ -9479,7 +10515,7 @@
         <v>1140232.159459971</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>47.7</v>
@@ -9518,9 +10554,11 @@
         <v>1146846.313459971</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>47.7</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9555,7 +10593,7 @@
         <v>1140601.382059971</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>47.9</v>
@@ -9594,9 +10632,11 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>47.7</v>
+      </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -9631,7 +10671,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>47.9</v>
@@ -9670,9 +10710,11 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -9707,7 +10749,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>47.9</v>
@@ -9746,7 +10788,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>47.9</v>
@@ -9785,7 +10827,7 @@
         <v>1142693.338859971</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>47.9</v>
@@ -9824,7 +10866,7 @@
         <v>1109792.555759971</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>48</v>
@@ -9863,7 +10905,7 @@
         <v>1110071.534859971</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>47.9</v>
@@ -9902,7 +10944,7 @@
         <v>1110071.534859971</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>48</v>
@@ -9941,7 +10983,7 @@
         <v>1109522.192559971</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>48</v>
@@ -9980,7 +11022,7 @@
         <v>1109522.192559971</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>47.9</v>
@@ -10019,7 +11061,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>47.9</v>
@@ -10058,7 +11100,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>48</v>
@@ -10097,7 +11139,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>48</v>
@@ -10136,7 +11178,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>48</v>
@@ -10175,7 +11217,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>48</v>
@@ -10214,7 +11256,7 @@
         <v>1095934.845559971</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>48</v>
@@ -10253,7 +11295,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>47.7</v>
@@ -10292,7 +11334,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>48</v>
@@ -10331,7 +11373,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>48</v>
@@ -10370,7 +11412,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>48</v>
@@ -10409,7 +11451,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>48</v>
@@ -10448,7 +11490,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>48</v>
@@ -10487,7 +11529,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>48</v>
@@ -10526,7 +11568,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>48</v>
@@ -10565,7 +11607,7 @@
         <v>1094364.703159971</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>48</v>
@@ -10604,7 +11646,7 @@
         <v>1095279.024959971</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>47.9</v>
@@ -10643,7 +11685,7 @@
         <v>1094279.024959971</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>48</v>
@@ -10682,7 +11724,7 @@
         <v>1094510.024959971</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>47.9</v>
@@ -10721,7 +11763,7 @@
         <v>1094510.024959971</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>48</v>
@@ -10760,9 +11802,11 @@
         <v>1041727.138359971</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>48</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10797,9 +11841,11 @@
         <v>1071248.103259971</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>47.6</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10834,9 +11880,11 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>47.7</v>
+      </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -10871,9 +11919,11 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -10908,9 +11958,11 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -10945,7 +11997,7 @@
         <v>1084681.103259971</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>47.9</v>
@@ -10984,9 +12036,11 @@
         <v>1069713.590859971</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>48</v>
+      </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -11021,7 +12075,7 @@
         <v>1069713.590859971</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>47.9</v>
@@ -11060,9 +12114,11 @@
         <v>1069808.153359971</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11097,7 +12153,7 @@
         <v>1068888.153359971</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>48</v>
@@ -11136,9 +12192,11 @@
         <v>1067683.153359971</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -11173,7 +12231,7 @@
         <v>1067683.153359971</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>47.7</v>
@@ -11212,7 +12270,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>47.7</v>
@@ -11251,7 +12309,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>47.8</v>
@@ -11290,7 +12348,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>47.8</v>
@@ -11329,7 +12387,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>47.8</v>
@@ -11368,7 +12426,7 @@
         <v>1095524.740459971</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>47.8</v>
@@ -11407,7 +12465,7 @@
         <v>1086170.761559971</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>48</v>
@@ -11446,7 +12504,7 @@
         <v>1086170.761559971</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>47.8</v>
@@ -11485,7 +12543,7 @@
         <v>1098350.349359971</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>47.8</v>
@@ -11524,7 +12582,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>47.9</v>
@@ -11563,7 +12621,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>48</v>
@@ -11602,7 +12660,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>48</v>
@@ -11641,7 +12699,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>48</v>
@@ -11680,7 +12738,7 @@
         <v>1100967.020859971</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>48</v>
@@ -11719,7 +12777,7 @@
         <v>1099238.049359971</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>48.1</v>
@@ -11758,7 +12816,7 @@
         <v>1099238.049359971</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>48</v>
@@ -11797,7 +12855,7 @@
         <v>1099025.353459971</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>48</v>
@@ -11836,7 +12894,7 @@
         <v>1099025.353459971</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>47.9</v>
@@ -11875,7 +12933,7 @@
         <v>1103070.097459971</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>47.9</v>
@@ -11914,7 +12972,7 @@
         <v>1103070.097459971</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>48.1</v>
@@ -11953,7 +13011,7 @@
         <v>1103479.790359971</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>48.1</v>
@@ -11992,7 +13050,7 @@
         <v>1103479.790359971</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>48.2</v>
@@ -12031,7 +13089,7 @@
         <v>1079279.790359971</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>48.2</v>
@@ -12070,7 +13128,7 @@
         <v>1079626.798559971</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>48.1</v>
@@ -12109,7 +13167,7 @@
         <v>1079626.798559971</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>48.2</v>
@@ -12148,7 +13206,7 @@
         <v>1037443.530959971</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>48.2</v>
@@ -12187,7 +13245,7 @@
         <v>1037916.597259971</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>48.1</v>
@@ -12226,7 +13284,7 @@
         <v>1037916.597259971</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>48.2</v>
@@ -12265,7 +13323,7 @@
         <v>1037317.180759971</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>48.2</v>
@@ -12304,7 +13362,7 @@
         <v>1037317.180759971</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>48.1</v>
@@ -12343,7 +13401,7 @@
         <v>1037356.413059971</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>48.1</v>
@@ -12382,9 +13440,11 @@
         <v>1036934.406659971</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>48.2</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -12419,9 +13479,11 @@
         <v>1036964.406659971</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -12456,9 +13518,11 @@
         <v>1036526.015859971</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>48.2</v>
+      </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -12493,9 +13557,11 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>48</v>
+      </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -12530,9 +13596,11 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -12567,7 +13635,7 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>48.1</v>
@@ -12606,9 +13674,11 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -12643,7 +13713,7 @@
         <v>1036132.667659971</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>48.1</v>
@@ -12682,9 +13752,11 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>48</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12719,9 +13791,11 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -12756,9 +13830,11 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -12793,9 +13869,11 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -12830,7 +13908,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>48.1</v>
@@ -12869,9 +13947,11 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -12906,7 +13986,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>48.1</v>
@@ -12945,7 +14025,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>48.1</v>
@@ -12984,7 +14064,7 @@
         <v>1055718.129659971</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>48.1</v>
@@ -13023,7 +14103,7 @@
         <v>1061688.129659971</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>48.3</v>
@@ -13062,7 +14142,7 @@
         <v>1104888.129659971</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>48.7</v>
@@ -13101,7 +14181,7 @@
         <v>1233076.696759971</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>48.9</v>
@@ -13140,7 +14220,7 @@
         <v>1233076.696759971</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>49</v>
@@ -13438,11 +14518,9 @@
         <v>1247536.611259971</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>49.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -13477,7 +14555,7 @@
         <v>1247536.611259971</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>49.7</v>
@@ -13553,7 +14631,7 @@
         <v>1259922.888559971</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>48.9</v>
@@ -13592,9 +14670,11 @@
         <v>1258144.755459971</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>49</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13629,9 +14709,11 @@
         <v>1258144.755459971</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -13666,9 +14748,11 @@
         <v>1258144.755459971</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -14073,9 +15157,11 @@
         <v>1232223.408359971</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>48.8</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -14184,9 +15270,11 @@
         <v>1254000.483559971</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -14221,9 +15309,11 @@
         <v>1253381.251259971</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>49.1</v>
+      </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -14295,9 +15385,11 @@
         <v>1252815.876559971</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>49.1</v>
+      </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -14369,9 +15461,11 @@
         <v>1252815.876559971</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>48.9</v>
+      </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -14443,9 +15537,11 @@
         <v>1275742.355159971</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>49.1</v>
+      </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -14480,9 +15576,11 @@
         <v>1275742.355159971</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>49</v>
+      </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -14517,9 +15615,11 @@
         <v>1275742.355159971</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>49</v>
+      </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -14554,9 +15654,11 @@
         <v>1275742.355159971</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>49</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -14591,9 +15693,11 @@
         <v>1270936.306959971</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>49</v>
+      </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -14739,9 +15843,11 @@
         <v>1313209.449259971</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>48.8</v>
+      </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14776,9 +15882,11 @@
         <v>1313219.449259971</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>49</v>
+      </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -16367,7 +17475,7 @@
         <v>1846775.899482891</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16404,7 +17512,7 @@
         <v>2163789.987617571</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16441,7 +17549,7 @@
         <v>2065566.469717571</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16478,7 +17586,7 @@
         <v>2065566.469717571</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16515,7 +17623,7 @@
         <v>2068766.469717571</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16552,7 +17660,7 @@
         <v>2061274.469717571</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16700,7 +17808,7 @@
         <v>2061060.575417571</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16996,7 +18104,7 @@
         <v>2069119.240400441</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17144,7 +18252,7 @@
         <v>2035390.541800441</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17292,7 +18400,7 @@
         <v>2035596.117900441</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18069,16 +19177,18 @@
         <v>2315875.296875531</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L496" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L496" t="n">
+        <v>1</v>
+      </c>
       <c r="M496" t="inlineStr"/>
     </row>
     <row r="497">
@@ -18104,11 +19214,15 @@
         <v>2453608.899653851</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18137,11 +19251,15 @@
         <v>2376035.377853851</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18170,11 +19288,15 @@
         <v>2376035.377853851</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18203,11 +19325,15 @@
         <v>2485901.114453851</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18236,11 +19362,15 @@
         <v>2445530.614453851</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18269,11 +19399,15 @@
         <v>2458140.614453851</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18302,11 +19436,15 @@
         <v>2495870.710453851</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18335,11 +19473,15 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18368,11 +19510,15 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18401,14 +19547,16 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="n">
-        <v>1</v>
-      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="inlineStr"/>
     </row>
     <row r="507">
@@ -18434,7 +19582,7 @@
         <v>2450756.951153851</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18467,7 +19615,7 @@
         <v>2445647.10175385</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18500,7 +19648,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18533,7 +19681,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18566,7 +19714,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18599,7 +19747,7 @@
         <v>2450123.17745385</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18632,7 +19780,7 @@
         <v>2450135.17745385</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18665,7 +19813,7 @@
         <v>2427939.460253851</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18698,7 +19846,7 @@
         <v>2428148.755453851</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18731,7 +19879,7 @@
         <v>2428148.755453851</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18764,7 +19912,7 @@
         <v>2316017.313853851</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18797,7 +19945,7 @@
         <v>2326497.669553851</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18830,7 +19978,7 @@
         <v>2326507.669553851</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18863,7 +20011,7 @@
         <v>2360384.787853851</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18896,7 +20044,7 @@
         <v>2360384.787853851</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18929,7 +20077,7 @@
         <v>2355702.505253851</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18962,7 +20110,7 @@
         <v>2393812.605953851</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18995,7 +20143,7 @@
         <v>2384169.605953851</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19853,7 +21001,7 @@
         <v>2212915.982153852</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19886,7 +21034,7 @@
         <v>2212925.982153852</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19952,7 +21100,7 @@
         <v>2193701.822253852</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19985,7 +21133,7 @@
         <v>2204245.977453852</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20018,7 +21166,7 @@
         <v>2204245.977453852</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20051,7 +21199,7 @@
         <v>2192925.777753851</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20084,7 +21232,7 @@
         <v>2192925.777753851</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20117,7 +21265,7 @@
         <v>2172638.823853851</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20150,7 +21298,7 @@
         <v>2172638.823853851</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20183,7 +21331,7 @@
         <v>2154699.317453851</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20216,7 +21364,7 @@
         <v>2155386.993953852</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20249,7 +21397,7 @@
         <v>2156979.326853851</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20282,7 +21430,7 @@
         <v>2156979.326853851</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20315,7 +21463,7 @@
         <v>2157644.617753851</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20348,7 +21496,7 @@
         <v>2167616.549253851</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21074,7 +22222,7 @@
         <v>2343464.733314681</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21107,7 +22255,7 @@
         <v>2349588.009814681</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21140,7 +22288,7 @@
         <v>2319588.009814681</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21173,7 +22321,7 @@
         <v>2335677.430114681</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21206,7 +22354,7 @@
         <v>2335688.430114681</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21239,7 +22387,7 @@
         <v>2337594.430114681</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21272,7 +22420,7 @@
         <v>2322819.925514681</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21305,7 +22453,7 @@
         <v>2322809.850814681</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21338,7 +22486,7 @@
         <v>2322820.850814681</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21371,7 +22519,7 @@
         <v>2350861.505857641</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21404,7 +22552,7 @@
         <v>2349507.916557641</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21437,7 +22585,7 @@
         <v>2349797.916557641</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21470,7 +22618,7 @@
         <v>2341915.329757641</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21503,7 +22651,7 @@
         <v>2341915.329757641</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21536,7 +22684,7 @@
         <v>2327265.679857641</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21569,7 +22717,7 @@
         <v>2327232.59855764</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21602,7 +22750,7 @@
         <v>2327521.63285764</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21635,7 +22783,7 @@
         <v>2308192.78515764</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21668,7 +22816,7 @@
         <v>2269171.45605764</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21701,7 +22849,7 @@
         <v>2269171.45605764</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21734,7 +22882,7 @@
         <v>2295301.53325764</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21767,7 +22915,7 @@
         <v>2300541.35945764</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21800,7 +22948,7 @@
         <v>2287337.29815764</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21833,7 +22981,7 @@
         <v>2287337.29815764</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21866,7 +23014,7 @@
         <v>2329386.19985764</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21899,7 +23047,7 @@
         <v>2326095.92405764</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21932,7 +23080,7 @@
         <v>2308033.12175764</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21965,7 +23113,7 @@
         <v>2310315.00825764</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21998,7 +23146,7 @@
         <v>2293025.10655764</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22031,7 +23179,7 @@
         <v>2293025.10655764</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22064,7 +23212,7 @@
         <v>2281644.33215764</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22097,7 +23245,7 @@
         <v>2281716.72895764</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22130,7 +23278,7 @@
         <v>2240577.713557641</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22163,7 +23311,7 @@
         <v>2240577.713557641</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22196,7 +23344,7 @@
         <v>2240577.713557641</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22229,7 +23377,7 @@
         <v>2247813.331857641</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22262,7 +23410,7 @@
         <v>2240896.139057641</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22295,7 +23443,7 @@
         <v>2286647.453157641</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22328,7 +23476,7 @@
         <v>2264847.453157641</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22361,7 +23509,7 @@
         <v>2264847.453157641</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22394,7 +23542,7 @@
         <v>2264847.453157641</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22427,7 +23575,7 @@
         <v>2255288.646857641</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22460,7 +23608,7 @@
         <v>2255288.646857641</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22493,7 +23641,7 @@
         <v>2255288.646857641</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -25573,6 +26721,6 @@
       <c r="M723" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest XEM.xlsx
+++ b/BackTest/2019-10-18 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>808665.0659604999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>756623.8331604999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>774488.4512604999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>774488.4512604999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>50.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>50.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>50.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>50.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>825394.6852604998</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>50.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,15 +715,11 @@
         <v>847821.6989604998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -794,15 +748,11 @@
         <v>819866.6989604998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -831,15 +781,11 @@
         <v>819866.6989604998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -868,15 +814,11 @@
         <v>891893.8090604999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -905,15 +847,11 @@
         <v>781515.0223604999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -942,15 +880,11 @@
         <v>690258.9996605</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -979,15 +913,11 @@
         <v>662601.8434605</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1016,15 +946,11 @@
         <v>662601.8434605</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1053,15 +979,11 @@
         <v>646850.5204605</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1090,15 +1012,11 @@
         <v>631354.1024605001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1127,15 +1045,11 @@
         <v>626504.7430605001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1164,15 +1078,11 @@
         <v>725441.6235605001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1205,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,17 +1144,11 @@
         <v>645502.1308605</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>48.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1277,17 +1177,11 @@
         <v>656077.6349605001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>48.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1316,17 +1210,11 @@
         <v>625070.8045605001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>49.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1355,17 +1243,11 @@
         <v>625070.8045605001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1398,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1435,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1472,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1509,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1546,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1583,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1620,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1657,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1694,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1731,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1768,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1805,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1842,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1879,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1912,17 +1738,11 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>48.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1951,17 +1771,11 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>47.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1990,17 +1804,11 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>47.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2029,17 +1837,11 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>47.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2068,17 +1870,11 @@
         <v>498673.3526605</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>47.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2107,17 +1903,11 @@
         <v>498673.3526605</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>48.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2146,17 +1936,11 @@
         <v>490158.9895605</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>48.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2190,12 +1974,10 @@
       <c r="I48" t="n">
         <v>48</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="n">
+        <v>48</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2229,10 +2011,12 @@
       <c r="I49" t="n">
         <v>48.1</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>48</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2263,15 +2047,15 @@
         <v>605774.3650605</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>48</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2302,12 +2086,12 @@
         <v>528459.7738605</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>48</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>48</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2346,7 +2130,9 @@
       <c r="I52" t="n">
         <v>47.9</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>48</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2385,7 +2171,9 @@
       <c r="I53" t="n">
         <v>48</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>48</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2424,7 +2212,9 @@
       <c r="I54" t="n">
         <v>48</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>48</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2463,7 +2253,9 @@
       <c r="I55" t="n">
         <v>48.5</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>48</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2502,7 +2294,9 @@
       <c r="I56" t="n">
         <v>48.4</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>48</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2541,7 +2335,9 @@
       <c r="I57" t="n">
         <v>48.5</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>48</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2580,7 +2376,9 @@
       <c r="I58" t="n">
         <v>48.6</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>48</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2614,12 +2412,12 @@
         <v>611299.6917605</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>48</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2653,12 +2451,12 @@
         <v>657493.35568907</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>48</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2695,7 +2493,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>48</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2732,7 +2532,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>48</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2769,7 +2571,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>48</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2806,7 +2610,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>48</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2843,7 +2649,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>48</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2880,7 +2688,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>48</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2917,7 +2727,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>48</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2954,7 +2766,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>48</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2991,7 +2805,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>48</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,7 +2844,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>48</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3065,7 +2883,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>48</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3102,7 +2922,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>48</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3139,7 +2961,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>48</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3176,7 +3000,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>48</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3213,7 +3039,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>48</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3250,7 +3078,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>48</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3287,7 +3117,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>48</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,7 +3156,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>48</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3361,7 +3195,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>48</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3398,7 +3234,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>48</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3435,7 +3273,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>48</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,7 +3312,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>48</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3509,7 +3351,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>48</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3546,7 +3390,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>48</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3583,7 +3429,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>48</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,7 +3468,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>48</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3657,7 +3507,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>48</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3694,7 +3546,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>48</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3731,7 +3585,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>48</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3765,12 +3621,12 @@
         <v>978157.6488680904</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>48</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,12 +3660,12 @@
         <v>978157.6488680904</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>49</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>48</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3843,12 +3699,12 @@
         <v>832970.8355680903</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>49</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>48</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3882,12 +3738,12 @@
         <v>833689.6518680903</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>48</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3921,12 +3777,12 @@
         <v>806341.3901680902</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>49</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>48</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3960,12 +3816,12 @@
         <v>806989.2179680902</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>48</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3999,12 +3855,12 @@
         <v>802415.1933383202</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>48</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4038,12 +3894,12 @@
         <v>794426.0689383203</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>48</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,12 +3933,12 @@
         <v>783553.8873383203</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>48</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,12 +3972,12 @@
         <v>784704.0048383203</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>48</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4155,12 +4011,12 @@
         <v>785732.0048383203</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>48</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,12 +4050,12 @@
         <v>783532.0048383203</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,12 +4089,12 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>48</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4272,12 +4128,12 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>48</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4311,12 +4167,12 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>48</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4350,12 +4206,12 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>48</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4389,12 +4245,12 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>48</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4428,12 +4284,12 @@
         <v>769482.4643383203</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>48</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4467,12 +4323,12 @@
         <v>785946.2950383204</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>48</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4506,12 +4362,12 @@
         <v>784648.9177383203</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>48</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4545,12 +4401,12 @@
         <v>825326.9176383204</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>48</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4584,12 +4440,12 @@
         <v>825326.9176383204</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>48</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4623,12 +4479,12 @@
         <v>836726.9176383204</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>48</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4665,7 +4521,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>48</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,7 +4560,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>48</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4739,7 +4599,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>48</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4776,7 +4638,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>48</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,7 +4677,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>48</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,7 +4716,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>48</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4887,7 +4755,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>48</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4924,7 +4794,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>48</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4961,7 +4833,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>48</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4998,7 +4872,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>48</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5035,7 +4911,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>48</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,7 +4950,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>48</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5109,7 +4989,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>48</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5146,7 +5028,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>48</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5183,7 +5067,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>48</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5220,7 +5106,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>48</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5257,7 +5145,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>48</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5294,7 +5184,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>48</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5331,7 +5223,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>48</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5368,7 +5262,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>48</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5405,7 +5301,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>48</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5442,7 +5340,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>48</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5479,7 +5379,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>48</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5516,7 +5418,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>48</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5553,7 +5457,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>48</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,7 +5496,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>48</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5627,7 +5535,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>48</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5664,7 +5574,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>48</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5701,7 +5613,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>48</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,7 +5652,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>48</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,7 +5691,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>48</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,7 +5730,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>48</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5849,7 +5769,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>48</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,7 +5808,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>48</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5923,7 +5847,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>48</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,7 +5886,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>48</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,7 +5925,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>48</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,7 +5964,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>48</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,7 +6003,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>48</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6108,7 +6042,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>48</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6145,7 +6081,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>48</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6179,12 +6117,12 @@
         <v>1271704.19856267</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>48</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6218,12 +6156,12 @@
         <v>1274861.922062671</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>48</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6260,7 +6198,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>48</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6297,7 +6237,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>48</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6334,7 +6276,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>48</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6368,12 +6312,12 @@
         <v>1280703.454562671</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>48</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6407,12 +6351,12 @@
         <v>1275212.205762671</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>48</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6446,12 +6390,12 @@
         <v>1231600.674462671</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>48</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6485,12 +6429,12 @@
         <v>1231600.674462671</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>48</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6524,12 +6468,12 @@
         <v>1231749.875282541</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>48</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6563,12 +6507,12 @@
         <v>1214029.642082541</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>48</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6602,12 +6546,12 @@
         <v>1216729.968382541</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>48</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6644,7 +6588,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>48</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6678,12 +6624,12 @@
         <v>1212557.901082541</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>48</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6717,12 +6663,12 @@
         <v>1212557.901082541</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>48</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6756,12 +6702,12 @@
         <v>1199510.068582541</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>48</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6795,12 +6741,12 @@
         <v>1199510.068582541</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>48</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6834,12 +6780,12 @@
         <v>1208592.333582541</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>48</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6873,12 +6819,12 @@
         <v>1208592.333582541</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>48</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6915,7 +6861,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>48</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6952,7 +6900,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>48</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6989,7 +6939,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>48</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7026,7 +6978,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>48</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7063,7 +7017,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>48</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7100,7 +7056,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>48</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7137,7 +7095,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>48</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7174,7 +7134,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>48</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7211,7 +7173,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>48</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7248,7 +7212,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>48</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7285,7 +7251,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>48</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7322,7 +7290,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>48</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7359,7 +7329,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>48</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7396,7 +7368,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>48</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7433,7 +7407,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>48</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7470,7 +7446,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>48</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7507,7 +7485,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>48</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7544,7 +7524,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>48</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7581,7 +7563,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>48</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7618,7 +7602,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>48</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7655,7 +7641,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>48</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7692,7 +7680,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>48</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7729,7 +7719,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>48</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7766,7 +7758,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>48</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7803,7 +7797,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>48</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7840,7 +7836,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>48</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7877,7 +7875,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>48</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7914,7 +7914,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>48</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7951,7 +7953,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>48</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7988,7 +7992,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>48</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8025,7 +8031,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>48</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8062,7 +8070,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>48</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8099,7 +8109,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>48</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8133,12 +8145,12 @@
         <v>1080486.459082541</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>48</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8175,7 +8187,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>48</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8209,12 +8223,12 @@
         <v>1082211.907182541</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>48</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>48</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8248,12 +8262,12 @@
         <v>1073785.432282541</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>48</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8287,12 +8301,12 @@
         <v>1073785.432282541</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>48</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>48</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8326,12 +8340,12 @@
         <v>1073785.432282541</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>48</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>48</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8365,12 +8379,12 @@
         <v>1068444.312782541</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>48</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>48</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8404,12 +8418,12 @@
         <v>1069847.177182541</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>48</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8443,12 +8457,12 @@
         <v>1079644.434282541</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>48</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8482,12 +8496,12 @@
         <v>1078887.680982541</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>48</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8521,12 +8535,12 @@
         <v>1081609.134582541</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>48</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8560,12 +8574,12 @@
         <v>1079845.789582541</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>48</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8599,12 +8613,12 @@
         <v>1079845.789582541</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>48</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8638,12 +8652,12 @@
         <v>1183633.958082541</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>48</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8677,12 +8691,12 @@
         <v>1200697.885082541</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>48</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8716,12 +8730,12 @@
         <v>1200697.885082541</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>48</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>48</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,12 +8769,12 @@
         <v>1200697.885082541</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>48</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>48</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8794,12 +8808,12 @@
         <v>1201308.014382541</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>48</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>48</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8836,7 +8850,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>48</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8873,7 +8889,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>48</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8910,7 +8928,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>48</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8944,12 +8964,12 @@
         <v>1209613.337682541</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>48</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8983,12 +9003,12 @@
         <v>1206193.903182541</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>48</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>48</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9022,12 +9042,12 @@
         <v>1206193.903182541</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>48</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9061,12 +9081,12 @@
         <v>1206234.715682541</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>48</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9100,12 +9120,12 @@
         <v>1206234.715682541</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>48</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>48</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9139,12 +9159,12 @@
         <v>1206234.715682541</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>48</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>48</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9178,12 +9198,12 @@
         <v>1206100.809082541</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>48</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>48</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9217,12 +9237,12 @@
         <v>1206429.376682541</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>48</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9256,12 +9276,12 @@
         <v>1206429.376682541</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>48</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>48</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9298,7 +9318,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>48</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9335,7 +9357,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>48</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9372,7 +9396,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>48</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9406,12 +9432,12 @@
         <v>1206897.488182541</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>48</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9445,12 +9471,12 @@
         <v>1206897.488182541</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>48</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>48</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9484,12 +9510,12 @@
         <v>1209827.764582541</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>48</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>48</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,12 +9549,12 @@
         <v>1209938.884782541</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>48</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9562,12 +9588,12 @@
         <v>1209938.884782541</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>48</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9604,7 +9630,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>48</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9641,7 +9669,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>48</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9678,7 +9708,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>48</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9715,7 +9747,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>48</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9752,7 +9786,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>48</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9789,7 +9825,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>48</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9826,7 +9864,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>48</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9863,7 +9903,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>48</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9900,7 +9942,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>48</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9937,7 +9981,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>48</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9974,7 +10020,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>48</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10008,12 +10056,12 @@
         <v>1220602.509382541</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>48</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10047,12 +10095,12 @@
         <v>1194075.552882541</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>48</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10086,12 +10134,12 @@
         <v>1192640.78358254</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>48</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10125,12 +10173,12 @@
         <v>1201555.15915997</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>48</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>48</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10164,12 +10212,12 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>48</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10203,12 +10251,12 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>48</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10242,12 +10290,12 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>48</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10281,12 +10329,12 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>48</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10320,12 +10368,12 @@
         <v>1216943.459959971</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>48</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10359,12 +10407,12 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>48</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10398,12 +10446,12 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>48</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>48</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10437,12 +10485,12 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>48</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>48</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10476,12 +10524,12 @@
         <v>1140232.159459971</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>48</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>48</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10515,12 +10563,12 @@
         <v>1140232.159459971</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>48</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10554,12 +10602,12 @@
         <v>1146846.313459971</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>48</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10593,12 +10641,12 @@
         <v>1140601.382059971</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>48</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10632,12 +10680,12 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>48</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10671,12 +10719,12 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>48</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10710,12 +10758,12 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>48</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10749,12 +10797,12 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>48</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10788,12 +10836,12 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>48</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10827,12 +10875,12 @@
         <v>1142693.338859971</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>48</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10866,12 +10914,12 @@
         <v>1109792.555759971</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>48</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>48</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10905,12 +10953,12 @@
         <v>1110071.534859971</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>48</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10944,12 +10992,12 @@
         <v>1110071.534859971</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>48</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>48</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10983,12 +11031,12 @@
         <v>1109522.192559971</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>48</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>48</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11022,12 +11070,12 @@
         <v>1109522.192559971</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>48</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11061,12 +11109,12 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>48</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11100,12 +11148,12 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>48</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>48</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11139,12 +11187,12 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>48</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>48</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11178,12 +11226,12 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>48</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>48</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11217,12 +11265,12 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>48</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>48</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11256,12 +11304,12 @@
         <v>1095934.845559971</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>48</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>48</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11295,12 +11343,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>48</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11334,12 +11382,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>48</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>48</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11373,12 +11421,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>48</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>48</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11412,12 +11460,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>48</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>48</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11451,12 +11499,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>48</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>48</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11490,12 +11538,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>48</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>48</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11529,12 +11577,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>48</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>48</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11568,12 +11616,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>48</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>48</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11607,12 +11655,12 @@
         <v>1094364.703159971</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>48</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>48</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11646,12 +11694,12 @@
         <v>1095279.024959971</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>48</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11685,12 +11733,12 @@
         <v>1094279.024959971</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>48</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>48</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11724,12 +11772,12 @@
         <v>1094510.024959971</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>48</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11763,12 +11811,12 @@
         <v>1094510.024959971</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>48</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>48</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11802,12 +11850,12 @@
         <v>1041727.138359971</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>48</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>48</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11841,12 +11889,12 @@
         <v>1071248.103259971</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>48</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11880,12 +11928,12 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>48</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11919,12 +11967,12 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>48</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11958,12 +12006,12 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>48</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11997,12 +12045,12 @@
         <v>1084681.103259971</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>48</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12036,12 +12084,12 @@
         <v>1069713.590859971</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>48</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>48</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12075,12 +12123,12 @@
         <v>1069713.590859971</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>48</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12114,12 +12162,12 @@
         <v>1069808.153359971</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>48</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12153,12 +12201,12 @@
         <v>1068888.153359971</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>48</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>48</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12192,12 +12240,12 @@
         <v>1067683.153359971</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>48</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12231,12 +12279,12 @@
         <v>1067683.153359971</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>48</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12270,12 +12318,12 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>48</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12309,12 +12357,12 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>48</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12348,12 +12396,12 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>48</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12387,12 +12435,12 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>48</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12426,12 +12474,12 @@
         <v>1095524.740459971</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>48</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12465,12 +12513,12 @@
         <v>1086170.761559971</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>48</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>48</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12504,12 +12552,12 @@
         <v>1086170.761559971</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>48</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12543,12 +12591,12 @@
         <v>1098350.349359971</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>48</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12582,12 +12630,12 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>48</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12621,12 +12669,12 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>48</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>48</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12660,12 +12708,12 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>48</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>48</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12699,12 +12747,12 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>48</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>48</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12738,12 +12786,12 @@
         <v>1100967.020859971</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>48</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>48</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12777,12 +12825,12 @@
         <v>1099238.049359971</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>48</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12816,12 +12864,12 @@
         <v>1099238.049359971</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>48</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>48</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12855,12 +12903,12 @@
         <v>1099025.353459971</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>48</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>48</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12894,12 +12942,12 @@
         <v>1099025.353459971</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>48</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12933,12 +12981,12 @@
         <v>1103070.097459971</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>48</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12972,12 +13020,12 @@
         <v>1103070.097459971</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>48</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13011,12 +13059,12 @@
         <v>1103479.790359971</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>48</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13050,12 +13098,12 @@
         <v>1103479.790359971</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>48</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13089,12 +13137,12 @@
         <v>1079279.790359971</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>48</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13128,12 +13176,12 @@
         <v>1079626.798559971</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>48</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13167,12 +13215,12 @@
         <v>1079626.798559971</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>48</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13206,12 +13254,12 @@
         <v>1037443.530959971</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>48</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13245,12 +13293,12 @@
         <v>1037916.597259971</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>48</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13284,12 +13332,12 @@
         <v>1037916.597259971</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>48</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13323,12 +13371,12 @@
         <v>1037317.180759971</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>48</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13362,12 +13410,12 @@
         <v>1037317.180759971</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>48</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13401,12 +13449,12 @@
         <v>1037356.413059971</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>48</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13440,12 +13488,12 @@
         <v>1036934.406659971</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>48</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13479,12 +13527,12 @@
         <v>1036964.406659971</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>48</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13518,12 +13566,12 @@
         <v>1036526.015859971</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>48</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13557,12 +13605,12 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>48</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>48</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13596,12 +13644,12 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>48</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13635,12 +13683,12 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>48</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13674,12 +13722,12 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>48</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13713,12 +13761,12 @@
         <v>1036132.667659971</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>48</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13752,12 +13800,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>48</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>48</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13791,12 +13839,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>48</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13830,12 +13878,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>48</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13869,12 +13917,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>48</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13908,12 +13956,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>48</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13947,12 +13995,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>48</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13986,12 +14034,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>48</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14025,12 +14073,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>48</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14064,12 +14112,12 @@
         <v>1055718.129659971</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>48</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14103,12 +14151,12 @@
         <v>1061688.129659971</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>48</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14142,12 +14190,12 @@
         <v>1104888.129659971</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>48</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14181,12 +14229,12 @@
         <v>1233076.696759971</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>48</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14220,12 +14268,12 @@
         <v>1233076.696759971</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>49</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>48</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14262,7 +14310,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>48</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14299,7 +14349,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>48</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14336,7 +14388,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>48</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14373,7 +14427,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>48</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14410,7 +14466,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>48</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14447,7 +14505,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>48</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14484,7 +14544,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>48</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14521,7 +14583,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>48</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14555,12 +14619,12 @@
         <v>1247536.611259971</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>48</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14597,7 +14661,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>48</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14631,12 +14697,12 @@
         <v>1259922.888559971</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J374" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>48</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14670,12 +14736,12 @@
         <v>1258144.755459971</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>49</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>48</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14709,12 +14775,12 @@
         <v>1258144.755459971</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>48</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14748,12 +14814,12 @@
         <v>1258144.755459971</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>48</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14790,7 +14856,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>48</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14827,7 +14895,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>48</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14864,7 +14934,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>48</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14901,7 +14973,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>48</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14938,7 +15012,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>48</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14975,7 +15051,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>48</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15012,7 +15090,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>48</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15049,7 +15129,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>48</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15086,7 +15168,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>48</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15123,7 +15207,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>48</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15157,12 +15243,12 @@
         <v>1232223.408359971</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="J388" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>48</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15199,7 +15285,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>48</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15236,7 +15324,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>48</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15270,12 +15360,12 @@
         <v>1254000.483559971</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J391" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>48</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15309,12 +15399,12 @@
         <v>1253381.251259971</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="J392" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>48</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15351,7 +15441,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>48</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15385,12 +15477,12 @@
         <v>1252815.876559971</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="J394" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>48</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15427,7 +15519,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>48</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15461,12 +15555,12 @@
         <v>1252815.876559971</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J396" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>48</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15503,7 +15597,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>48</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15537,12 +15633,12 @@
         <v>1275742.355159971</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="J398" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>48</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15576,12 +15672,12 @@
         <v>1275742.355159971</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>49</v>
-      </c>
-      <c r="J399" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>48</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15615,12 +15711,12 @@
         <v>1275742.355159971</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>49</v>
-      </c>
-      <c r="J400" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>48</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15654,12 +15750,12 @@
         <v>1275742.355159971</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>49</v>
-      </c>
-      <c r="J401" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>48</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15693,12 +15789,12 @@
         <v>1270936.306959971</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>49</v>
-      </c>
-      <c r="J402" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>48</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15735,7 +15831,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>48</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15772,7 +15870,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>48</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15809,7 +15909,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>48</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15843,12 +15945,12 @@
         <v>1313209.449259971</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="J406" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>48</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15882,12 +15984,12 @@
         <v>1313219.449259971</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>49</v>
-      </c>
-      <c r="J407" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>48</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15924,7 +16026,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>48</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15961,7 +16065,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>48</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15998,7 +16104,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>48</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16035,7 +16143,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>48</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16072,7 +16182,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>48</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16109,7 +16221,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>48</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16146,7 +16260,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>48</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16183,7 +16299,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>48</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16220,7 +16338,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>48</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16257,7 +16377,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>48</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16294,7 +16416,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>48</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16331,7 +16455,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>48</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16368,7 +16494,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>48</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16405,7 +16533,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>48</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16442,7 +16572,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>48</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16479,7 +16611,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>48</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16516,7 +16650,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>48</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16553,7 +16689,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>48</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16590,7 +16728,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>48</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16627,7 +16767,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>48</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16664,7 +16806,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>48</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16701,7 +16845,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>48</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16738,7 +16884,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>48</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16775,7 +16923,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>48</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16812,7 +16962,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>48</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16849,7 +17001,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>48</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16886,7 +17040,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>48</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16923,7 +17079,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>48</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16960,7 +17118,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>48</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16997,7 +17157,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>48</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17034,7 +17196,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>48</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17071,7 +17235,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>48</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17108,7 +17274,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>48</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17145,7 +17313,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>48</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17182,7 +17352,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>48</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17219,7 +17391,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>48</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17256,7 +17430,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>48</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17293,7 +17469,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>48</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17330,7 +17508,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>48</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17367,7 +17547,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>48</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17401,19 +17583,23 @@
         <v>1838887.759882891</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>48</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
+        <v>1.0575</v>
+      </c>
+      <c r="M448" t="n">
+        <v>1.069182389937107</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -17438,15 +17624,11 @@
         <v>1846775.899482891</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17475,15 +17657,11 @@
         <v>1846775.899482891</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17512,15 +17690,11 @@
         <v>2163789.987617571</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17549,15 +17723,11 @@
         <v>2065566.469717571</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17586,15 +17756,11 @@
         <v>2065566.469717571</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17623,15 +17789,11 @@
         <v>2068766.469717571</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17664,11 +17826,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17701,11 +17859,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17738,11 +17892,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17775,11 +17925,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17812,11 +17958,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17845,15 +17987,11 @@
         <v>2061060.575417571</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17882,15 +18020,11 @@
         <v>2152013.863700441</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17919,15 +18053,11 @@
         <v>1999561.229600441</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17956,15 +18086,11 @@
         <v>2069696.268800441</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17997,11 +18123,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18034,11 +18156,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18071,11 +18189,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18108,11 +18222,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18145,11 +18255,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18178,15 +18284,11 @@
         <v>2069119.240400441</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18215,15 +18317,11 @@
         <v>2124181.905200441</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18252,15 +18350,11 @@
         <v>2035390.541800441</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18289,15 +18383,11 @@
         <v>2035703.367800441</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18326,15 +18416,11 @@
         <v>2035703.367800441</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18367,11 +18453,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18404,11 +18486,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18441,11 +18519,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18478,11 +18552,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18515,11 +18585,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18552,11 +18618,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18589,11 +18651,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18626,11 +18684,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18663,11 +18717,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18700,11 +18750,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18737,11 +18783,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18774,11 +18816,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18811,11 +18849,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18848,11 +18882,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18885,11 +18915,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18922,11 +18948,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18959,11 +18981,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18996,11 +19014,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19033,11 +19047,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19070,11 +19080,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19107,11 +19113,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19144,11 +19146,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19181,11 +19179,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19218,11 +19212,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19255,11 +19245,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19292,11 +19278,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19329,11 +19311,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19366,11 +19344,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19403,11 +19377,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19440,11 +19410,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19477,11 +19443,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19514,11 +19476,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19547,16 +19505,14 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
+      <c r="L506" t="n">
+        <v>1</v>
+      </c>
       <c r="M506" t="inlineStr"/>
     </row>
     <row r="507">
@@ -19582,7 +19538,7 @@
         <v>2450756.951153851</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19648,7 +19604,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19681,7 +19637,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19714,7 +19670,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19747,7 +19703,7 @@
         <v>2450123.17745385</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19780,7 +19736,7 @@
         <v>2450135.17745385</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19813,7 +19769,7 @@
         <v>2427939.460253851</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19846,7 +19802,7 @@
         <v>2428148.755453851</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19879,7 +19835,7 @@
         <v>2428148.755453851</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19912,7 +19868,7 @@
         <v>2316017.313853851</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19945,7 +19901,7 @@
         <v>2326497.669553851</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19978,7 +19934,7 @@
         <v>2326507.669553851</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20011,7 +19967,7 @@
         <v>2360384.787853851</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20044,7 +20000,7 @@
         <v>2360384.787853851</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20077,7 +20033,7 @@
         <v>2355702.505253851</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20110,7 +20066,7 @@
         <v>2393812.605953851</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20143,7 +20099,7 @@
         <v>2384169.605953851</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -21001,7 +20957,7 @@
         <v>2212915.982153852</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21034,7 +20990,7 @@
         <v>2212925.982153852</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21100,7 +21056,7 @@
         <v>2193701.822253852</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21133,7 +21089,7 @@
         <v>2204245.977453852</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21166,7 +21122,7 @@
         <v>2204245.977453852</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21199,7 +21155,7 @@
         <v>2192925.777753851</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21232,7 +21188,7 @@
         <v>2192925.777753851</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21265,7 +21221,7 @@
         <v>2172638.823853851</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21298,7 +21254,7 @@
         <v>2172638.823853851</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21331,7 +21287,7 @@
         <v>2154699.317453851</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21364,7 +21320,7 @@
         <v>2155386.993953852</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21397,7 +21353,7 @@
         <v>2156979.326853851</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21430,7 +21386,7 @@
         <v>2156979.326853851</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21463,7 +21419,7 @@
         <v>2157644.617753851</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21496,7 +21452,7 @@
         <v>2167616.549253851</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -22222,7 +22178,7 @@
         <v>2343464.733314681</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22255,7 +22211,7 @@
         <v>2349588.009814681</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22288,7 +22244,7 @@
         <v>2319588.009814681</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22321,7 +22277,7 @@
         <v>2335677.430114681</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22354,7 +22310,7 @@
         <v>2335688.430114681</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22387,7 +22343,7 @@
         <v>2337594.430114681</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22420,7 +22376,7 @@
         <v>2322819.925514681</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22453,7 +22409,7 @@
         <v>2322809.850814681</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22486,7 +22442,7 @@
         <v>2322820.850814681</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22519,7 +22475,7 @@
         <v>2350861.505857641</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22552,7 +22508,7 @@
         <v>2349507.916557641</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22585,7 +22541,7 @@
         <v>2349797.916557641</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22618,7 +22574,7 @@
         <v>2341915.329757641</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22651,7 +22607,7 @@
         <v>2341915.329757641</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22684,7 +22640,7 @@
         <v>2327265.679857641</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22717,7 +22673,7 @@
         <v>2327232.59855764</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22750,7 +22706,7 @@
         <v>2327521.63285764</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22783,7 +22739,7 @@
         <v>2308192.78515764</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22816,7 +22772,7 @@
         <v>2269171.45605764</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22849,7 +22805,7 @@
         <v>2269171.45605764</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22882,7 +22838,7 @@
         <v>2295301.53325764</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22915,7 +22871,7 @@
         <v>2300541.35945764</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22948,7 +22904,7 @@
         <v>2287337.29815764</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22981,7 +22937,7 @@
         <v>2287337.29815764</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23014,7 +22970,7 @@
         <v>2329386.19985764</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -23080,7 +23036,7 @@
         <v>2308033.12175764</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23113,7 +23069,7 @@
         <v>2310315.00825764</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23146,7 +23102,7 @@
         <v>2293025.10655764</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23179,7 +23135,7 @@
         <v>2293025.10655764</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23212,7 +23168,7 @@
         <v>2281644.33215764</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23245,7 +23201,7 @@
         <v>2281716.72895764</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23278,7 +23234,7 @@
         <v>2240577.713557641</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23311,7 +23267,7 @@
         <v>2240577.713557641</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23344,7 +23300,7 @@
         <v>2240577.713557641</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23377,7 +23333,7 @@
         <v>2247813.331857641</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23410,7 +23366,7 @@
         <v>2240896.139057641</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23443,7 +23399,7 @@
         <v>2286647.453157641</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23476,7 +23432,7 @@
         <v>2264847.453157641</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23509,7 +23465,7 @@
         <v>2264847.453157641</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23542,7 +23498,7 @@
         <v>2264847.453157641</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23575,7 +23531,7 @@
         <v>2255288.646857641</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23608,7 +23564,7 @@
         <v>2255288.646857641</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23641,7 +23597,7 @@
         <v>2255288.646857641</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -26721,6 +26677,6 @@
       <c r="M723" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest XEM.xlsx
+++ b/BackTest/2019-10-18 BackTest XEM.xlsx
@@ -451,7 +451,7 @@
         <v>808665.0659604999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>756623.8331604999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>774488.4512604999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>774488.4512604999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>825394.6852604998</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>847821.6989604998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>819866.6989604998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>819866.6989604998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>891893.8090604999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>781515.0223604999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>690258.9996605</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>662601.8434605</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>662601.8434605</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>646850.5204605</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>631354.1024605001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>626504.7430605001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>725441.6235605001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1738,11 +1738,17 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>48.3</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1777,17 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1816,17 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1855,17 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1894,17 @@
         <v>498673.3526605</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1933,17 @@
         <v>498673.3526605</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1972,17 @@
         <v>490158.9895605</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>48.1</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1974,10 +2016,12 @@
       <c r="I48" t="n">
         <v>48</v>
       </c>
-      <c r="J48" t="n">
-        <v>48</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2011,12 +2055,10 @@
       <c r="I49" t="n">
         <v>48.1</v>
       </c>
-      <c r="J49" t="n">
-        <v>48</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2047,15 +2089,15 @@
         <v>605774.3650605</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2086,12 +2128,12 @@
         <v>528459.7738605</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
         <v>48</v>
       </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2130,9 +2172,7 @@
       <c r="I52" t="n">
         <v>47.9</v>
       </c>
-      <c r="J52" t="n">
-        <v>48</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2171,9 +2211,7 @@
       <c r="I53" t="n">
         <v>48</v>
       </c>
-      <c r="J53" t="n">
-        <v>48</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2212,9 +2250,7 @@
       <c r="I54" t="n">
         <v>48</v>
       </c>
-      <c r="J54" t="n">
-        <v>48</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2253,9 +2289,7 @@
       <c r="I55" t="n">
         <v>48.5</v>
       </c>
-      <c r="J55" t="n">
-        <v>48</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2294,9 +2328,7 @@
       <c r="I56" t="n">
         <v>48.4</v>
       </c>
-      <c r="J56" t="n">
-        <v>48</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2335,9 +2367,7 @@
       <c r="I57" t="n">
         <v>48.5</v>
       </c>
-      <c r="J57" t="n">
-        <v>48</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2376,9 +2406,7 @@
       <c r="I58" t="n">
         <v>48.6</v>
       </c>
-      <c r="J58" t="n">
-        <v>48</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2412,12 +2440,12 @@
         <v>611299.6917605</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2451,12 +2479,12 @@
         <v>657493.35568907</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2490,12 +2518,12 @@
         <v>647962.3332890699</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>49</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2529,12 +2557,12 @@
         <v>653056.24788907</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2568,12 +2596,12 @@
         <v>652097.08038907</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>49</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2607,12 +2635,12 @@
         <v>692706.8988605</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2646,12 +2674,12 @@
         <v>798271.16675286</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>49</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2685,12 +2713,12 @@
         <v>777054.45435286</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2727,9 +2755,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>48</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2763,12 +2789,12 @@
         <v>753152.49685286</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2805,9 +2831,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>48</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2844,9 +2868,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>48</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2883,9 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>48</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,9 +2942,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>48</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2961,9 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>48</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,9 +3016,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>48</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3039,9 +3053,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>48</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3075,12 +3087,12 @@
         <v>1129313.57005286</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,12 +3126,12 @@
         <v>1161463.81695286</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3153,12 +3165,12 @@
         <v>1143372.88925286</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3195,9 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>48</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3234,9 +3244,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>48</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3270,12 +3278,12 @@
         <v>988444.7493528601</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3309,12 +3317,12 @@
         <v>995003.7493528601</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3348,12 +3356,12 @@
         <v>1005155.70885286</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,9 +3398,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>48</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3429,9 +3435,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>48</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3468,9 +3472,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>48</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3507,9 +3509,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>48</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3546,9 +3546,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>48</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3585,9 +3583,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>48</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3624,9 +3620,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>48</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3663,9 +3657,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>48</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3699,12 +3691,12 @@
         <v>832970.8355680903</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>49</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3738,12 +3730,12 @@
         <v>833689.6518680903</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3777,12 +3769,12 @@
         <v>806341.3901680902</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>49</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3816,12 +3808,12 @@
         <v>806989.2179680902</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3855,12 +3847,12 @@
         <v>802415.1933383202</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3894,12 +3886,12 @@
         <v>794426.0689383203</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3933,12 +3925,12 @@
         <v>783553.8873383203</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3972,12 +3964,12 @@
         <v>784704.0048383203</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4011,12 +4003,12 @@
         <v>785732.0048383203</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4050,12 +4042,12 @@
         <v>783532.0048383203</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4092,9 +4084,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>48</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4128,12 +4118,12 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4167,12 +4157,12 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4206,12 +4196,12 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4245,12 +4235,12 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4284,12 +4274,12 @@
         <v>769482.4643383203</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4323,12 +4313,12 @@
         <v>785946.2950383204</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4362,12 +4352,12 @@
         <v>784648.9177383203</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4401,12 +4391,12 @@
         <v>825326.9176383204</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4443,9 +4433,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>48</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4482,9 +4470,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>48</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4521,9 +4507,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>48</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4560,9 +4544,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>48</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,9 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>48</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4638,9 +4618,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>48</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4677,9 +4655,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>48</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4716,9 +4692,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>48</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4755,9 +4729,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>48</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4794,9 +4766,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>48</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4833,9 +4803,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>48</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4872,9 +4840,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>48</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4911,9 +4877,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>48</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4950,9 +4914,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>48</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4989,9 +4951,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>48</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5028,9 +4988,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>48</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5067,9 +5025,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>48</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5106,9 +5062,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>48</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5145,9 +5099,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>48</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,9 +5136,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>48</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5223,9 +5173,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>48</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5262,9 +5210,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>48</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5301,9 +5247,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>48</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5340,9 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>48</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5379,9 +5321,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>48</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5418,9 +5358,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>48</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5457,9 +5395,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>48</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5496,9 +5432,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>48</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5535,9 +5469,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>48</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5574,9 +5506,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>48</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5613,9 +5543,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>48</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5652,9 +5580,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>48</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5691,9 +5617,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>48</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5730,9 +5654,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>48</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5769,9 +5691,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>48</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5808,9 +5728,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>48</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5847,9 +5765,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>48</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,9 +5802,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>48</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5925,9 +5839,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>48</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5964,9 +5876,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>48</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6003,9 +5913,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>48</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6042,9 +5950,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>48</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6081,9 +5987,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>48</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6120,9 +6024,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>48</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6159,9 +6061,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>48</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6198,9 +6098,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>48</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6237,9 +6135,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>48</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6276,9 +6172,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>48</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6315,9 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>48</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6354,9 +6246,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>48</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,9 +6283,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>48</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6432,9 +6320,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>48</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6471,9 +6357,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>48</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6510,9 +6394,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>48</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6549,9 +6431,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>48</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6588,9 +6468,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>48</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6627,9 +6505,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>48</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6666,9 +6542,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>48</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6705,9 +6579,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>48</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6744,9 +6616,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>48</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6783,9 +6653,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>48</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6822,9 +6690,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>48</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6861,9 +6727,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>48</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6900,9 +6764,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>48</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6939,9 +6801,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>48</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6978,9 +6838,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>48</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7017,9 +6875,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>48</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7056,9 +6912,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>48</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7095,9 +6949,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>48</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7134,9 +6986,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>48</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7173,9 +7023,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>48</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7212,9 +7060,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>48</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7251,9 +7097,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>48</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7290,9 +7134,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>48</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7329,9 +7171,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>48</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7368,9 +7208,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>48</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7407,9 +7245,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>48</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7446,9 +7282,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>48</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7485,9 +7319,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>48</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7524,9 +7356,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>48</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7563,9 +7393,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>48</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7602,9 +7430,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>48</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7641,9 +7467,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>48</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7680,9 +7504,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>48</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7719,9 +7541,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>48</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7758,9 +7578,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>48</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7797,9 +7615,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>48</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7836,9 +7652,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>48</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7875,9 +7689,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>48</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7914,9 +7726,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>48</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7953,9 +7763,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>48</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7992,9 +7800,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>48</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8031,9 +7837,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>48</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8070,9 +7874,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>48</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8109,9 +7911,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>48</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8148,9 +7948,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>48</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8187,9 +7985,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>48</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8226,9 +8022,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>48</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8265,9 +8059,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>48</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8304,9 +8096,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>48</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8343,9 +8133,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>48</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8382,9 +8170,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>48</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8421,9 +8207,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>48</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8460,9 +8244,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>48</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8499,9 +8281,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>48</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8538,9 +8318,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>48</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8577,9 +8355,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>48</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8616,9 +8392,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>48</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8655,9 +8429,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>48</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8694,9 +8466,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>48</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8733,9 +8503,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>48</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8772,9 +8540,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>48</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8811,9 +8577,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>48</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8850,9 +8614,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>48</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8889,9 +8651,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>48</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8928,9 +8688,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>48</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8967,9 +8725,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>48</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9006,9 +8762,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>48</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9045,9 +8799,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>48</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9084,9 +8836,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>48</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9123,9 +8873,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>48</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9162,9 +8910,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>48</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9201,9 +8947,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>48</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9240,9 +8984,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>48</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9279,9 +9021,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>48</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9318,9 +9058,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>48</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9357,9 +9095,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>48</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9396,9 +9132,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>48</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9435,9 +9169,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>48</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9474,9 +9206,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>48</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9513,9 +9243,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>48</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9552,9 +9280,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>48</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9591,9 +9317,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>48</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9630,9 +9354,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>48</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9669,9 +9391,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>48</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9708,9 +9428,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>48</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9747,9 +9465,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>48</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9786,9 +9502,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>48</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9825,9 +9539,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>48</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9864,9 +9576,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>48</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9903,9 +9613,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>48</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9942,9 +9650,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>48</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9981,9 +9687,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>48</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10020,9 +9724,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>48</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10059,9 +9761,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>48</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10098,9 +9798,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>48</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10137,9 +9835,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>48</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10173,12 +9869,12 @@
         <v>1201555.15915997</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
         <v>48</v>
       </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10212,12 +9908,12 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10251,12 +9947,12 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10290,12 +9986,12 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10329,12 +10025,12 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10368,12 +10064,12 @@
         <v>1216943.459959971</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10407,12 +10103,12 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10446,12 +10142,12 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
         <v>48</v>
       </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10485,12 +10181,12 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
         <v>48</v>
       </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10524,12 +10220,12 @@
         <v>1140232.159459971</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
         <v>48</v>
       </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10563,12 +10259,12 @@
         <v>1140232.159459971</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10602,12 +10298,12 @@
         <v>1146846.313459971</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10641,12 +10337,12 @@
         <v>1140601.382059971</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10680,12 +10376,12 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10719,12 +10415,12 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10758,12 +10454,12 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10797,12 +10493,12 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10836,12 +10532,12 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10875,12 +10571,12 @@
         <v>1142693.338859971</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10914,12 +10610,12 @@
         <v>1109792.555759971</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
         <v>48</v>
       </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10953,12 +10649,12 @@
         <v>1110071.534859971</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10992,12 +10688,12 @@
         <v>1110071.534859971</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
         <v>48</v>
       </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11031,12 +10727,12 @@
         <v>1109522.192559971</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
         <v>48</v>
       </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11070,12 +10766,12 @@
         <v>1109522.192559971</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11109,12 +10805,12 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11148,12 +10844,12 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
         <v>48</v>
       </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11187,12 +10883,12 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
         <v>48</v>
       </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11226,12 +10922,12 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
         <v>48</v>
       </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11265,12 +10961,12 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
         <v>48</v>
       </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11304,12 +11000,12 @@
         <v>1095934.845559971</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
         <v>48</v>
       </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11343,12 +11039,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11382,12 +11078,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
         <v>48</v>
       </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11421,12 +11117,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
         <v>48</v>
       </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11460,12 +11156,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
         <v>48</v>
       </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11499,12 +11195,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
         <v>48</v>
       </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11538,12 +11234,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
         <v>48</v>
       </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11577,12 +11273,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
         <v>48</v>
       </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11616,12 +11312,12 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
         <v>48</v>
       </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11655,12 +11351,12 @@
         <v>1094364.703159971</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
         <v>48</v>
       </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11694,12 +11390,12 @@
         <v>1095279.024959971</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11733,12 +11429,12 @@
         <v>1094279.024959971</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
         <v>48</v>
       </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11772,12 +11468,12 @@
         <v>1094510.024959971</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11811,12 +11507,12 @@
         <v>1094510.024959971</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
         <v>48</v>
       </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11850,12 +11546,12 @@
         <v>1041727.138359971</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
         <v>48</v>
       </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11889,12 +11585,12 @@
         <v>1071248.103259971</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11928,12 +11624,12 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11967,12 +11663,12 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12006,12 +11702,12 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12045,12 +11741,12 @@
         <v>1084681.103259971</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12084,12 +11780,12 @@
         <v>1069713.590859971</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
         <v>48</v>
       </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12123,12 +11819,12 @@
         <v>1069713.590859971</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12162,12 +11858,12 @@
         <v>1069808.153359971</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12201,12 +11897,12 @@
         <v>1068888.153359971</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
         <v>48</v>
       </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12240,12 +11936,12 @@
         <v>1067683.153359971</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12279,12 +11975,12 @@
         <v>1067683.153359971</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12318,12 +12014,12 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12357,12 +12053,12 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12396,12 +12092,12 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12435,12 +12131,12 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12474,12 +12170,12 @@
         <v>1095524.740459971</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12513,12 +12209,12 @@
         <v>1086170.761559971</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
         <v>48</v>
       </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12552,12 +12248,12 @@
         <v>1086170.761559971</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12591,12 +12287,12 @@
         <v>1098350.349359971</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12630,12 +12326,12 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12669,12 +12365,12 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
         <v>48</v>
       </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12708,12 +12404,12 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
         <v>48</v>
       </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12747,12 +12443,12 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
         <v>48</v>
       </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12786,12 +12482,12 @@
         <v>1100967.020859971</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
         <v>48</v>
       </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12825,12 +12521,12 @@
         <v>1099238.049359971</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12864,12 +12560,12 @@
         <v>1099238.049359971</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
         <v>48</v>
       </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12903,12 +12599,12 @@
         <v>1099025.353459971</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
         <v>48</v>
       </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12942,12 +12638,12 @@
         <v>1099025.353459971</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12981,12 +12677,12 @@
         <v>1103070.097459971</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13020,12 +12716,12 @@
         <v>1103070.097459971</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13059,12 +12755,12 @@
         <v>1103479.790359971</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13098,12 +12794,12 @@
         <v>1103479.790359971</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13137,12 +12833,12 @@
         <v>1079279.790359971</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13176,12 +12872,12 @@
         <v>1079626.798559971</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13215,12 +12911,12 @@
         <v>1079626.798559971</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13254,12 +12950,12 @@
         <v>1037443.530959971</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13293,12 +12989,12 @@
         <v>1037916.597259971</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13332,12 +13028,12 @@
         <v>1037916.597259971</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13371,12 +13067,12 @@
         <v>1037317.180759971</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13410,12 +13106,12 @@
         <v>1037317.180759971</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13449,12 +13145,12 @@
         <v>1037356.413059971</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13488,12 +13184,12 @@
         <v>1036934.406659971</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13527,12 +13223,12 @@
         <v>1036964.406659971</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13566,12 +13262,12 @@
         <v>1036526.015859971</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13605,12 +13301,12 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
         <v>48</v>
       </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13644,12 +13340,12 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13683,12 +13379,12 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13722,12 +13418,12 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13761,12 +13457,12 @@
         <v>1036132.667659971</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13800,12 +13496,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
         <v>48</v>
       </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13839,12 +13535,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13878,12 +13574,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13917,12 +13613,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13956,12 +13652,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13995,12 +13691,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14034,12 +13730,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14073,12 +13769,12 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14112,12 +13808,12 @@
         <v>1055718.129659971</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14151,12 +13847,12 @@
         <v>1061688.129659971</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14190,12 +13886,12 @@
         <v>1104888.129659971</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14229,12 +13925,12 @@
         <v>1233076.696759971</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14268,12 +13964,12 @@
         <v>1233076.696759971</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>49</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14310,9 +14006,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>48</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14349,9 +14043,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>48</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14388,9 +14080,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>48</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14427,9 +14117,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>48</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14466,9 +14154,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>48</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14505,9 +14191,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>48</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14544,9 +14228,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>48</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14583,9 +14265,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>48</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14622,9 +14302,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>48</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14661,9 +14339,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>48</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14700,9 +14376,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>48</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14739,9 +14413,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>48</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14778,9 +14450,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>48</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14817,9 +14487,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>48</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14856,9 +14524,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>48</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14895,9 +14561,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>48</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14934,9 +14598,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>48</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14973,9 +14635,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>48</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15012,9 +14672,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>48</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15051,9 +14709,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>48</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15090,9 +14746,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>48</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15129,9 +14783,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>48</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15168,9 +14820,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>48</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15207,9 +14857,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>48</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15246,9 +14894,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>48</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15285,9 +14931,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>48</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15324,9 +14968,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>48</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15363,9 +15005,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>48</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15402,9 +15042,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>48</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15441,9 +15079,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>48</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15480,9 +15116,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>48</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15519,9 +15153,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>48</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15558,9 +15190,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>48</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15597,9 +15227,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>48</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15636,9 +15264,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>48</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15675,9 +15301,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>48</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15714,9 +15338,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>48</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15753,9 +15375,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>48</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15792,9 +15412,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>48</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15831,9 +15449,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>48</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15870,9 +15486,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>48</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15909,9 +15523,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>48</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15948,9 +15560,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>48</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15987,9 +15597,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>48</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16026,9 +15634,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>48</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16065,9 +15671,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>48</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16104,9 +15708,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>48</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16143,9 +15745,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>48</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16182,9 +15782,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>48</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16221,9 +15819,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>48</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16260,9 +15856,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>48</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16299,9 +15893,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>48</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16338,9 +15930,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>48</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16377,9 +15967,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>48</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16416,9 +16004,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>48</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16455,9 +16041,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>48</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16494,9 +16078,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>48</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16533,9 +16115,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>48</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16572,9 +16152,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>48</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16611,9 +16189,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>48</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16650,9 +16226,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>48</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16689,9 +16263,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>48</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16728,9 +16300,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>48</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16767,9 +16337,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>48</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16806,9 +16374,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>48</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16845,9 +16411,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>48</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16884,9 +16448,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>48</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16923,9 +16485,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>48</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16962,9 +16522,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>48</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17001,9 +16559,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>48</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17040,9 +16596,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>48</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17079,9 +16633,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>48</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17118,9 +16670,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>48</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17157,9 +16707,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>48</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17196,9 +16744,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>48</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17235,9 +16781,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>48</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17274,9 +16818,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>48</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17313,9 +16855,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>48</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17352,9 +16892,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>48</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17391,9 +16929,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>48</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17430,9 +16966,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>48</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17469,9 +17003,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>48</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17508,9 +17040,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>48</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17547,9 +17077,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>48</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17583,23 +17111,19 @@
         <v>1838887.759882891</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>48</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L448" t="n">
-        <v>1.0575</v>
-      </c>
-      <c r="M448" t="n">
-        <v>1.069182389937107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -17624,11 +17148,15 @@
         <v>1846775.899482891</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17657,11 +17185,15 @@
         <v>1846775.899482891</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17690,11 +17222,15 @@
         <v>2163789.987617571</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17723,11 +17259,15 @@
         <v>2065566.469717571</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17756,11 +17296,15 @@
         <v>2065566.469717571</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17789,11 +17333,15 @@
         <v>2068766.469717571</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17826,7 +17374,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17859,7 +17411,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17892,7 +17448,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17925,7 +17485,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17958,7 +17522,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17987,11 +17555,15 @@
         <v>2061060.575417571</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18020,11 +17592,15 @@
         <v>2152013.863700441</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18053,11 +17629,15 @@
         <v>1999561.229600441</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18086,11 +17666,15 @@
         <v>2069696.268800441</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18123,7 +17707,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18156,7 +17744,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18189,7 +17781,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18222,7 +17818,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18255,7 +17855,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18284,11 +17888,15 @@
         <v>2069119.240400441</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18317,11 +17925,15 @@
         <v>2124181.905200441</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18350,11 +17962,15 @@
         <v>2035390.541800441</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18383,11 +17999,15 @@
         <v>2035703.367800441</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18416,11 +18036,15 @@
         <v>2035703.367800441</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18453,7 +18077,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18486,7 +18114,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18519,7 +18151,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18552,7 +18188,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18585,7 +18225,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18618,7 +18262,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18651,7 +18299,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18684,7 +18336,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18717,7 +18373,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18750,7 +18410,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18783,7 +18447,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18816,7 +18484,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18849,7 +18521,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18882,7 +18558,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18915,7 +18595,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18948,7 +18632,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18981,7 +18669,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19014,7 +18706,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19047,7 +18743,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19080,7 +18780,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19113,7 +18817,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19146,7 +18854,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19175,14 +18887,16 @@
         <v>2315875.296875531</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="n">
-        <v>1</v>
-      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="inlineStr"/>
     </row>
     <row r="497">
@@ -19208,7 +18922,7 @@
         <v>2453608.899653851</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19241,7 +18955,7 @@
         <v>2376035.377853851</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19274,7 +18988,7 @@
         <v>2376035.377853851</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19307,7 +19021,7 @@
         <v>2485901.114453851</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19340,7 +19054,7 @@
         <v>2445530.614453851</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19373,7 +19087,7 @@
         <v>2458140.614453851</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19406,7 +19120,7 @@
         <v>2495870.710453851</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19439,7 +19153,7 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19472,7 +19186,7 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19505,7 +19219,7 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19538,7 +19252,7 @@
         <v>2450756.951153851</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19571,7 +19285,7 @@
         <v>2445647.10175385</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19604,7 +19318,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19637,7 +19351,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19670,7 +19384,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19703,7 +19417,7 @@
         <v>2450123.17745385</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19736,7 +19450,7 @@
         <v>2450135.17745385</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19769,7 +19483,7 @@
         <v>2427939.460253851</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19802,7 +19516,7 @@
         <v>2428148.755453851</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19835,7 +19549,7 @@
         <v>2428148.755453851</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19868,7 +19582,7 @@
         <v>2316017.313853851</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19901,7 +19615,7 @@
         <v>2326497.669553851</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19934,7 +19648,7 @@
         <v>2326507.669553851</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19967,7 +19681,7 @@
         <v>2360384.787853851</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20000,7 +19714,7 @@
         <v>2360384.787853851</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20033,7 +19747,7 @@
         <v>2355702.505253851</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20066,7 +19780,7 @@
         <v>2393812.605953851</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20099,7 +19813,7 @@
         <v>2384169.605953851</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20132,7 +19846,7 @@
         <v>2353938.329553851</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20165,7 +19879,7 @@
         <v>2399457.262053851</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20198,7 +19912,7 @@
         <v>2370166.091253851</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20231,7 +19945,7 @@
         <v>2370177.091253851</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20264,7 +19978,7 @@
         <v>2389668.063753851</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20297,7 +20011,7 @@
         <v>2389668.063753851</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20330,7 +20044,7 @@
         <v>2386074.198453851</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20363,7 +20077,7 @@
         <v>2386074.198453851</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20396,7 +20110,7 @@
         <v>2386074.198453851</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20429,7 +20143,7 @@
         <v>2383442.929553851</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20462,7 +20176,7 @@
         <v>2389042.929553851</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20495,7 +20209,7 @@
         <v>2382464.987253851</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20528,7 +20242,7 @@
         <v>2393040.987253851</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20561,7 +20275,7 @@
         <v>2318733.828253851</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20594,7 +20308,7 @@
         <v>2362608.490953851</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20660,7 +20374,7 @@
         <v>2364005.070153851</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -22508,7 +22222,7 @@
         <v>2349507.916557641</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22541,7 +22255,7 @@
         <v>2349797.916557641</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22574,7 +22288,7 @@
         <v>2341915.329757641</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22607,7 +22321,7 @@
         <v>2341915.329757641</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22640,7 +22354,7 @@
         <v>2327265.679857641</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22673,7 +22387,7 @@
         <v>2327232.59855764</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22739,7 +22453,7 @@
         <v>2308192.78515764</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22772,7 +22486,7 @@
         <v>2269171.45605764</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22871,7 +22585,7 @@
         <v>2300541.35945764</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22904,7 +22618,7 @@
         <v>2287337.29815764</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
